--- a/documents/latent_vector/reinforce_enc.xlsx
+++ b/documents/latent_vector/reinforce_enc.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-11.86812400817871</v>
+        <v>2.552491188049316</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.662506103515625</v>
+        <v>2.461909770965576</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.246651649475098</v>
+        <v>0.5866960883140564</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-11.01749134063721</v>
+        <v>2.467656373977661</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.534680485725403</v>
+        <v>2.364236354827881</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.096201419830322</v>
+        <v>0.4300830960273743</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-10.16934299468994</v>
+        <v>2.421072721481323</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.476949214935303</v>
+        <v>2.261242389678955</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.01647424697876</v>
+        <v>0.2972498834133148</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-8.076852798461914</v>
+        <v>2.271708488464355</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9481252431869507</v>
+        <v>2.211045026779175</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.170856118202209</v>
+        <v>0.1853510439395905</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-8.160758018493652</v>
+        <v>2.509565830230713</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6659908890724182</v>
+        <v>2.613172769546509</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6173003315925598</v>
+        <v>0.1555665135383606</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-6.909852504730225</v>
+        <v>2.359973430633545</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6374449133872986</v>
+        <v>2.621245384216309</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6257249116897583</v>
+        <v>0.1072022616863251</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-6.318493366241455</v>
+        <v>2.220633268356323</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6403279304504395</v>
+        <v>2.360427618026733</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6629197597503662</v>
+        <v>0.2078305631875992</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-6.213098526000977</v>
+        <v>2.261659383773804</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7240138649940491</v>
+        <v>2.20667552947998</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7958375811576843</v>
+        <v>0.3467673659324646</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-5.78733491897583</v>
+        <v>2.066804885864258</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.597798764705658</v>
+        <v>2.27686595916748</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.618762731552124</v>
+        <v>0.05474090576171875</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-6.52411937713623</v>
+        <v>2.172357559204102</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5498347878456116</v>
+        <v>2.611487865447998</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4677736461162567</v>
+        <v>0.1385953277349472</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-6.122732162475586</v>
+        <v>2.044799566268921</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4100986123085022</v>
+        <v>2.251555204391479</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1751505434513092</v>
+        <v>0.05704975873231888</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-6.423218250274658</v>
+        <v>2.22774338722229</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.364056259393692</v>
+        <v>2.496306896209717</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.07562849670648575</v>
+        <v>0.09664085507392883</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-7.862286567687988</v>
+        <v>2.534535646438599</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.4156518578529358</v>
+        <v>2.916477203369141</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1478922665119171</v>
+        <v>0.03804641216993332</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-7.692884922027588</v>
+        <v>2.148407459259033</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3526355624198914</v>
+        <v>2.699539422988892</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05202092975378036</v>
+        <v>-0.07807201892137527</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-5.977602481842041</v>
+        <v>2.001873016357422</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1989763379096985</v>
+        <v>2.612201690673828</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2665861546993256</v>
+        <v>-0.2392299473285675</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-5.483490943908691</v>
+        <v>1.757769703865051</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.183255672454834</v>
+        <v>2.021964550018311</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3820536434650421</v>
+        <v>-0.1347458064556122</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-4.933933734893799</v>
+        <v>1.786569714546204</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2645899653434753</v>
+        <v>2.002165794372559</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2829118072986603</v>
+        <v>-0.2045515179634094</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-5.588658809661865</v>
+        <v>1.850355386734009</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2009406685829163</v>
+        <v>2.213374853134155</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3385781943798065</v>
+        <v>-0.2369404733181</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-5.340453147888184</v>
+        <v>1.872685432434082</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2283892035484314</v>
+        <v>2.318180084228516</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2406178414821625</v>
+        <v>-0.2894702255725861</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-6.335984706878662</v>
+        <v>2.085980653762817</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.6816127896308899</v>
+        <v>2.440057039260864</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.5826992392539978</v>
+        <v>-0.4095067083835602</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-6.445427417755127</v>
+        <v>1.810257434844971</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.115219593048096</v>
+        <v>2.075981378555298</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.403831124305725</v>
+        <v>-0.3143780529499054</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-7.108813285827637</v>
+        <v>1.799904346466064</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.366344690322876</v>
+        <v>2.06846022605896</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.785526037216187</v>
+        <v>-0.3294425308704376</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-7.922288417816162</v>
+        <v>1.944864630699158</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.468050479888916</v>
+        <v>2.105997562408447</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.947284817695618</v>
+        <v>-0.1090052947402</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-6.281467914581299</v>
+        <v>1.863267779350281</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.253474473953247</v>
+        <v>2.016876459121704</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.524723529815674</v>
+        <v>-0.03724192827939987</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-5.525514125823975</v>
+        <v>2.004865646362305</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.017504096031189</v>
+        <v>2.605080366134644</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.205129861831665</v>
+        <v>-0.1735927015542984</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-5.001198768615723</v>
+        <v>1.741527438163757</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.11623203754425</v>
+        <v>1.851589202880859</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.198575854301453</v>
+        <v>0.08352769166231155</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-4.88615608215332</v>
+        <v>1.79133939743042</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.05855119228363</v>
+        <v>1.824371814727783</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.156680345535278</v>
+        <v>0.1351825147867203</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-4.154004096984863</v>
+        <v>1.908296227455139</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.8213956952095032</v>
+        <v>1.881778001785278</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.863999605178833</v>
+        <v>0.1192944943904877</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-4.257935047149658</v>
+        <v>1.860579967498779</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.8396911025047302</v>
+        <v>1.771148324012756</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.8789851665496826</v>
+        <v>0.05537151545286179</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-4.260562419891357</v>
+        <v>1.843814015388489</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.7745956778526306</v>
+        <v>1.92538595199585</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.7465388178825378</v>
+        <v>-0.1599640250205994</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-4.747479438781738</v>
+        <v>2.059281587600708</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.9406320452690125</v>
+        <v>1.962078452110291</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.006236910820007</v>
+        <v>-0.01481649093329906</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-3.991292476654053</v>
+        <v>2.20139479637146</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.5081024169921875</v>
+        <v>2.501515626907349</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.3268333375453949</v>
+        <v>-0.1540663242340088</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-4.038748264312744</v>
+        <v>2.30931830406189</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.3721745908260345</v>
+        <v>2.697225093841553</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.09651539474725723</v>
+        <v>-0.08692692220211029</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-3.634828567504883</v>
+        <v>2.268319129943848</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.31612429022789</v>
+        <v>2.582161426544189</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.05310238152742386</v>
+        <v>0.06934471428394318</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-3.505252838134766</v>
+        <v>2.085085868835449</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.3554363548755646</v>
+        <v>2.613400459289551</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.09347919374704361</v>
+        <v>-0.01700451783835888</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-3.498237371444702</v>
+        <v>1.942300319671631</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.4044346809387207</v>
+        <v>2.350626707077026</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1913978755474091</v>
+        <v>0.04158336669206619</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-3.315960884094238</v>
+        <v>1.668899297714233</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.3973519802093506</v>
+        <v>1.915709972381592</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2050719857215881</v>
+        <v>0.03664030879735947</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-3.265310049057007</v>
+        <v>1.586342215538025</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.4591138958930969</v>
+        <v>1.841425895690918</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.3537252247333527</v>
+        <v>-0.01006225310266018</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-3.373483180999756</v>
+        <v>1.408190250396729</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.6014025211334229</v>
+        <v>1.535987019538879</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.614647388458252</v>
+        <v>0.08021330833435059</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-3.289095401763916</v>
+        <v>1.283590793609619</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.6758325099945068</v>
+        <v>1.4939786195755</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.7643768191337585</v>
+        <v>0.07968883216381073</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-3.310962200164795</v>
+        <v>1.12684953212738</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.7387377619743347</v>
+        <v>1.285810470581055</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.8289569616317749</v>
+        <v>0.03640062361955643</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-3.196574211120605</v>
+        <v>1.171793818473816</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.8062831163406372</v>
+        <v>1.356338143348694</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.9146726131439209</v>
+        <v>0.06546970456838608</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-2.961295127868652</v>
+        <v>1.298262715339661</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.7282328605651855</v>
+        <v>1.454076409339905</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.7930047512054443</v>
+        <v>0.09883902221918106</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-3.028946399688721</v>
+        <v>0.9638713002204895</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.8799874782562256</v>
+        <v>1.607500791549683</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.978137731552124</v>
+        <v>-0.06440692394971848</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-2.91376256942749</v>
+        <v>1.170827984809875</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.7400898933410645</v>
+        <v>1.75922703742981</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.783572793006897</v>
+        <v>-0.04313372075557709</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-2.539693355560303</v>
+        <v>0.7572377324104309</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.7540450692176819</v>
+        <v>1.733156681060791</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.873837947845459</v>
+        <v>-0.09238623827695847</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-2.623781204223633</v>
+        <v>0.8765602707862854</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.6800887584686279</v>
+        <v>1.931088328361511</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.7692476511001587</v>
+        <v>-0.1265628635883331</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-2.672677040100098</v>
+        <v>0.9817324280738831</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.5985670685768127</v>
+        <v>1.899287581443787</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.7051116228103638</v>
+        <v>-0.03297650068998337</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-2.614246368408203</v>
+        <v>0.9907023310661316</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.550911545753479</v>
+        <v>1.952479362487793</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.660719096660614</v>
+        <v>0.02807829156517982</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-2.539507150650024</v>
+        <v>0.9170798063278198</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.57194983959198</v>
+        <v>1.973340749740601</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.681890606880188</v>
+        <v>0.01707920990884304</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-2.532070398330688</v>
+        <v>0.7111184597015381</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.6622984409332275</v>
+        <v>1.831273198127747</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.7611427307128906</v>
+        <v>-0.08805400878190994</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-2.483891725540161</v>
+        <v>0.6757568120956421</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.6718522310256958</v>
+        <v>1.648378968238831</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.7706332206726074</v>
+        <v>-0.03864695876836777</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-2.375229597091675</v>
+        <v>0.6951901912689209</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.5998741984367371</v>
+        <v>1.630916833877563</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.6645616292953491</v>
+        <v>-0.05734655261039734</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-2.187427282333374</v>
+        <v>0.7088133692741394</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.5506665110588074</v>
+        <v>1.737042903900146</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.5757366418838501</v>
+        <v>-0.121612973511219</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-1.995081186294556</v>
+        <v>0.7401877641677856</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.5169126391410828</v>
+        <v>1.567070603370667</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.4738825857639313</v>
+        <v>-0.1491454243659973</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.73589301109314</v>
+        <v>0.7567923665046692</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.5081477761268616</v>
+        <v>1.580429077148438</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.4654522240161896</v>
+        <v>-0.07539426535367966</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.972649216651917</v>
+        <v>0.8765458464622498</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.4738399982452393</v>
+        <v>1.361713051795959</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.4150963723659515</v>
+        <v>0.006052175536751747</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.934316039085388</v>
+        <v>0.834540069103241</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.3847082853317261</v>
+        <v>1.278687477111816</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.3071180284023285</v>
+        <v>0.0488390177488327</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.911908030509949</v>
+        <v>0.8713215589523315</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.3822948932647705</v>
+        <v>1.275463819503784</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.2507414519786835</v>
+        <v>0.01638186909258366</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.869243979454041</v>
+        <v>0.8076299428939819</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.387949138879776</v>
+        <v>1.055321455001831</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1867807507514954</v>
+        <v>-0.004793589934706688</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.975402235984802</v>
+        <v>1.007833480834961</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.05446363240480423</v>
+        <v>1.123367190361023</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2601111829280853</v>
+        <v>0.03680682927370071</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.993751764297485</v>
+        <v>1.186620712280273</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.02734421938657761</v>
+        <v>1.350771069526672</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2945148646831512</v>
+        <v>0.07253744453191757</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-2.001168966293335</v>
+        <v>1.297047853469849</v>
       </c>
       <c r="C64" t="n">
-        <v>0.05597010999917984</v>
+        <v>1.681286454200745</v>
       </c>
       <c r="D64" t="n">
-        <v>0.353352278470993</v>
+        <v>0.158423125743866</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-2.102157831192017</v>
+        <v>1.427324175834656</v>
       </c>
       <c r="C65" t="n">
-        <v>0.06608248502016068</v>
+        <v>1.857553839683533</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3660465776920319</v>
+        <v>0.1291766464710236</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-2.180144071578979</v>
+        <v>1.395704507827759</v>
       </c>
       <c r="C66" t="n">
-        <v>0.02805303037166595</v>
+        <v>1.795687079429626</v>
       </c>
       <c r="D66" t="n">
-        <v>0.374695360660553</v>
+        <v>0.1493892222642899</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-2.178772211074829</v>
+        <v>1.518549919128418</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.005805395543575287</v>
+        <v>1.852498412132263</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3568447232246399</v>
+        <v>0.1673484891653061</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-2.183109760284424</v>
+        <v>1.507097721099854</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.02077031880617142</v>
+        <v>1.792690396308899</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3279973268508911</v>
+        <v>0.2202995270490646</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-2.154774904251099</v>
+        <v>1.527407884597778</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01963356882333755</v>
+        <v>1.742002248764038</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3414238095283508</v>
+        <v>0.1595867574214935</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.906981587409973</v>
+        <v>1.326816439628601</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.03239666670560837</v>
+        <v>1.399599552154541</v>
       </c>
       <c r="D70" t="n">
-        <v>0.270423024892807</v>
+        <v>0.1979935765266418</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.702279329299927</v>
+        <v>1.10310161113739</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.1096106544137001</v>
+        <v>1.169584035873413</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1783914268016815</v>
+        <v>0.1092646270990372</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.683970808982849</v>
+        <v>1.040369749069214</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.1612954139709473</v>
+        <v>1.003390550613403</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1525669097900391</v>
+        <v>0.1464895755052567</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.677537083625793</v>
+        <v>1.030434727668762</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.1546830236911774</v>
+        <v>1.062804460525513</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1443395614624023</v>
+        <v>0.1588892191648483</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.682635426521301</v>
+        <v>0.8995783925056458</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.1098518222570419</v>
+        <v>1.092394351959229</v>
       </c>
       <c r="D74" t="n">
-        <v>0.185124397277832</v>
+        <v>0.2088165581226349</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.73070216178894</v>
+        <v>0.9322554469108582</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.06355147808790207</v>
+        <v>1.162065982818604</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2380687296390533</v>
+        <v>0.2516522407531738</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.607940673828125</v>
+        <v>0.9602301716804504</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.05969403684139252</v>
+        <v>1.285311698913574</v>
       </c>
       <c r="D76" t="n">
-        <v>0.2221644222736359</v>
+        <v>0.3148599565029144</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.416581988334656</v>
+        <v>0.9262775182723999</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.03081981092691422</v>
+        <v>1.435050010681152</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2192187309265137</v>
+        <v>0.3421922624111176</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.322923183441162</v>
+        <v>0.9606026411056519</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1371565461158752</v>
+        <v>1.411716818809509</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2809463143348694</v>
+        <v>0.4430458247661591</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.268172264099121</v>
+        <v>0.9641035795211792</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2522601187229156</v>
+        <v>1.589503407478333</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3066948652267456</v>
+        <v>0.4846509397029877</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.192497849464417</v>
+        <v>0.9744523763656616</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.03219272196292877</v>
+        <v>1.48851215839386</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1733287572860718</v>
+        <v>0.4874642789363861</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.203182578086853</v>
+        <v>0.8519819378852844</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.1202246621251106</v>
+        <v>1.469177603721619</v>
       </c>
       <c r="D81" t="n">
-        <v>0.121902696788311</v>
+        <v>0.3848924934864044</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.165726184844971</v>
+        <v>0.915179967880249</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.1737719178199768</v>
+        <v>1.456046223640442</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.003340542316436768</v>
+        <v>0.3157003223896027</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.055501103401184</v>
+        <v>0.8618196845054626</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.1742837429046631</v>
+        <v>1.5166335105896</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.03754671663045883</v>
+        <v>0.3441129624843597</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.061424255371094</v>
+        <v>1.028302192687988</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1698333024978638</v>
+        <v>1.57755434513092</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01542416960000992</v>
+        <v>0.426413506269455</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.894134521484375</v>
+        <v>1.166812658309937</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.01332660764455795</v>
+        <v>1.595522522926331</v>
       </c>
       <c r="D85" t="n">
-        <v>0.06956356018781662</v>
+        <v>0.5000584125518799</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.8721854686737061</v>
+        <v>1.044161319732666</v>
       </c>
       <c r="C86" t="n">
-        <v>0.06646236777305603</v>
+        <v>1.767048478126526</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1563443243503571</v>
+        <v>0.4990953207015991</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.7859324812889099</v>
+        <v>1.435035705566406</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2997687757015228</v>
+        <v>2.083010196685791</v>
       </c>
       <c r="D87" t="n">
-        <v>0.191423624753952</v>
+        <v>0.8698132634162903</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.7231022119522095</v>
+        <v>1.344011545181274</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3343945741653442</v>
+        <v>2.196496486663818</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1548468470573425</v>
+        <v>0.7267605662345886</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.6982690691947937</v>
+        <v>1.682880163192749</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2115569114685059</v>
+        <v>2.146383762359619</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1468481719493866</v>
+        <v>0.795150101184845</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.6004316806793213</v>
+        <v>1.953266859054565</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1674730777740479</v>
+        <v>2.439794540405273</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1019408106803894</v>
+        <v>0.8853580355644226</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.5733603239059448</v>
+        <v>1.758750200271606</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2473393976688385</v>
+        <v>2.128619909286499</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1203677281737328</v>
+        <v>0.9799073934555054</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.5225424766540527</v>
+        <v>1.570566177368164</v>
       </c>
       <c r="C92" t="n">
-        <v>0.08999703824520111</v>
+        <v>2.352657556533813</v>
       </c>
       <c r="D92" t="n">
-        <v>0.05703891068696976</v>
+        <v>0.8796639442443848</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.5319024920463562</v>
+        <v>1.247984886169434</v>
       </c>
       <c r="C93" t="n">
-        <v>0.06339044123888016</v>
+        <v>2.302687168121338</v>
       </c>
       <c r="D93" t="n">
-        <v>0.04780067503452301</v>
+        <v>0.6598914265632629</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.4629166126251221</v>
+        <v>1.384311079978943</v>
       </c>
       <c r="C94" t="n">
-        <v>0.05443676188588142</v>
+        <v>2.310229539871216</v>
       </c>
       <c r="D94" t="n">
-        <v>0.02961308881640434</v>
+        <v>0.7824422717094421</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.412149041891098</v>
+        <v>1.402405500411987</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.001825578510761261</v>
+        <v>2.33789849281311</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.004132982343435287</v>
+        <v>0.9088767766952515</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.5116966366767883</v>
+        <v>1.277677774429321</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.005441904067993164</v>
+        <v>2.377210140228271</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0069570392370224</v>
+        <v>0.7580512166023254</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.5976892709732056</v>
+        <v>1.366391181945801</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.084723100066185</v>
+        <v>2.26018500328064</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.04759415239095688</v>
+        <v>0.8319108486175537</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.6812765002250671</v>
+        <v>1.412785887718201</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.1414190530776978</v>
+        <v>2.325617074966431</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.1064553111791611</v>
+        <v>0.8578730225563049</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.5887076854705811</v>
+        <v>1.432641863822937</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.04735583439469337</v>
+        <v>2.231054544448853</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.01768890395760536</v>
+        <v>0.8260070085525513</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.3819965124130249</v>
+        <v>1.209855198860168</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.06497889757156372</v>
+        <v>2.389872789382935</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.05029040575027466</v>
+        <v>0.7239856719970703</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.668256402015686</v>
+        <v>0.9962781071662903</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.1857157945632935</v>
+        <v>2.05000638961792</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.1859272718429565</v>
+        <v>0.6530608534812927</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.4108822047710419</v>
+        <v>1.052894115447998</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.1237943917512894</v>
+        <v>2.095607757568359</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.06645840406417847</v>
+        <v>0.719169557094574</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.5359093546867371</v>
+        <v>1.111484527587891</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.173914760351181</v>
+        <v>1.904213666915894</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.1383665800094604</v>
+        <v>0.8089923858642578</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.5201804041862488</v>
+        <v>1.207503199577332</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.1779796779155731</v>
+        <v>1.809156894683838</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.1260184049606323</v>
+        <v>0.8205513954162598</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.4345100224018097</v>
+        <v>1.329449772834778</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.1542057991027832</v>
+        <v>1.739388108253479</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.1195146515965462</v>
+        <v>0.9627901315689087</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.4196621477603912</v>
+        <v>1.439180850982666</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.1308024525642395</v>
+        <v>2.225091457366943</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.1670717597007751</v>
+        <v>0.9231764674186707</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.4023725092411041</v>
+        <v>1.645866274833679</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.1684021651744843</v>
+        <v>2.273701906204224</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.1628941297531128</v>
+        <v>1.204203248023987</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.3523918688297272</v>
+        <v>1.642429113388062</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.1659770905971527</v>
+        <v>2.277136087417603</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.2054184079170227</v>
+        <v>1.341412782669067</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.2313055694103241</v>
+        <v>1.51577889919281</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.07435003668069839</v>
+        <v>2.642958879470825</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.1748903393745422</v>
+        <v>1.104959726333618</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.2079248428344727</v>
+        <v>1.776958107948303</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.03761027753353119</v>
+        <v>2.611879110336304</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.2302573025226593</v>
+        <v>1.152047634124756</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.541911244392395</v>
+        <v>1.859445571899414</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.2390105426311493</v>
+        <v>2.521867990493774</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.2382172346115112</v>
+        <v>1.111168026924133</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.5928570628166199</v>
+        <v>1.779563307762146</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.258881688117981</v>
+        <v>2.296710014343262</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.2582243978977203</v>
+        <v>1.096603035926819</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.8349457979202271</v>
+        <v>1.550083518028259</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.3235767483711243</v>
+        <v>2.445988655090332</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.4205248057842255</v>
+        <v>0.9920331239700317</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.8198616504669189</v>
+        <v>1.367781519889832</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.2893093824386597</v>
+        <v>2.21928596496582</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.3917869627475739</v>
+        <v>0.9454163908958435</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.9298993945121765</v>
+        <v>1.432573437690735</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.3181378543376923</v>
+        <v>2.274601459503174</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.4383249580860138</v>
+        <v>0.7787826657295227</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-1.09331750869751</v>
+        <v>1.458858728408813</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.3918148577213287</v>
+        <v>2.05225944519043</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.5498541593551636</v>
+        <v>0.8513472676277161</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-1.09566855430603</v>
+        <v>1.510027408599854</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.3888800144195557</v>
+        <v>1.981247544288635</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.5389361977577209</v>
+        <v>0.9831429123878479</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.011541366577148</v>
+        <v>1.439348816871643</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.3785912990570068</v>
+        <v>1.806180000305176</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.5309200882911682</v>
+        <v>0.8620573878288269</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.103463768959045</v>
+        <v>1.665814161300659</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.3909012079238892</v>
+        <v>2.047175645828247</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.5383559465408325</v>
+        <v>1.017597556114197</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.264722347259521</v>
+        <v>1.584466814994812</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.469654768705368</v>
+        <v>2.355709075927734</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.602528989315033</v>
+        <v>0.9477224349975586</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.229732275009155</v>
+        <v>1.263629078865051</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.4985098242759705</v>
+        <v>2.036457300186157</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.6750310659408569</v>
+        <v>0.7841086983680725</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-1.148296713829041</v>
+        <v>1.049477696418762</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.4833051562309265</v>
+        <v>1.95162296295166</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.6657776236534119</v>
+        <v>0.7620112895965576</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-1.254347324371338</v>
+        <v>1.274427056312561</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.5205716490745544</v>
+        <v>1.644499182701111</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.7133623361587524</v>
+        <v>0.759482204914093</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-1.379098296165466</v>
+        <v>1.149719953536987</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.5355633497238159</v>
+        <v>1.928409337997437</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.694506049156189</v>
+        <v>0.7258700132369995</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.27063250541687</v>
+        <v>1.121899247169495</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.5257158875465393</v>
+        <v>2.039511680603027</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.6790902018547058</v>
+        <v>0.6521854400634766</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-1.492365598678589</v>
+        <v>1.211663603782654</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.6291522979736328</v>
+        <v>1.983237624168396</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.8439425230026245</v>
+        <v>0.5108741521835327</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.544284582138062</v>
+        <v>1.233845591545105</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.6824104189872742</v>
+        <v>1.788679361343384</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.9300835132598877</v>
+        <v>0.6142788529396057</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.54225218296051</v>
+        <v>1.243554353713989</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.6890310049057007</v>
+        <v>1.786738157272339</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.9452212452888489</v>
+        <v>0.590581476688385</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-1.493376731872559</v>
+        <v>1.310564994812012</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.6442919373512268</v>
+        <v>1.967265486717224</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.8679430484771729</v>
+        <v>0.5988356471061707</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-1.3557288646698</v>
+        <v>1.169558644294739</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.6410050988197327</v>
+        <v>1.559106349945068</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.8678947687149048</v>
+        <v>0.6759769320487976</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-1.206682682037354</v>
+        <v>0.8632199764251709</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.5927956700325012</v>
+        <v>1.390483975410461</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.823298454284668</v>
+        <v>0.5815303921699524</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.2100830078125</v>
+        <v>0.7860820889472961</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.6013357043266296</v>
+        <v>1.238338112831116</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.8386203050613403</v>
+        <v>0.6313612461090088</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-1.156394958496094</v>
+        <v>0.8964130282402039</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.5997086763381958</v>
+        <v>1.253611326217651</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.8335219025611877</v>
+        <v>0.6893773674964905</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-1.356205701828003</v>
+        <v>1.01818585395813</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.6731075644493103</v>
+        <v>1.343465447425842</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.9394832253456116</v>
+        <v>0.6295093894004822</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-1.501490116119385</v>
+        <v>1.096198320388794</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.7484247088432312</v>
+        <v>1.270347952842712</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.042568445205688</v>
+        <v>0.710368812084198</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-1.274307250976562</v>
+        <v>1.127330660820007</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.717567503452301</v>
+        <v>1.081329822540283</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.9414725303649902</v>
+        <v>0.7410832643508911</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.227148294448853</v>
+        <v>1.050151824951172</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.7154039144515991</v>
+        <v>0.8805389404296875</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.9324879050254822</v>
+        <v>0.7478955984115601</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.9325726628303528</v>
+        <v>1.272258162498474</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.6545311808586121</v>
+        <v>0.6561440229415894</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.7719683647155762</v>
+        <v>1.014635801315308</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.79438716173172</v>
+        <v>1.387029051780701</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.6152682304382324</v>
+        <v>0.6273592710494995</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.745657205581665</v>
+        <v>1.101952433586121</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.9433162212371826</v>
+        <v>1.419118285179138</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.6797860264778137</v>
+        <v>0.9569357633590698</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.806466817855835</v>
+        <v>1.231660485267639</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.8597927093505859</v>
+        <v>1.161798715591431</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.6629323363304138</v>
+        <v>0.9725151062011719</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.7979639172554016</v>
+        <v>1.224188804626465</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.8343305587768555</v>
+        <v>1.071387648582458</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.6768186092376709</v>
+        <v>1.236148595809937</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.8249138593673706</v>
+        <v>1.084892272949219</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.8219500184059143</v>
+        <v>1.175553798675537</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.6717263460159302</v>
+        <v>1.087212085723877</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.8381412029266357</v>
+        <v>1.219983339309692</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.9214993715286255</v>
+        <v>1.284525394439697</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.7365682125091553</v>
+        <v>1.028757810592651</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.8933113217353821</v>
+        <v>1.119376659393311</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-1.367090702056885</v>
+        <v>1.665838241577148</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.9225676655769348</v>
+        <v>1.230643391609192</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.055902600288391</v>
+        <v>1.376886010169983</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-1.673649907112122</v>
+        <v>1.531671285629272</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.9513902068138123</v>
+        <v>1.003549695014954</v>
       </c>
       <c r="D146" t="n">
-        <v>-1.168582677841187</v>
+        <v>1.029783844947815</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-1.490402936935425</v>
+        <v>1.420443534851074</v>
       </c>
       <c r="C147" t="n">
-        <v>-1.000388264656067</v>
+        <v>0.9604295492172241</v>
       </c>
       <c r="D147" t="n">
-        <v>-1.140694379806519</v>
+        <v>1.059722781181335</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.23151171207428</v>
+        <v>1.372584700584412</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.8332571387290955</v>
+        <v>0.9863084554672241</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.9866697788238525</v>
+        <v>1.063044667243958</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.382027149200439</v>
+        <v>1.410049438476562</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.9551730751991272</v>
+        <v>1.195069074630737</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.128918528556824</v>
+        <v>1.205061912536621</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.212767124176025</v>
+        <v>1.456364870071411</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.8937188982963562</v>
+        <v>1.333532214164734</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.073758363723755</v>
+        <v>1.418634414672852</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.8945842981338501</v>
+        <v>1.238738298416138</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.7750361561775208</v>
+        <v>1.41335141658783</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.9776667356491089</v>
+        <v>1.08763599395752</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.922900378704071</v>
+        <v>1.316498994827271</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.8109186291694641</v>
+        <v>1.755817770957947</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.038275718688965</v>
+        <v>1.114148139953613</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.9709151983261108</v>
+        <v>1.271468877792358</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.855948805809021</v>
+        <v>1.644085049629211</v>
       </c>
       <c r="D153" t="n">
-        <v>-1.107533931732178</v>
+        <v>1.074745774269104</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-1.260223031044006</v>
+        <v>1.52321445941925</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.9839451313018799</v>
+        <v>1.798911452293396</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.184151411056519</v>
+        <v>1.051023364067078</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-1.175445914268494</v>
+        <v>1.565255641937256</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.9450938701629639</v>
+        <v>1.787863850593567</v>
       </c>
       <c r="D155" t="n">
-        <v>-1.158556461334229</v>
+        <v>1.187551736831665</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-1.134915828704834</v>
+        <v>1.593283414840698</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.9135457277297974</v>
+        <v>1.850766062736511</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.125455975532532</v>
+        <v>1.155646204948425</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-1.128856301307678</v>
+        <v>1.658652663230896</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.9636306166648865</v>
+        <v>1.872782588005066</v>
       </c>
       <c r="D157" t="n">
-        <v>-1.20199179649353</v>
+        <v>1.414077401161194</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-1.062961459159851</v>
+        <v>1.843910217285156</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.9717339277267456</v>
+        <v>1.720841646194458</v>
       </c>
       <c r="D158" t="n">
-        <v>-1.249267220497131</v>
+        <v>1.715916752815247</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-1.148007273674011</v>
+        <v>1.691518425941467</v>
       </c>
       <c r="C159" t="n">
-        <v>-1.036627531051636</v>
+        <v>1.673630356788635</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.30665647983551</v>
+        <v>1.59411346912384</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-1.242269992828369</v>
+        <v>1.821085929870605</v>
       </c>
       <c r="C160" t="n">
-        <v>-1.17069399356842</v>
+        <v>1.808902859687805</v>
       </c>
       <c r="D160" t="n">
-        <v>-1.490917444229126</v>
+        <v>1.799448609352112</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-1.206582188606262</v>
+        <v>1.710016489028931</v>
       </c>
       <c r="C161" t="n">
-        <v>-1.11616063117981</v>
+        <v>1.79377007484436</v>
       </c>
       <c r="D161" t="n">
-        <v>-1.400317549705505</v>
+        <v>1.722416758537292</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-1.047989964485168</v>
+        <v>1.560071229934692</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.9593653678894043</v>
+        <v>1.5775465965271</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.242748856544495</v>
+        <v>1.661917090415955</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.182512402534485</v>
+        <v>1.941545844078064</v>
       </c>
       <c r="C163" t="n">
-        <v>-1.172090172767639</v>
+        <v>1.879468560218811</v>
       </c>
       <c r="D163" t="n">
-        <v>-1.532283425331116</v>
+        <v>1.979253888130188</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-1.250941872596741</v>
+        <v>1.724233746528625</v>
       </c>
       <c r="C164" t="n">
-        <v>-1.2172532081604</v>
+        <v>1.844399452209473</v>
       </c>
       <c r="D164" t="n">
-        <v>-1.594595551490784</v>
+        <v>1.821684718132019</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-1.341490030288696</v>
+        <v>1.858260631561279</v>
       </c>
       <c r="C165" t="n">
-        <v>-1.27757203578949</v>
+        <v>2.067596197128296</v>
       </c>
       <c r="D165" t="n">
-        <v>-1.64719569683075</v>
+        <v>1.929091095924377</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-1.593587279319763</v>
+        <v>1.85989785194397</v>
       </c>
       <c r="C166" t="n">
-        <v>-1.417303800582886</v>
+        <v>2.200737953186035</v>
       </c>
       <c r="D166" t="n">
-        <v>-1.761523008346558</v>
+        <v>1.967105388641357</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-1.657594919204712</v>
+        <v>1.734040260314941</v>
       </c>
       <c r="C167" t="n">
-        <v>-1.582396745681763</v>
+        <v>1.930413603782654</v>
       </c>
       <c r="D167" t="n">
-        <v>-1.992007493972778</v>
+        <v>1.986704707145691</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.473989009857178</v>
+        <v>1.594191074371338</v>
       </c>
       <c r="C168" t="n">
-        <v>-1.397723078727722</v>
+        <v>1.623334407806396</v>
       </c>
       <c r="D168" t="n">
-        <v>-1.779110312461853</v>
+        <v>1.781921982765198</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-1.768576502799988</v>
+        <v>1.461182832717896</v>
       </c>
       <c r="C169" t="n">
-        <v>-1.62359344959259</v>
+        <v>1.835854053497314</v>
       </c>
       <c r="D169" t="n">
-        <v>-2.032893657684326</v>
+        <v>1.656387329101562</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-1.996213793754578</v>
+        <v>1.463958740234375</v>
       </c>
       <c r="C170" t="n">
-        <v>-1.743947744369507</v>
+        <v>1.776729822158813</v>
       </c>
       <c r="D170" t="n">
-        <v>-2.118268966674805</v>
+        <v>1.660637617111206</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-2.16568398475647</v>
+        <v>1.460697412490845</v>
       </c>
       <c r="C171" t="n">
-        <v>-1.8173588514328</v>
+        <v>1.861257314682007</v>
       </c>
       <c r="D171" t="n">
-        <v>-2.178976058959961</v>
+        <v>1.601017713546753</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-2.064639329910278</v>
+        <v>1.569200038909912</v>
       </c>
       <c r="C172" t="n">
-        <v>-1.939295887947083</v>
+        <v>1.914843678474426</v>
       </c>
       <c r="D172" t="n">
-        <v>-2.387522220611572</v>
+        <v>1.737813115119934</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-1.982604265213013</v>
+        <v>1.647168397903442</v>
       </c>
       <c r="C173" t="n">
-        <v>-1.919911861419678</v>
+        <v>2.06904125213623</v>
       </c>
       <c r="D173" t="n">
-        <v>-2.388089418411255</v>
+        <v>1.846820831298828</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.7006756067276</v>
+        <v>1.423246264457703</v>
       </c>
       <c r="C174" t="n">
-        <v>-1.623932003974915</v>
+        <v>1.81602668762207</v>
       </c>
       <c r="D174" t="n">
-        <v>-2.072912931442261</v>
+        <v>1.614881277084351</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.822643280029297</v>
+        <v>1.51466429233551</v>
       </c>
       <c r="C175" t="n">
-        <v>-1.915064930915833</v>
+        <v>2.283936023712158</v>
       </c>
       <c r="D175" t="n">
-        <v>-2.442008018493652</v>
+        <v>1.88678240776062</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-2.345759391784668</v>
+        <v>1.339405417442322</v>
       </c>
       <c r="C176" t="n">
-        <v>-2.24214506149292</v>
+        <v>2.579615831375122</v>
       </c>
       <c r="D176" t="n">
-        <v>-2.725443601608276</v>
+        <v>1.791185140609741</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-2.48433518409729</v>
+        <v>1.440062999725342</v>
       </c>
       <c r="C177" t="n">
-        <v>-2.449627161026001</v>
+        <v>2.469234466552734</v>
       </c>
       <c r="D177" t="n">
-        <v>-2.9262855052948</v>
+        <v>1.926612019538879</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-2.506050109863281</v>
+        <v>1.495665550231934</v>
       </c>
       <c r="C178" t="n">
-        <v>-2.444658279418945</v>
+        <v>2.50617241859436</v>
       </c>
       <c r="D178" t="n">
-        <v>-2.924870014190674</v>
+        <v>1.957793831825256</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-2.865187168121338</v>
+        <v>1.52253258228302</v>
       </c>
       <c r="C179" t="n">
-        <v>-2.549853801727295</v>
+        <v>2.56308388710022</v>
       </c>
       <c r="D179" t="n">
-        <v>-2.957492589950562</v>
+        <v>1.936531066894531</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-2.815379619598389</v>
+        <v>1.195545792579651</v>
       </c>
       <c r="C180" t="n">
-        <v>-2.257861614227295</v>
+        <v>2.259836196899414</v>
       </c>
       <c r="D180" t="n">
-        <v>-2.560409784317017</v>
+        <v>1.521642804145813</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-3.082642793655396</v>
+        <v>1.194432020187378</v>
       </c>
       <c r="C181" t="n">
-        <v>-2.385073900222778</v>
+        <v>2.088274478912354</v>
       </c>
       <c r="D181" t="n">
-        <v>-2.661996841430664</v>
+        <v>1.579664587974548</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-3.40684986114502</v>
+        <v>1.282683730125427</v>
       </c>
       <c r="C182" t="n">
-        <v>-2.530136823654175</v>
+        <v>2.091082572937012</v>
       </c>
       <c r="D182" t="n">
-        <v>-2.766430139541626</v>
+        <v>1.70947253704071</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-3.562474966049194</v>
+        <v>1.223009347915649</v>
       </c>
       <c r="C183" t="n">
-        <v>-2.489089012145996</v>
+        <v>2.053871870040894</v>
       </c>
       <c r="D183" t="n">
-        <v>-2.668360948562622</v>
+        <v>1.666963696479797</v>
       </c>
     </row>
   </sheetData>

--- a/documents/latent_vector/reinforce_enc.xlsx
+++ b/documents/latent_vector/reinforce_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.552491188049316</v>
+        <v>-0.1027880236506462</v>
       </c>
       <c r="C2" t="n">
-        <v>2.461909770965576</v>
+        <v>1.906543731689453</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5866960883140564</v>
+        <v>-3.686102867126465</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.467656373977661</v>
+        <v>-0.5131862759590149</v>
       </c>
       <c r="C3" t="n">
-        <v>2.364236354827881</v>
+        <v>2.078512191772461</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4300830960273743</v>
+        <v>-3.524117231369019</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.421072721481323</v>
+        <v>-0.656209409236908</v>
       </c>
       <c r="C4" t="n">
-        <v>2.261242389678955</v>
+        <v>1.81331467628479</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2972498834133148</v>
+        <v>-2.969225406646729</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.271708488464355</v>
+        <v>-0.4096362292766571</v>
       </c>
       <c r="C5" t="n">
-        <v>2.211045026779175</v>
+        <v>2.10040545463562</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1853510439395905</v>
+        <v>-3.094980716705322</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.509565830230713</v>
+        <v>-0.5324670672416687</v>
       </c>
       <c r="C6" t="n">
-        <v>2.613172769546509</v>
+        <v>2.154234170913696</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1555665135383606</v>
+        <v>-3.319476127624512</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.359973430633545</v>
+        <v>-0.5475437641143799</v>
       </c>
       <c r="C7" t="n">
-        <v>2.621245384216309</v>
+        <v>2.1981201171875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1072022616863251</v>
+        <v>-3.308453321456909</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.220633268356323</v>
+        <v>-0.3791365623474121</v>
       </c>
       <c r="C8" t="n">
-        <v>2.360427618026733</v>
+        <v>2.221109867095947</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2078305631875992</v>
+        <v>-3.128932476043701</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.261659383773804</v>
+        <v>-0.4532399773597717</v>
       </c>
       <c r="C9" t="n">
-        <v>2.20667552947998</v>
+        <v>2.215059280395508</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3467673659324646</v>
+        <v>-3.002605199813843</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.066804885864258</v>
+        <v>-0.3592346608638763</v>
       </c>
       <c r="C10" t="n">
-        <v>2.27686595916748</v>
+        <v>2.197157144546509</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05474090576171875</v>
+        <v>-2.908089876174927</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.172357559204102</v>
+        <v>-0.5024014115333557</v>
       </c>
       <c r="C11" t="n">
-        <v>2.611487865447998</v>
+        <v>2.094119548797607</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1385953277349472</v>
+        <v>-2.773774862289429</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.044799566268921</v>
+        <v>-0.6968201398849487</v>
       </c>
       <c r="C12" t="n">
-        <v>2.251555204391479</v>
+        <v>1.968443512916565</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05704975873231888</v>
+        <v>-2.481884717941284</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.22774338722229</v>
+        <v>-0.8121693730354309</v>
       </c>
       <c r="C13" t="n">
-        <v>2.496306896209717</v>
+        <v>1.880627155303955</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09664085507392883</v>
+        <v>-2.47839093208313</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.534535646438599</v>
+        <v>-0.7824781537055969</v>
       </c>
       <c r="C14" t="n">
-        <v>2.916477203369141</v>
+        <v>1.798726081848145</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03804641216993332</v>
+        <v>-2.63618803024292</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.148407459259033</v>
+        <v>-0.7683869600296021</v>
       </c>
       <c r="C15" t="n">
-        <v>2.699539422988892</v>
+        <v>1.791424036026001</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.07807201892137527</v>
+        <v>-2.322620391845703</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.001873016357422</v>
+        <v>-0.7652460336685181</v>
       </c>
       <c r="C16" t="n">
-        <v>2.612201690673828</v>
+        <v>1.957275867462158</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2392299473285675</v>
+        <v>-2.305546760559082</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.757769703865051</v>
+        <v>-0.8970277309417725</v>
       </c>
       <c r="C17" t="n">
-        <v>2.021964550018311</v>
+        <v>1.958572506904602</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1347458064556122</v>
+        <v>-2.148503065109253</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.786569714546204</v>
+        <v>-1.169272661209106</v>
       </c>
       <c r="C18" t="n">
-        <v>2.002165794372559</v>
+        <v>2.139268398284912</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2045515179634094</v>
+        <v>-2.091480255126953</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.850355386734009</v>
+        <v>-1.032363653182983</v>
       </c>
       <c r="C19" t="n">
-        <v>2.213374853134155</v>
+        <v>2.130436897277832</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2369404733181</v>
+        <v>-2.310638666152954</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.872685432434082</v>
+        <v>-0.9414240717887878</v>
       </c>
       <c r="C20" t="n">
-        <v>2.318180084228516</v>
+        <v>2.159292697906494</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2894702255725861</v>
+        <v>-2.362686634063721</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.085980653762817</v>
+        <v>-1.342191696166992</v>
       </c>
       <c r="C21" t="n">
-        <v>2.440057039260864</v>
+        <v>2.099910259246826</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.4095067083835602</v>
+        <v>-2.388272047042847</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.810257434844971</v>
+        <v>-1.245833277702332</v>
       </c>
       <c r="C22" t="n">
-        <v>2.075981378555298</v>
+        <v>2.408719539642334</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3143780529499054</v>
+        <v>-2.333490371704102</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.799904346466064</v>
+        <v>-1.469611644744873</v>
       </c>
       <c r="C23" t="n">
-        <v>2.06846022605896</v>
+        <v>2.361510276794434</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3294425308704376</v>
+        <v>-2.082874059677124</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.944864630699158</v>
+        <v>-1.396985530853271</v>
       </c>
       <c r="C24" t="n">
-        <v>2.105997562408447</v>
+        <v>2.2653489112854</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1090052947402</v>
+        <v>-2.177962779998779</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.863267779350281</v>
+        <v>-1.162533283233643</v>
       </c>
       <c r="C25" t="n">
-        <v>2.016876459121704</v>
+        <v>2.370081186294556</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.03724192827939987</v>
+        <v>-2.134577035903931</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.004865646362305</v>
+        <v>-0.8485726714134216</v>
       </c>
       <c r="C26" t="n">
-        <v>2.605080366134644</v>
+        <v>2.567919254302979</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1735927015542984</v>
+        <v>-2.607168674468994</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.741527438163757</v>
+        <v>-0.9202169179916382</v>
       </c>
       <c r="C27" t="n">
-        <v>1.851589202880859</v>
+        <v>2.736235618591309</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08352769166231155</v>
+        <v>-2.585614681243896</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.79133939743042</v>
+        <v>-0.8293378949165344</v>
       </c>
       <c r="C28" t="n">
-        <v>1.824371814727783</v>
+        <v>2.706133842468262</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1351825147867203</v>
+        <v>-2.724396228790283</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.908296227455139</v>
+        <v>-0.841600239276886</v>
       </c>
       <c r="C29" t="n">
-        <v>1.881778001785278</v>
+        <v>2.756782293319702</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1192944943904877</v>
+        <v>-2.884178876876831</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.860579967498779</v>
+        <v>-0.9037100672721863</v>
       </c>
       <c r="C30" t="n">
-        <v>1.771148324012756</v>
+        <v>2.864889621734619</v>
       </c>
       <c r="D30" t="n">
-        <v>0.05537151545286179</v>
+        <v>-2.737896919250488</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.843814015388489</v>
+        <v>-0.847541868686676</v>
       </c>
       <c r="C31" t="n">
-        <v>1.92538595199585</v>
+        <v>2.673693656921387</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1599640250205994</v>
+        <v>-2.822803974151611</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.059281587600708</v>
+        <v>-1.191736459732056</v>
       </c>
       <c r="C32" t="n">
-        <v>1.962078452110291</v>
+        <v>2.584054470062256</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.01481649093329906</v>
+        <v>-2.859975814819336</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.20139479637146</v>
+        <v>-0.7815396785736084</v>
       </c>
       <c r="C33" t="n">
-        <v>2.501515626907349</v>
+        <v>2.539755344390869</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1540663242340088</v>
+        <v>-3.118652105331421</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.30931830406189</v>
+        <v>-0.4177454113960266</v>
       </c>
       <c r="C34" t="n">
-        <v>2.697225093841553</v>
+        <v>2.262445688247681</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.08692692220211029</v>
+        <v>-3.39041543006897</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.268319129943848</v>
+        <v>-0.3338529169559479</v>
       </c>
       <c r="C35" t="n">
-        <v>2.582161426544189</v>
+        <v>2.025078296661377</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06934471428394318</v>
+        <v>-3.247799158096313</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.085085868835449</v>
+        <v>-0.4653753340244293</v>
       </c>
       <c r="C36" t="n">
-        <v>2.613400459289551</v>
+        <v>2.235419988632202</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.01700451783835888</v>
+        <v>-3.143571615219116</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.942300319671631</v>
+        <v>-0.3707650601863861</v>
       </c>
       <c r="C37" t="n">
-        <v>2.350626707077026</v>
+        <v>2.326066255569458</v>
       </c>
       <c r="D37" t="n">
-        <v>0.04158336669206619</v>
+        <v>-3.015414714813232</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.668899297714233</v>
+        <v>-0.4586542546749115</v>
       </c>
       <c r="C38" t="n">
-        <v>1.915709972381592</v>
+        <v>2.200917720794678</v>
       </c>
       <c r="D38" t="n">
-        <v>0.03664030879735947</v>
+        <v>-2.517891883850098</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.586342215538025</v>
+        <v>-0.6506146788597107</v>
       </c>
       <c r="C39" t="n">
-        <v>1.841425895690918</v>
+        <v>2.346634387969971</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.01006225310266018</v>
+        <v>-2.364453315734863</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.408190250396729</v>
+        <v>-0.6574557423591614</v>
       </c>
       <c r="C40" t="n">
-        <v>1.535987019538879</v>
+        <v>2.338192462921143</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08021330833435059</v>
+        <v>-2.258158922195435</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.283590793609619</v>
+        <v>-0.7961663007736206</v>
       </c>
       <c r="C41" t="n">
-        <v>1.4939786195755</v>
+        <v>2.46626877784729</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07968883216381073</v>
+        <v>-2.162426471710205</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.12684953212738</v>
+        <v>-1.00003457069397</v>
       </c>
       <c r="C42" t="n">
-        <v>1.285810470581055</v>
+        <v>2.571595668792725</v>
       </c>
       <c r="D42" t="n">
-        <v>0.03640062361955643</v>
+        <v>-1.992747187614441</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.171793818473816</v>
+        <v>-1.139948725700378</v>
       </c>
       <c r="C43" t="n">
-        <v>1.356338143348694</v>
+        <v>2.725306749343872</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06546970456838608</v>
+        <v>-2.050438404083252</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.298262715339661</v>
+        <v>-1.091029047966003</v>
       </c>
       <c r="C44" t="n">
-        <v>1.454076409339905</v>
+        <v>2.649470806121826</v>
       </c>
       <c r="D44" t="n">
-        <v>0.09883902221918106</v>
+        <v>-2.220984697341919</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9638713002204895</v>
+        <v>-0.7095716595649719</v>
       </c>
       <c r="C45" t="n">
-        <v>1.607500791549683</v>
+        <v>2.534849643707275</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.06440692394971848</v>
+        <v>-1.981097102165222</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.170827984809875</v>
+        <v>-0.7559065222740173</v>
       </c>
       <c r="C46" t="n">
-        <v>1.75922703742981</v>
+        <v>2.631387233734131</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.04313372075557709</v>
+        <v>-2.305632591247559</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7572377324104309</v>
+        <v>-0.5921648144721985</v>
       </c>
       <c r="C47" t="n">
-        <v>1.733156681060791</v>
+        <v>2.658505439758301</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.09238623827695847</v>
+        <v>-2.093231916427612</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8765602707862854</v>
+        <v>-0.3648099303245544</v>
       </c>
       <c r="C48" t="n">
-        <v>1.931088328361511</v>
+        <v>2.38826847076416</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1265628635883331</v>
+        <v>-2.086800098419189</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9817324280738831</v>
+        <v>-0.5050751566886902</v>
       </c>
       <c r="C49" t="n">
-        <v>1.899287581443787</v>
+        <v>2.484835624694824</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.03297650068998337</v>
+        <v>-2.187749624252319</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9907023310661316</v>
+        <v>-0.4986935257911682</v>
       </c>
       <c r="C50" t="n">
-        <v>1.952479362487793</v>
+        <v>2.439557075500488</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02807829156517982</v>
+        <v>-2.044708251953125</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9170798063278198</v>
+        <v>-0.438624769449234</v>
       </c>
       <c r="C51" t="n">
-        <v>1.973340749740601</v>
+        <v>2.454133987426758</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01707920990884304</v>
+        <v>-2.05622410774231</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7111184597015381</v>
+        <v>-0.342913955450058</v>
       </c>
       <c r="C52" t="n">
-        <v>1.831273198127747</v>
+        <v>2.452526330947876</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.08805400878190994</v>
+        <v>-1.899706125259399</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6757568120956421</v>
+        <v>-0.3024575710296631</v>
       </c>
       <c r="C53" t="n">
-        <v>1.648378968238831</v>
+        <v>2.559814929962158</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.03864695876836777</v>
+        <v>-1.775097131729126</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6951901912689209</v>
+        <v>-0.2414143532514572</v>
       </c>
       <c r="C54" t="n">
-        <v>1.630916833877563</v>
+        <v>2.277874946594238</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.05734655261039734</v>
+        <v>-1.586130261421204</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7088133692741394</v>
+        <v>-0.2495910972356796</v>
       </c>
       <c r="C55" t="n">
-        <v>1.737042903900146</v>
+        <v>2.304302453994751</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.121612973511219</v>
+        <v>-1.591519832611084</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7401877641677856</v>
+        <v>-0.322293221950531</v>
       </c>
       <c r="C56" t="n">
-        <v>1.567070603370667</v>
+        <v>2.44974946975708</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.1491454243659973</v>
+        <v>-1.668697357177734</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7567923665046692</v>
+        <v>-0.4600890576839447</v>
       </c>
       <c r="C57" t="n">
-        <v>1.580429077148438</v>
+        <v>2.659961700439453</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.07539426535367966</v>
+        <v>-1.545362710952759</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8765458464622498</v>
+        <v>-0.2954879999160767</v>
       </c>
       <c r="C58" t="n">
-        <v>1.361713051795959</v>
+        <v>2.61884593963623</v>
       </c>
       <c r="D58" t="n">
-        <v>0.006052175536751747</v>
+        <v>-1.545451760292053</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.834540069103241</v>
+        <v>-0.2109051793813705</v>
       </c>
       <c r="C59" t="n">
-        <v>1.278687477111816</v>
+        <v>2.522072315216064</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0488390177488327</v>
+        <v>-1.431301593780518</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8713215589523315</v>
+        <v>-0.1812366992235184</v>
       </c>
       <c r="C60" t="n">
-        <v>1.275463819503784</v>
+        <v>2.2577965259552</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01638186909258366</v>
+        <v>-1.530542373657227</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8076299428939819</v>
+        <v>-0.2374953180551529</v>
       </c>
       <c r="C61" t="n">
-        <v>1.055321455001831</v>
+        <v>2.305736064910889</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.004793589934706688</v>
+        <v>-1.398508191108704</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.007833480834961</v>
+        <v>-0.1949562281370163</v>
       </c>
       <c r="C62" t="n">
-        <v>1.123367190361023</v>
+        <v>1.646125435829163</v>
       </c>
       <c r="D62" t="n">
-        <v>0.03680682927370071</v>
+        <v>-1.209752321243286</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.186620712280273</v>
+        <v>-0.3583170771598816</v>
       </c>
       <c r="C63" t="n">
-        <v>1.350771069526672</v>
+        <v>1.623327016830444</v>
       </c>
       <c r="D63" t="n">
-        <v>0.07253744453191757</v>
+        <v>-1.220110058784485</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.297047853469849</v>
+        <v>-0.2999109029769897</v>
       </c>
       <c r="C64" t="n">
-        <v>1.681286454200745</v>
+        <v>1.613593339920044</v>
       </c>
       <c r="D64" t="n">
-        <v>0.158423125743866</v>
+        <v>-1.286088824272156</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.427324175834656</v>
+        <v>-0.3232981562614441</v>
       </c>
       <c r="C65" t="n">
-        <v>1.857553839683533</v>
+        <v>1.668487310409546</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1291766464710236</v>
+        <v>-1.203965902328491</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.395704507827759</v>
+        <v>-0.2121853679418564</v>
       </c>
       <c r="C66" t="n">
-        <v>1.795687079429626</v>
+        <v>1.629518508911133</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1493892222642899</v>
+        <v>-1.213732838630676</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.518549919128418</v>
+        <v>-0.4493141770362854</v>
       </c>
       <c r="C67" t="n">
-        <v>1.852498412132263</v>
+        <v>1.58950936794281</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1673484891653061</v>
+        <v>-1.318571805953979</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.507097721099854</v>
+        <v>-0.4312011003494263</v>
       </c>
       <c r="C68" t="n">
-        <v>1.792690396308899</v>
+        <v>1.58040177822113</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2202995270490646</v>
+        <v>-1.320308566093445</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.527407884597778</v>
+        <v>-0.3610228896141052</v>
       </c>
       <c r="C69" t="n">
-        <v>1.742002248764038</v>
+        <v>1.816365718841553</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1595867574214935</v>
+        <v>-1.453935861587524</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.326816439628601</v>
+        <v>-0.3308284282684326</v>
       </c>
       <c r="C70" t="n">
-        <v>1.399599552154541</v>
+        <v>1.9476318359375</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1979935765266418</v>
+        <v>-1.303318858146667</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.10310161113739</v>
+        <v>-0.7366973161697388</v>
       </c>
       <c r="C71" t="n">
-        <v>1.169584035873413</v>
+        <v>2.114641189575195</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1092646270990372</v>
+        <v>-1.02264130115509</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.040369749069214</v>
+        <v>-0.7658653259277344</v>
       </c>
       <c r="C72" t="n">
-        <v>1.003390550613403</v>
+        <v>2.209848642349243</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1464895755052567</v>
+        <v>-1.045244812965393</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.030434727668762</v>
+        <v>-0.80958092212677</v>
       </c>
       <c r="C73" t="n">
-        <v>1.062804460525513</v>
+        <v>2.13296103477478</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1588892191648483</v>
+        <v>-1.08433198928833</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8995783925056458</v>
+        <v>-0.7777981162071228</v>
       </c>
       <c r="C74" t="n">
-        <v>1.092394351959229</v>
+        <v>2.168272733688354</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2088165581226349</v>
+        <v>-0.9630047678947449</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9322554469108582</v>
+        <v>-0.7021512389183044</v>
       </c>
       <c r="C75" t="n">
-        <v>1.162065982818604</v>
+        <v>2.205444097518921</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2516522407531738</v>
+        <v>-0.9777694940567017</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9602301716804504</v>
+        <v>-0.6965241432189941</v>
       </c>
       <c r="C76" t="n">
-        <v>1.285311698913574</v>
+        <v>2.234794616699219</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3148599565029144</v>
+        <v>-1.098254442214966</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9262775182723999</v>
+        <v>-0.8083653450012207</v>
       </c>
       <c r="C77" t="n">
-        <v>1.435050010681152</v>
+        <v>2.044859886169434</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3421922624111176</v>
+        <v>-0.8627227544784546</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9606026411056519</v>
+        <v>-0.8245118260383606</v>
       </c>
       <c r="C78" t="n">
-        <v>1.411716818809509</v>
+        <v>2.037353754043579</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4430458247661591</v>
+        <v>-0.792489230632782</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9641035795211792</v>
+        <v>-0.8927598595619202</v>
       </c>
       <c r="C79" t="n">
-        <v>1.589503407478333</v>
+        <v>2.117297887802124</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4846509397029877</v>
+        <v>-0.7036002278327942</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9744523763656616</v>
+        <v>-0.4883553981781006</v>
       </c>
       <c r="C80" t="n">
-        <v>1.48851215839386</v>
+        <v>2.230823993682861</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4874642789363861</v>
+        <v>-1.108008980751038</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8519819378852844</v>
+        <v>-0.3729725182056427</v>
       </c>
       <c r="C81" t="n">
-        <v>1.469177603721619</v>
+        <v>2.265562057495117</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3848924934864044</v>
+        <v>-1.206637859344482</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.915179967880249</v>
+        <v>-0.1230044811964035</v>
       </c>
       <c r="C82" t="n">
-        <v>1.456046223640442</v>
+        <v>2.271398782730103</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3157003223896027</v>
+        <v>-1.630390763282776</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8618196845054626</v>
+        <v>-0.001798973651602864</v>
       </c>
       <c r="C83" t="n">
-        <v>1.5166335105896</v>
+        <v>2.375765323638916</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3441129624843597</v>
+        <v>-1.68646764755249</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.028302192687988</v>
+        <v>0.2877895832061768</v>
       </c>
       <c r="C84" t="n">
-        <v>1.57755434513092</v>
+        <v>2.250614404678345</v>
       </c>
       <c r="D84" t="n">
-        <v>0.426413506269455</v>
+        <v>-2.032861232757568</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.166812658309937</v>
+        <v>0.2295512706041336</v>
       </c>
       <c r="C85" t="n">
-        <v>1.595522522926331</v>
+        <v>2.210577964782715</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5000584125518799</v>
+        <v>-1.977449774742126</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.044161319732666</v>
+        <v>0.09126575291156769</v>
       </c>
       <c r="C86" t="n">
-        <v>1.767048478126526</v>
+        <v>2.048038005828857</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4990953207015991</v>
+        <v>-1.387666940689087</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.435035705566406</v>
+        <v>-0.05038245022296906</v>
       </c>
       <c r="C87" t="n">
-        <v>2.083010196685791</v>
+        <v>1.704944372177124</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8698132634162903</v>
+        <v>-1.249447345733643</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.344011545181274</v>
+        <v>-0.01665924675762653</v>
       </c>
       <c r="C88" t="n">
-        <v>2.196496486663818</v>
+        <v>1.596269249916077</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7267605662345886</v>
+        <v>-0.9775051474571228</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.682880163192749</v>
+        <v>-0.2209013551473618</v>
       </c>
       <c r="C89" t="n">
-        <v>2.146383762359619</v>
+        <v>1.608954906463623</v>
       </c>
       <c r="D89" t="n">
-        <v>0.795150101184845</v>
+        <v>-1.560252547264099</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.953266859054565</v>
+        <v>0.02503289096057415</v>
       </c>
       <c r="C90" t="n">
-        <v>2.439794540405273</v>
+        <v>1.679848551750183</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8853580355644226</v>
+        <v>-1.915709257125854</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.758750200271606</v>
+        <v>0.181524857878685</v>
       </c>
       <c r="C91" t="n">
-        <v>2.128619909286499</v>
+        <v>1.715014219284058</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9799073934555054</v>
+        <v>-1.735849976539612</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.570566177368164</v>
+        <v>-0.327240377664566</v>
       </c>
       <c r="C92" t="n">
-        <v>2.352657556533813</v>
+        <v>1.715061902999878</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8796639442443848</v>
+        <v>-1.197523951530457</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.247984886169434</v>
+        <v>-0.3971676230430603</v>
       </c>
       <c r="C93" t="n">
-        <v>2.302687168121338</v>
+        <v>1.879148006439209</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6598914265632629</v>
+        <v>-1.179167866706848</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.384311079978943</v>
+        <v>0.1851795166730881</v>
       </c>
       <c r="C94" t="n">
-        <v>2.310229539871216</v>
+        <v>2.037501811981201</v>
       </c>
       <c r="D94" t="n">
-        <v>0.7824422717094421</v>
+        <v>-1.428948998451233</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.402405500411987</v>
+        <v>0.3848981857299805</v>
       </c>
       <c r="C95" t="n">
-        <v>2.33789849281311</v>
+        <v>2.193870067596436</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9088767766952515</v>
+        <v>-1.043076157569885</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.277677774429321</v>
+        <v>0.330322802066803</v>
       </c>
       <c r="C96" t="n">
-        <v>2.377210140228271</v>
+        <v>1.96652626991272</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7580512166023254</v>
+        <v>-1.028432488441467</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.366391181945801</v>
+        <v>0.06288535892963409</v>
       </c>
       <c r="C97" t="n">
-        <v>2.26018500328064</v>
+        <v>2.377291917800903</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8319108486175537</v>
+        <v>-1.587207674980164</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.412785887718201</v>
+        <v>-0.2638446688652039</v>
       </c>
       <c r="C98" t="n">
-        <v>2.325617074966431</v>
+        <v>2.452221155166626</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8578730225563049</v>
+        <v>-1.3429274559021</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.432641863822937</v>
+        <v>-0.1273682564496994</v>
       </c>
       <c r="C99" t="n">
-        <v>2.231054544448853</v>
+        <v>2.502084732055664</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8260070085525513</v>
+        <v>-1.718167424201965</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.209855198860168</v>
+        <v>-0.2459875196218491</v>
       </c>
       <c r="C100" t="n">
-        <v>2.389872789382935</v>
+        <v>2.519006490707397</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7239856719970703</v>
+        <v>-1.337108373641968</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9962781071662903</v>
+        <v>-0.2655778527259827</v>
       </c>
       <c r="C101" t="n">
-        <v>2.05000638961792</v>
+        <v>2.690304279327393</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6530608534812927</v>
+        <v>-1.458832502365112</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.052894115447998</v>
+        <v>-0.1663343757390976</v>
       </c>
       <c r="C102" t="n">
-        <v>2.095607757568359</v>
+        <v>2.54625415802002</v>
       </c>
       <c r="D102" t="n">
-        <v>0.719169557094574</v>
+        <v>-1.309203624725342</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.111484527587891</v>
+        <v>0.03217925131320953</v>
       </c>
       <c r="C103" t="n">
-        <v>1.904213666915894</v>
+        <v>2.662602424621582</v>
       </c>
       <c r="D103" t="n">
-        <v>0.8089923858642578</v>
+        <v>-1.402396321296692</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.207503199577332</v>
+        <v>0.2032101303339005</v>
       </c>
       <c r="C104" t="n">
-        <v>1.809156894683838</v>
+        <v>2.422564029693604</v>
       </c>
       <c r="D104" t="n">
-        <v>0.8205513954162598</v>
+        <v>-1.65008556842804</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.329449772834778</v>
+        <v>-0.05410186946392059</v>
       </c>
       <c r="C105" t="n">
-        <v>1.739388108253479</v>
+        <v>2.172878265380859</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9627901315689087</v>
+        <v>-1.177711606025696</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.439180850982666</v>
+        <v>0.5769878625869751</v>
       </c>
       <c r="C106" t="n">
-        <v>2.225091457366943</v>
+        <v>1.999122142791748</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9231764674186707</v>
+        <v>-1.747405648231506</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.645866274833679</v>
+        <v>0.2359080761671066</v>
       </c>
       <c r="C107" t="n">
-        <v>2.273701906204224</v>
+        <v>1.880033254623413</v>
       </c>
       <c r="D107" t="n">
-        <v>1.204203248023987</v>
+        <v>-1.654049158096313</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.642429113388062</v>
+        <v>0.03738991916179657</v>
       </c>
       <c r="C108" t="n">
-        <v>2.277136087417603</v>
+        <v>1.850974678993225</v>
       </c>
       <c r="D108" t="n">
-        <v>1.341412782669067</v>
+        <v>-1.31920313835144</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.51577889919281</v>
+        <v>-0.02969102747738361</v>
       </c>
       <c r="C109" t="n">
-        <v>2.642958879470825</v>
+        <v>1.807440996170044</v>
       </c>
       <c r="D109" t="n">
-        <v>1.104959726333618</v>
+        <v>-1.26488983631134</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.776958107948303</v>
+        <v>-0.08269612491130829</v>
       </c>
       <c r="C110" t="n">
-        <v>2.611879110336304</v>
+        <v>1.834957480430603</v>
       </c>
       <c r="D110" t="n">
-        <v>1.152047634124756</v>
+        <v>-1.445757031440735</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.859445571899414</v>
+        <v>-0.2629410326480865</v>
       </c>
       <c r="C111" t="n">
-        <v>2.521867990493774</v>
+        <v>2.049333572387695</v>
       </c>
       <c r="D111" t="n">
-        <v>1.111168026924133</v>
+        <v>-1.832252144813538</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.779563307762146</v>
+        <v>-0.4632076025009155</v>
       </c>
       <c r="C112" t="n">
-        <v>2.296710014343262</v>
+        <v>2.021646022796631</v>
       </c>
       <c r="D112" t="n">
-        <v>1.096603035926819</v>
+        <v>-1.549189686775208</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.550083518028259</v>
+        <v>-0.606067955493927</v>
       </c>
       <c r="C113" t="n">
-        <v>2.445988655090332</v>
+        <v>2.151470184326172</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9920331239700317</v>
+        <v>-1.313584446907043</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.367781519889832</v>
+        <v>-0.6746640801429749</v>
       </c>
       <c r="C114" t="n">
-        <v>2.21928596496582</v>
+        <v>2.320735454559326</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9454163908958435</v>
+        <v>-1.206375956535339</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.432573437690735</v>
+        <v>-0.9114518761634827</v>
       </c>
       <c r="C115" t="n">
-        <v>2.274601459503174</v>
+        <v>2.353304386138916</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7787826657295227</v>
+        <v>-1.351134538650513</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.458858728408813</v>
+        <v>-0.9483168125152588</v>
       </c>
       <c r="C116" t="n">
-        <v>2.05225944519043</v>
+        <v>2.585275888442993</v>
       </c>
       <c r="D116" t="n">
-        <v>0.8513472676277161</v>
+        <v>-1.547031879425049</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.510027408599854</v>
+        <v>-1.10543954372406</v>
       </c>
       <c r="C117" t="n">
-        <v>1.981247544288635</v>
+        <v>2.503880500793457</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9831429123878479</v>
+        <v>-1.15458071231842</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.439348816871643</v>
+        <v>-1.130557179450989</v>
       </c>
       <c r="C118" t="n">
-        <v>1.806180000305176</v>
+        <v>2.60727071762085</v>
       </c>
       <c r="D118" t="n">
-        <v>0.8620573878288269</v>
+        <v>-1.157832622528076</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.665814161300659</v>
+        <v>-1.251135945320129</v>
       </c>
       <c r="C119" t="n">
-        <v>2.047175645828247</v>
+        <v>2.715765714645386</v>
       </c>
       <c r="D119" t="n">
-        <v>1.017597556114197</v>
+        <v>-1.147267699241638</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.584466814994812</v>
+        <v>-1.329533815383911</v>
       </c>
       <c r="C120" t="n">
-        <v>2.355709075927734</v>
+        <v>2.828667163848877</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9477224349975586</v>
+        <v>-1.132880091667175</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.263629078865051</v>
+        <v>-1.195971131324768</v>
       </c>
       <c r="C121" t="n">
-        <v>2.036457300186157</v>
+        <v>2.924322128295898</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7841086983680725</v>
+        <v>-1.046652913093567</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.049477696418762</v>
+        <v>-1.271474361419678</v>
       </c>
       <c r="C122" t="n">
-        <v>1.95162296295166</v>
+        <v>2.918107509613037</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7620112895965576</v>
+        <v>-0.6705914735794067</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.274427056312561</v>
+        <v>-1.131646871566772</v>
       </c>
       <c r="C123" t="n">
-        <v>1.644499182701111</v>
+        <v>2.754107475280762</v>
       </c>
       <c r="D123" t="n">
-        <v>0.759482204914093</v>
+        <v>-0.836078405380249</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.149719953536987</v>
+        <v>-1.139292359352112</v>
       </c>
       <c r="C124" t="n">
-        <v>1.928409337997437</v>
+        <v>2.77189564704895</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7258700132369995</v>
+        <v>-0.7776583433151245</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.121899247169495</v>
+        <v>-0.991170346736908</v>
       </c>
       <c r="C125" t="n">
-        <v>2.039511680603027</v>
+        <v>2.651951551437378</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6521854400634766</v>
+        <v>-0.8070834279060364</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.211663603782654</v>
+        <v>-0.8056501746177673</v>
       </c>
       <c r="C126" t="n">
-        <v>1.983237624168396</v>
+        <v>2.551561832427979</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5108741521835327</v>
+        <v>-1.294461607933044</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.233845591545105</v>
+        <v>-0.8040469288825989</v>
       </c>
       <c r="C127" t="n">
-        <v>1.788679361343384</v>
+        <v>2.754356384277344</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6142788529396057</v>
+        <v>-1.398378252983093</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.243554353713989</v>
+        <v>-0.9019433856010437</v>
       </c>
       <c r="C128" t="n">
-        <v>1.786738157272339</v>
+        <v>2.741204500198364</v>
       </c>
       <c r="D128" t="n">
-        <v>0.590581476688385</v>
+        <v>-1.166143655776978</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.310564994812012</v>
+        <v>-0.9123632907867432</v>
       </c>
       <c r="C129" t="n">
-        <v>1.967265486717224</v>
+        <v>2.709221839904785</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5988356471061707</v>
+        <v>-1.121458411216736</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.169558644294739</v>
+        <v>-0.9807051420211792</v>
       </c>
       <c r="C130" t="n">
-        <v>1.559106349945068</v>
+        <v>2.614276170730591</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6759769320487976</v>
+        <v>-0.8307076692581177</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.8632199764251709</v>
+        <v>-0.7476016879081726</v>
       </c>
       <c r="C131" t="n">
-        <v>1.390483975410461</v>
+        <v>2.768517017364502</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5815303921699524</v>
+        <v>-0.81389319896698</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7860820889472961</v>
+        <v>-1.032098174095154</v>
       </c>
       <c r="C132" t="n">
-        <v>1.238338112831116</v>
+        <v>2.917165279388428</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6313612461090088</v>
+        <v>-0.4188921451568604</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8964130282402039</v>
+        <v>-1.039647102355957</v>
       </c>
       <c r="C133" t="n">
-        <v>1.253611326217651</v>
+        <v>2.629756927490234</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6893773674964905</v>
+        <v>-0.481229692697525</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.01818585395813</v>
+        <v>-0.8932821154594421</v>
       </c>
       <c r="C134" t="n">
-        <v>1.343465447425842</v>
+        <v>2.595164060592651</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6295093894004822</v>
+        <v>-1.02561616897583</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.096198320388794</v>
+        <v>-0.9862378239631653</v>
       </c>
       <c r="C135" t="n">
-        <v>1.270347952842712</v>
+        <v>2.640448331832886</v>
       </c>
       <c r="D135" t="n">
-        <v>0.710368812084198</v>
+        <v>-0.9840950965881348</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.127330660820007</v>
+        <v>-0.7389821410179138</v>
       </c>
       <c r="C136" t="n">
-        <v>1.081329822540283</v>
+        <v>2.52308988571167</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7410832643508911</v>
+        <v>-1.003111362457275</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.050151824951172</v>
+        <v>-0.8079461455345154</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8805389404296875</v>
+        <v>2.801366090774536</v>
       </c>
       <c r="D137" t="n">
-        <v>0.7478955984115601</v>
+        <v>-0.8306012153625488</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.272258162498474</v>
+        <v>-1.050432324409485</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6561440229415894</v>
+        <v>2.521907806396484</v>
       </c>
       <c r="D138" t="n">
-        <v>1.014635801315308</v>
+        <v>-0.3638249039649963</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.387029051780701</v>
+        <v>-0.4168676137924194</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6273592710494995</v>
+        <v>2.172850847244263</v>
       </c>
       <c r="D139" t="n">
-        <v>1.101952433586121</v>
+        <v>-0.4760145545005798</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.419118285179138</v>
+        <v>-0.5167221426963806</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9569357633590698</v>
+        <v>2.002721309661865</v>
       </c>
       <c r="D140" t="n">
-        <v>1.231660485267639</v>
+        <v>-0.6371983289718628</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.161798715591431</v>
+        <v>-0.5140101313591003</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9725151062011719</v>
+        <v>2.275414943695068</v>
       </c>
       <c r="D141" t="n">
-        <v>1.224188804626465</v>
+        <v>-0.2311662435531616</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.071387648582458</v>
+        <v>-0.4322571456432343</v>
       </c>
       <c r="C142" t="n">
-        <v>1.236148595809937</v>
+        <v>2.528959274291992</v>
       </c>
       <c r="D142" t="n">
-        <v>1.084892272949219</v>
+        <v>-0.325778603553772</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.175553798675537</v>
+        <v>-0.3941226601600647</v>
       </c>
       <c r="C143" t="n">
-        <v>1.087212085723877</v>
+        <v>2.304491758346558</v>
       </c>
       <c r="D143" t="n">
-        <v>1.219983339309692</v>
+        <v>-0.3105674982070923</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.284525394439697</v>
+        <v>-0.4857892096042633</v>
       </c>
       <c r="C144" t="n">
-        <v>1.028757810592651</v>
+        <v>2.25595235824585</v>
       </c>
       <c r="D144" t="n">
-        <v>1.119376659393311</v>
+        <v>-0.4967632293701172</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.665838241577148</v>
+        <v>-0.1049273163080215</v>
       </c>
       <c r="C145" t="n">
-        <v>1.230643391609192</v>
+        <v>2.536165952682495</v>
       </c>
       <c r="D145" t="n">
-        <v>1.376886010169983</v>
+        <v>-1.156657576560974</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.531671285629272</v>
+        <v>-0.320369154214859</v>
       </c>
       <c r="C146" t="n">
-        <v>1.003549695014954</v>
+        <v>2.489627361297607</v>
       </c>
       <c r="D146" t="n">
-        <v>1.029783844947815</v>
+        <v>-1.239224553108215</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.420443534851074</v>
+        <v>-0.2543854713439941</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9604295492172241</v>
+        <v>2.412331581115723</v>
       </c>
       <c r="D147" t="n">
-        <v>1.059722781181335</v>
+        <v>-1.155415415763855</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.372584700584412</v>
+        <v>-0.5800556540489197</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9863084554672241</v>
+        <v>2.593460083007812</v>
       </c>
       <c r="D148" t="n">
-        <v>1.063044667243958</v>
+        <v>-0.9114882349967957</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.410049438476562</v>
+        <v>-0.4068942964076996</v>
       </c>
       <c r="C149" t="n">
-        <v>1.195069074630737</v>
+        <v>2.726383686065674</v>
       </c>
       <c r="D149" t="n">
-        <v>1.205061912536621</v>
+        <v>-0.9153225421905518</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.456364870071411</v>
+        <v>-0.2220140546560287</v>
       </c>
       <c r="C150" t="n">
-        <v>1.333532214164734</v>
+        <v>2.667425155639648</v>
       </c>
       <c r="D150" t="n">
-        <v>1.418634414672852</v>
+        <v>-0.8640127182006836</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.238738298416138</v>
+        <v>-0.03198821842670441</v>
       </c>
       <c r="C151" t="n">
-        <v>1.41335141658783</v>
+        <v>2.711189746856689</v>
       </c>
       <c r="D151" t="n">
-        <v>1.08763599395752</v>
+        <v>-0.7077553272247314</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.316498994827271</v>
+        <v>-0.06271626055240631</v>
       </c>
       <c r="C152" t="n">
-        <v>1.755817770957947</v>
+        <v>2.620690822601318</v>
       </c>
       <c r="D152" t="n">
-        <v>1.114148139953613</v>
+        <v>-1.135499358177185</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.271468877792358</v>
+        <v>-0.163520023226738</v>
       </c>
       <c r="C153" t="n">
-        <v>1.644085049629211</v>
+        <v>2.846780300140381</v>
       </c>
       <c r="D153" t="n">
-        <v>1.074745774269104</v>
+        <v>-0.7721604108810425</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.52321445941925</v>
+        <v>-0.3906995356082916</v>
       </c>
       <c r="C154" t="n">
-        <v>1.798911452293396</v>
+        <v>3.01688289642334</v>
       </c>
       <c r="D154" t="n">
-        <v>1.051023364067078</v>
+        <v>-1.053506016731262</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.565255641937256</v>
+        <v>-0.2990091741085052</v>
       </c>
       <c r="C155" t="n">
-        <v>1.787863850593567</v>
+        <v>3.016634941101074</v>
       </c>
       <c r="D155" t="n">
-        <v>1.187551736831665</v>
+        <v>-1.126049160957336</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.593283414840698</v>
+        <v>-0.03823725879192352</v>
       </c>
       <c r="C156" t="n">
-        <v>1.850766062736511</v>
+        <v>2.968917369842529</v>
       </c>
       <c r="D156" t="n">
-        <v>1.155646204948425</v>
+        <v>-1.138598442077637</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.658652663230896</v>
+        <v>0.4863267540931702</v>
       </c>
       <c r="C157" t="n">
-        <v>1.872782588005066</v>
+        <v>2.818140983581543</v>
       </c>
       <c r="D157" t="n">
-        <v>1.414077401161194</v>
+        <v>-1.399867415428162</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.843910217285156</v>
+        <v>0.4245193600654602</v>
       </c>
       <c r="C158" t="n">
-        <v>1.720841646194458</v>
+        <v>2.689070701599121</v>
       </c>
       <c r="D158" t="n">
-        <v>1.715916752815247</v>
+        <v>-1.500971674919128</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.691518425941467</v>
+        <v>0.01273353304713964</v>
       </c>
       <c r="C159" t="n">
-        <v>1.673630356788635</v>
+        <v>2.837077379226685</v>
       </c>
       <c r="D159" t="n">
-        <v>1.59411346912384</v>
+        <v>-1.299928784370422</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.821085929870605</v>
+        <v>0.05450709164142609</v>
       </c>
       <c r="C160" t="n">
-        <v>1.808902859687805</v>
+        <v>2.792453050613403</v>
       </c>
       <c r="D160" t="n">
-        <v>1.799448609352112</v>
+        <v>-1.166527986526489</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.710016489028931</v>
+        <v>-0.0866992324590683</v>
       </c>
       <c r="C161" t="n">
-        <v>1.79377007484436</v>
+        <v>2.755771636962891</v>
       </c>
       <c r="D161" t="n">
-        <v>1.722416758537292</v>
+        <v>-1.238728761672974</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.560071229934692</v>
+        <v>-0.02991493232548237</v>
       </c>
       <c r="C162" t="n">
-        <v>1.5775465965271</v>
+        <v>2.916632175445557</v>
       </c>
       <c r="D162" t="n">
-        <v>1.661917090415955</v>
+        <v>-0.9993941783905029</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.941545844078064</v>
+        <v>0.1429483741521835</v>
       </c>
       <c r="C163" t="n">
-        <v>1.879468560218811</v>
+        <v>2.589432716369629</v>
       </c>
       <c r="D163" t="n">
-        <v>1.979253888130188</v>
+        <v>-1.265045285224915</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.724233746528625</v>
+        <v>0.2912087142467499</v>
       </c>
       <c r="C164" t="n">
-        <v>1.844399452209473</v>
+        <v>2.733769416809082</v>
       </c>
       <c r="D164" t="n">
-        <v>1.821684718132019</v>
+        <v>-1.20698082447052</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1.858260631561279</v>
+        <v>0.4649658203125</v>
       </c>
       <c r="C165" t="n">
-        <v>2.067596197128296</v>
+        <v>2.431654453277588</v>
       </c>
       <c r="D165" t="n">
-        <v>1.929091095924377</v>
+        <v>-1.542141079902649</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.85989785194397</v>
+        <v>0.4842937588691711</v>
       </c>
       <c r="C166" t="n">
-        <v>2.200737953186035</v>
+        <v>2.292182445526123</v>
       </c>
       <c r="D166" t="n">
-        <v>1.967105388641357</v>
+        <v>-1.582943439483643</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1.734040260314941</v>
+        <v>0.1230737715959549</v>
       </c>
       <c r="C167" t="n">
-        <v>1.930413603782654</v>
+        <v>2.221692800521851</v>
       </c>
       <c r="D167" t="n">
-        <v>1.986704707145691</v>
+        <v>-1.054121375083923</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.594191074371338</v>
+        <v>-0.1916266232728958</v>
       </c>
       <c r="C168" t="n">
-        <v>1.623334407806396</v>
+        <v>2.469901084899902</v>
       </c>
       <c r="D168" t="n">
-        <v>1.781921982765198</v>
+        <v>-0.7423405051231384</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.461182832717896</v>
+        <v>0.09514804184436798</v>
       </c>
       <c r="C169" t="n">
-        <v>1.835854053497314</v>
+        <v>2.257880926132202</v>
       </c>
       <c r="D169" t="n">
-        <v>1.656387329101562</v>
+        <v>-1.134961843490601</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.463958740234375</v>
+        <v>-0.01013664994388819</v>
       </c>
       <c r="C170" t="n">
-        <v>1.776729822158813</v>
+        <v>2.152957439422607</v>
       </c>
       <c r="D170" t="n">
-        <v>1.660637617111206</v>
+        <v>-1.019034147262573</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.460697412490845</v>
+        <v>-0.04708422720432281</v>
       </c>
       <c r="C171" t="n">
-        <v>1.861257314682007</v>
+        <v>1.912530779838562</v>
       </c>
       <c r="D171" t="n">
-        <v>1.601017713546753</v>
+        <v>-1.087157845497131</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1.569200038909912</v>
+        <v>0.002707852749153972</v>
       </c>
       <c r="C172" t="n">
-        <v>1.914843678474426</v>
+        <v>2.404867887496948</v>
       </c>
       <c r="D172" t="n">
-        <v>1.737813115119934</v>
+        <v>-1.123852133750916</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1.647168397903442</v>
+        <v>0.2196113616228104</v>
       </c>
       <c r="C173" t="n">
-        <v>2.06904125213623</v>
+        <v>2.196948528289795</v>
       </c>
       <c r="D173" t="n">
-        <v>1.846820831298828</v>
+        <v>-1.307967185974121</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.423246264457703</v>
+        <v>0.4017738401889801</v>
       </c>
       <c r="C174" t="n">
-        <v>1.81602668762207</v>
+        <v>2.3661789894104</v>
       </c>
       <c r="D174" t="n">
-        <v>1.614881277084351</v>
+        <v>-1.474907517433167</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1.51466429233551</v>
+        <v>0.5915258526802063</v>
       </c>
       <c r="C175" t="n">
-        <v>2.283936023712158</v>
+        <v>2.405318021774292</v>
       </c>
       <c r="D175" t="n">
-        <v>1.88678240776062</v>
+        <v>-1.613060355186462</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.339405417442322</v>
+        <v>0.3168092966079712</v>
       </c>
       <c r="C176" t="n">
-        <v>2.579615831375122</v>
+        <v>2.294701814651489</v>
       </c>
       <c r="D176" t="n">
-        <v>1.791185140609741</v>
+        <v>-1.182036519050598</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.440062999725342</v>
+        <v>0.1939053684473038</v>
       </c>
       <c r="C177" t="n">
-        <v>2.469234466552734</v>
+        <v>2.16137170791626</v>
       </c>
       <c r="D177" t="n">
-        <v>1.926612019538879</v>
+        <v>-1.132660508155823</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.495665550231934</v>
+        <v>0.2365811318159103</v>
       </c>
       <c r="C178" t="n">
-        <v>2.50617241859436</v>
+        <v>2.28847599029541</v>
       </c>
       <c r="D178" t="n">
-        <v>1.957793831825256</v>
+        <v>-1.271164178848267</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1.52253258228302</v>
+        <v>-0.1136030703783035</v>
       </c>
       <c r="C179" t="n">
-        <v>2.56308388710022</v>
+        <v>2.27835488319397</v>
       </c>
       <c r="D179" t="n">
-        <v>1.936531066894531</v>
+        <v>-1.163934111595154</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.195545792579651</v>
+        <v>-0.4537098407745361</v>
       </c>
       <c r="C180" t="n">
-        <v>2.259836196899414</v>
+        <v>2.446596622467041</v>
       </c>
       <c r="D180" t="n">
-        <v>1.521642804145813</v>
+        <v>-0.8622531890869141</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1.194432020187378</v>
+        <v>-0.85710608959198</v>
       </c>
       <c r="C181" t="n">
-        <v>2.088274478912354</v>
+        <v>2.439158916473389</v>
       </c>
       <c r="D181" t="n">
-        <v>1.579664587974548</v>
+        <v>-0.2932795286178589</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.282683730125427</v>
+        <v>-0.8447723388671875</v>
       </c>
       <c r="C182" t="n">
-        <v>2.091082572937012</v>
+        <v>2.266853094100952</v>
       </c>
       <c r="D182" t="n">
-        <v>1.70947253704071</v>
+        <v>-0.1516647934913635</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1.223009347915649</v>
+        <v>-1.089054226875305</v>
       </c>
       <c r="C183" t="n">
-        <v>2.053871870040894</v>
+        <v>2.093173027038574</v>
       </c>
       <c r="D183" t="n">
-        <v>1.666963696479797</v>
+        <v>0.132984459400177</v>
       </c>
     </row>
   </sheetData>

--- a/documents/latent_vector/reinforce_enc.xlsx
+++ b/documents/latent_vector/reinforce_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1027880236506462</v>
+        <v>0.05577024444937706</v>
       </c>
       <c r="C2" t="n">
-        <v>1.906543731689453</v>
+        <v>0.6626814007759094</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.686102867126465</v>
+        <v>0.2584167420864105</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.5131862759590149</v>
+        <v>0.08452115207910538</v>
       </c>
       <c r="C3" t="n">
-        <v>2.078512191772461</v>
+        <v>0.6800116300582886</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.524117231369019</v>
+        <v>0.244444340467453</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.656209409236908</v>
+        <v>0.1277425587177277</v>
       </c>
       <c r="C4" t="n">
-        <v>1.81331467628479</v>
+        <v>0.7072747945785522</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.969225406646729</v>
+        <v>0.2251480668783188</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.4096362292766571</v>
+        <v>0.06963846832513809</v>
       </c>
       <c r="C5" t="n">
-        <v>2.10040545463562</v>
+        <v>0.6517603993415833</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.094980716705322</v>
+        <v>0.2970253229141235</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5324670672416687</v>
+        <v>0.02349468506872654</v>
       </c>
       <c r="C6" t="n">
-        <v>2.154234170913696</v>
+        <v>0.6038541197776794</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.319476127624512</v>
+        <v>0.3154088258743286</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5475437641143799</v>
+        <v>0.02369355596601963</v>
       </c>
       <c r="C7" t="n">
-        <v>2.1981201171875</v>
+        <v>0.5464534163475037</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.308453321456909</v>
+        <v>0.3000660836696625</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.3791365623474121</v>
+        <v>0.03478352352976799</v>
       </c>
       <c r="C8" t="n">
-        <v>2.221109867095947</v>
+        <v>0.527082085609436</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.128932476043701</v>
+        <v>0.2518312931060791</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4532399773597717</v>
+        <v>0.04742112383246422</v>
       </c>
       <c r="C9" t="n">
-        <v>2.215059280395508</v>
+        <v>0.5427764058113098</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.002605199813843</v>
+        <v>0.2306409329175949</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3592346608638763</v>
+        <v>0.004163692705333233</v>
       </c>
       <c r="C10" t="n">
-        <v>2.197157144546509</v>
+        <v>0.4503675103187561</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.908089876174927</v>
+        <v>0.2644645869731903</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.5024014115333557</v>
+        <v>0.06924241036176682</v>
       </c>
       <c r="C11" t="n">
-        <v>2.094119548797607</v>
+        <v>0.5516371130943298</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.773774862289429</v>
+        <v>0.2359074354171753</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.6968201398849487</v>
+        <v>0.0469285361468792</v>
       </c>
       <c r="C12" t="n">
-        <v>1.968443512916565</v>
+        <v>0.5177712440490723</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.481884717941284</v>
+        <v>0.2319659143686295</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.8121693730354309</v>
+        <v>0.07213745266199112</v>
       </c>
       <c r="C13" t="n">
-        <v>1.880627155303955</v>
+        <v>0.5157505869865417</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.47839093208313</v>
+        <v>0.191398411989212</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.7824781537055969</v>
+        <v>0.09927365928888321</v>
       </c>
       <c r="C14" t="n">
-        <v>1.798726081848145</v>
+        <v>0.5819038152694702</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.63618803024292</v>
+        <v>0.169795349240303</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.7683869600296021</v>
+        <v>0.09974471479654312</v>
       </c>
       <c r="C15" t="n">
-        <v>1.791424036026001</v>
+        <v>0.5946544408798218</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.322620391845703</v>
+        <v>0.1716026216745377</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.7652460336685181</v>
+        <v>0.1010683849453926</v>
       </c>
       <c r="C16" t="n">
-        <v>1.957275867462158</v>
+        <v>0.6037386655807495</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.305546760559082</v>
+        <v>0.1941841840744019</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.8970277309417725</v>
+        <v>0.1070333942770958</v>
       </c>
       <c r="C17" t="n">
-        <v>1.958572506904602</v>
+        <v>0.6525274515151978</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.148503065109253</v>
+        <v>0.1646350920200348</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.169272661209106</v>
+        <v>0.1495990455150604</v>
       </c>
       <c r="C18" t="n">
-        <v>2.139268398284912</v>
+        <v>0.6531545519828796</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.091480255126953</v>
+        <v>0.1131191253662109</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.032363653182983</v>
+        <v>0.1270884871482849</v>
       </c>
       <c r="C19" t="n">
-        <v>2.130436897277832</v>
+        <v>0.634002685546875</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.310638666152954</v>
+        <v>0.1521415859460831</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.9414240717887878</v>
+        <v>0.1021809354424477</v>
       </c>
       <c r="C20" t="n">
-        <v>2.159292697906494</v>
+        <v>0.5854719281196594</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.362686634063721</v>
+        <v>0.1542745977640152</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.342191696166992</v>
+        <v>0.1631161868572235</v>
       </c>
       <c r="C21" t="n">
-        <v>2.099910259246826</v>
+        <v>0.6702649593353271</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.388272047042847</v>
+        <v>0.1138371527194977</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.245833277702332</v>
+        <v>0.1922473460435867</v>
       </c>
       <c r="C22" t="n">
-        <v>2.408719539642334</v>
+        <v>0.6727538704872131</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.333490371704102</v>
+        <v>0.1118797734379768</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.469611644744873</v>
+        <v>0.2441704720258713</v>
       </c>
       <c r="C23" t="n">
-        <v>2.361510276794434</v>
+        <v>0.7257510423660278</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.082874059677124</v>
+        <v>0.09522715210914612</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.396985530853271</v>
+        <v>0.2329547256231308</v>
       </c>
       <c r="C24" t="n">
-        <v>2.2653489112854</v>
+        <v>0.7149922251701355</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.177962779998779</v>
+        <v>0.09654251486063004</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.162533283233643</v>
+        <v>0.208754301071167</v>
       </c>
       <c r="C25" t="n">
-        <v>2.370081186294556</v>
+        <v>0.6961211562156677</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.134577035903931</v>
+        <v>0.09875500947237015</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.8485726714134216</v>
+        <v>0.1843715459108353</v>
       </c>
       <c r="C26" t="n">
-        <v>2.567919254302979</v>
+        <v>0.5837841629981995</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.607168674468994</v>
+        <v>0.1185521930456161</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.9202169179916382</v>
+        <v>0.1261619031429291</v>
       </c>
       <c r="C27" t="n">
-        <v>2.736235618591309</v>
+        <v>0.5992235541343689</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.585614681243896</v>
+        <v>0.1499829590320587</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.8293378949165344</v>
+        <v>0.1249138936400414</v>
       </c>
       <c r="C28" t="n">
-        <v>2.706133842468262</v>
+        <v>0.5961521863937378</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.724396228790283</v>
+        <v>0.174184650182724</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.841600239276886</v>
+        <v>0.1251628398895264</v>
       </c>
       <c r="C29" t="n">
-        <v>2.756782293319702</v>
+        <v>0.5887966156005859</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.884178876876831</v>
+        <v>0.1839530915021896</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.9037100672721863</v>
+        <v>0.1113675460219383</v>
       </c>
       <c r="C30" t="n">
-        <v>2.864889621734619</v>
+        <v>0.5685651898384094</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.737896919250488</v>
+        <v>0.1418291628360748</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.847541868686676</v>
+        <v>0.1160890683531761</v>
       </c>
       <c r="C31" t="n">
-        <v>2.673693656921387</v>
+        <v>0.5872666835784912</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.822803974151611</v>
+        <v>0.160773903131485</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.191736459732056</v>
+        <v>0.2103572487831116</v>
       </c>
       <c r="C32" t="n">
-        <v>2.584054470062256</v>
+        <v>0.6816573739051819</v>
       </c>
       <c r="D32" t="n">
-        <v>-2.859975814819336</v>
+        <v>0.150855764746666</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.7815396785736084</v>
+        <v>0.1732161790132523</v>
       </c>
       <c r="C33" t="n">
-        <v>2.539755344390869</v>
+        <v>0.6756035685539246</v>
       </c>
       <c r="D33" t="n">
-        <v>-3.118652105331421</v>
+        <v>0.1604749262332916</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.4177454113960266</v>
+        <v>0.1436454206705093</v>
       </c>
       <c r="C34" t="n">
-        <v>2.262445688247681</v>
+        <v>0.653709888458252</v>
       </c>
       <c r="D34" t="n">
-        <v>-3.39041543006897</v>
+        <v>0.1556127220392227</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.3338529169559479</v>
+        <v>0.119317539036274</v>
       </c>
       <c r="C35" t="n">
-        <v>2.025078296661377</v>
+        <v>0.6076589226722717</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.247799158096313</v>
+        <v>0.1809334605932236</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.4653753340244293</v>
+        <v>0.1184655204415321</v>
       </c>
       <c r="C36" t="n">
-        <v>2.235419988632202</v>
+        <v>0.5930322408676147</v>
       </c>
       <c r="D36" t="n">
-        <v>-3.143571615219116</v>
+        <v>0.2385943830013275</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.3707650601863861</v>
+        <v>0.1115265414118767</v>
       </c>
       <c r="C37" t="n">
-        <v>2.326066255569458</v>
+        <v>0.5878123641014099</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.015414714813232</v>
+        <v>0.2104842066764832</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.4586542546749115</v>
+        <v>0.09501991420984268</v>
       </c>
       <c r="C38" t="n">
-        <v>2.200917720794678</v>
+        <v>0.5826876759529114</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.517891883850098</v>
+        <v>0.2422751188278198</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.6506146788597107</v>
+        <v>0.07077828794717789</v>
       </c>
       <c r="C39" t="n">
-        <v>2.346634387969971</v>
+        <v>0.5133360624313354</v>
       </c>
       <c r="D39" t="n">
-        <v>-2.364453315734863</v>
+        <v>0.230892151594162</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.6574557423591614</v>
+        <v>0.05267440900206566</v>
       </c>
       <c r="C40" t="n">
-        <v>2.338192462921143</v>
+        <v>0.4712516069412231</v>
       </c>
       <c r="D40" t="n">
-        <v>-2.258158922195435</v>
+        <v>0.219854474067688</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.7961663007736206</v>
+        <v>0.02513440884649754</v>
       </c>
       <c r="C41" t="n">
-        <v>2.46626877784729</v>
+        <v>0.4673078060150146</v>
       </c>
       <c r="D41" t="n">
-        <v>-2.162426471710205</v>
+        <v>0.2142447233200073</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.00003457069397</v>
+        <v>0.03336535021662712</v>
       </c>
       <c r="C42" t="n">
-        <v>2.571595668792725</v>
+        <v>0.465644359588623</v>
       </c>
       <c r="D42" t="n">
-        <v>-1.992747187614441</v>
+        <v>0.2349546551704407</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.139948725700378</v>
+        <v>0.024291867390275</v>
       </c>
       <c r="C43" t="n">
-        <v>2.725306749343872</v>
+        <v>0.4455872774124146</v>
       </c>
       <c r="D43" t="n">
-        <v>-2.050438404083252</v>
+        <v>0.223340317606926</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.091029047966003</v>
+        <v>0.00100756692700088</v>
       </c>
       <c r="C44" t="n">
-        <v>2.649470806121826</v>
+        <v>0.4110738039016724</v>
       </c>
       <c r="D44" t="n">
-        <v>-2.220984697341919</v>
+        <v>0.2277697175741196</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.7095716595649719</v>
+        <v>-0.007037033326923847</v>
       </c>
       <c r="C45" t="n">
-        <v>2.534849643707275</v>
+        <v>0.3798812329769135</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.981097102165222</v>
+        <v>0.2445268481969833</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.7559065222740173</v>
+        <v>0.01518924068659544</v>
       </c>
       <c r="C46" t="n">
-        <v>2.631387233734131</v>
+        <v>0.4034312069416046</v>
       </c>
       <c r="D46" t="n">
-        <v>-2.305632591247559</v>
+        <v>0.2589964866638184</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.5921648144721985</v>
+        <v>0.01390535663813353</v>
       </c>
       <c r="C47" t="n">
-        <v>2.658505439758301</v>
+        <v>0.3500170111656189</v>
       </c>
       <c r="D47" t="n">
-        <v>-2.093231916427612</v>
+        <v>0.2705588340759277</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.3648099303245544</v>
+        <v>0.03630739822983742</v>
       </c>
       <c r="C48" t="n">
-        <v>2.38826847076416</v>
+        <v>0.3667083978652954</v>
       </c>
       <c r="D48" t="n">
-        <v>-2.086800098419189</v>
+        <v>0.2336055189371109</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.5050751566886902</v>
+        <v>0.04809952899813652</v>
       </c>
       <c r="C49" t="n">
-        <v>2.484835624694824</v>
+        <v>0.3558739721775055</v>
       </c>
       <c r="D49" t="n">
-        <v>-2.187749624252319</v>
+        <v>0.2088114619255066</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.4986935257911682</v>
+        <v>0.06669233739376068</v>
       </c>
       <c r="C50" t="n">
-        <v>2.439557075500488</v>
+        <v>0.3190366625785828</v>
       </c>
       <c r="D50" t="n">
-        <v>-2.044708251953125</v>
+        <v>0.1924788802862167</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.438624769449234</v>
+        <v>0.06925679743289948</v>
       </c>
       <c r="C51" t="n">
-        <v>2.454133987426758</v>
+        <v>0.2876327037811279</v>
       </c>
       <c r="D51" t="n">
-        <v>-2.05622410774231</v>
+        <v>0.2088204026222229</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.342913955450058</v>
+        <v>0.06766808032989502</v>
       </c>
       <c r="C52" t="n">
-        <v>2.452526330947876</v>
+        <v>0.3102073669433594</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.899706125259399</v>
+        <v>0.2044826447963715</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.3024575710296631</v>
+        <v>0.08717470616102219</v>
       </c>
       <c r="C53" t="n">
-        <v>2.559814929962158</v>
+        <v>0.3196659088134766</v>
       </c>
       <c r="D53" t="n">
-        <v>-1.775097131729126</v>
+        <v>0.1887779980897903</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.2414143532514572</v>
+        <v>0.1223203912377357</v>
       </c>
       <c r="C54" t="n">
-        <v>2.277874946594238</v>
+        <v>0.3335793018341064</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.586130261421204</v>
+        <v>0.1314083933830261</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.2495910972356796</v>
+        <v>0.1738517433404922</v>
       </c>
       <c r="C55" t="n">
-        <v>2.304302453994751</v>
+        <v>0.3810573518276215</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.591519832611084</v>
+        <v>0.1578267514705658</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.322293221950531</v>
+        <v>0.1901185512542725</v>
       </c>
       <c r="C56" t="n">
-        <v>2.44974946975708</v>
+        <v>0.4604884386062622</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.668697357177734</v>
+        <v>0.152345597743988</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.4600890576839447</v>
+        <v>0.1583354920148849</v>
       </c>
       <c r="C57" t="n">
-        <v>2.659961700439453</v>
+        <v>0.4878900945186615</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.545362710952759</v>
+        <v>0.178146094083786</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.2954879999160767</v>
+        <v>0.1184306815266609</v>
       </c>
       <c r="C58" t="n">
-        <v>2.61884593963623</v>
+        <v>0.4584630131721497</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.545451760292053</v>
+        <v>0.1646979749202728</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.2109051793813705</v>
+        <v>0.1216525435447693</v>
       </c>
       <c r="C59" t="n">
-        <v>2.522072315216064</v>
+        <v>0.4364977180957794</v>
       </c>
       <c r="D59" t="n">
-        <v>-1.431301593780518</v>
+        <v>0.1439382284879684</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.1812366992235184</v>
+        <v>0.1293864995241165</v>
       </c>
       <c r="C60" t="n">
-        <v>2.2577965259552</v>
+        <v>0.4567556977272034</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.530542373657227</v>
+        <v>0.1393562257289886</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.2374953180551529</v>
+        <v>0.1304717361927032</v>
       </c>
       <c r="C61" t="n">
-        <v>2.305736064910889</v>
+        <v>0.4938861727714539</v>
       </c>
       <c r="D61" t="n">
-        <v>-1.398508191108704</v>
+        <v>0.1143257319927216</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.1949562281370163</v>
+        <v>0.05358623340725899</v>
       </c>
       <c r="C62" t="n">
-        <v>1.646125435829163</v>
+        <v>0.4878385066986084</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.209752321243286</v>
+        <v>0.07514745742082596</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.3583170771598816</v>
+        <v>0.05948356166481972</v>
       </c>
       <c r="C63" t="n">
-        <v>1.623327016830444</v>
+        <v>0.5209970474243164</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.220110058784485</v>
+        <v>0.09674727916717529</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.2999109029769897</v>
+        <v>0.100059799849987</v>
       </c>
       <c r="C64" t="n">
-        <v>1.613593339920044</v>
+        <v>0.529026210308075</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.286088824272156</v>
+        <v>0.09326723217964172</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.3232981562614441</v>
+        <v>0.1345068961381912</v>
       </c>
       <c r="C65" t="n">
-        <v>1.668487310409546</v>
+        <v>0.5672249794006348</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.203965902328491</v>
+        <v>0.09121546149253845</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.2121853679418564</v>
+        <v>0.1657701730728149</v>
       </c>
       <c r="C66" t="n">
-        <v>1.629518508911133</v>
+        <v>0.5242129564285278</v>
       </c>
       <c r="D66" t="n">
-        <v>-1.213732838630676</v>
+        <v>0.1083037331700325</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.4493141770362854</v>
+        <v>0.1465598344802856</v>
       </c>
       <c r="C67" t="n">
-        <v>1.58950936794281</v>
+        <v>0.5665102601051331</v>
       </c>
       <c r="D67" t="n">
-        <v>-1.318571805953979</v>
+        <v>0.07368844747543335</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.4312011003494263</v>
+        <v>0.1517294645309448</v>
       </c>
       <c r="C68" t="n">
-        <v>1.58040177822113</v>
+        <v>0.5802404284477234</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.320308566093445</v>
+        <v>0.09255827963352203</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.3610228896141052</v>
+        <v>0.1299693733453751</v>
       </c>
       <c r="C69" t="n">
-        <v>1.816365718841553</v>
+        <v>0.555041491985321</v>
       </c>
       <c r="D69" t="n">
-        <v>-1.453935861587524</v>
+        <v>0.06754183024168015</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.3308284282684326</v>
+        <v>0.1049886867403984</v>
       </c>
       <c r="C70" t="n">
-        <v>1.9476318359375</v>
+        <v>0.5422049164772034</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.303318858146667</v>
+        <v>0.08185273408889771</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.7366973161697388</v>
+        <v>0.1268001645803452</v>
       </c>
       <c r="C71" t="n">
-        <v>2.114641189575195</v>
+        <v>0.5642424821853638</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.02264130115509</v>
+        <v>0.07728093862533569</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.7658653259277344</v>
+        <v>0.08221402019262314</v>
       </c>
       <c r="C72" t="n">
-        <v>2.209848642349243</v>
+        <v>0.5396396517753601</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.045244812965393</v>
+        <v>0.09871330112218857</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.80958092212677</v>
+        <v>0.03378797695040703</v>
       </c>
       <c r="C73" t="n">
-        <v>2.13296103477478</v>
+        <v>0.5011033415794373</v>
       </c>
       <c r="D73" t="n">
-        <v>-1.08433198928833</v>
+        <v>0.08926050364971161</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.7777981162071228</v>
+        <v>0.03978055343031883</v>
       </c>
       <c r="C74" t="n">
-        <v>2.168272733688354</v>
+        <v>0.4910761713981628</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.9630047678947449</v>
+        <v>0.1076537370681763</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.7021512389183044</v>
+        <v>0.05150756612420082</v>
       </c>
       <c r="C75" t="n">
-        <v>2.205444097518921</v>
+        <v>0.4565896987915039</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.9777694940567017</v>
+        <v>0.09856268763542175</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.6965241432189941</v>
+        <v>0.03189678862690926</v>
       </c>
       <c r="C76" t="n">
-        <v>2.234794616699219</v>
+        <v>0.4986811280250549</v>
       </c>
       <c r="D76" t="n">
-        <v>-1.098254442214966</v>
+        <v>0.09276614338159561</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.8083653450012207</v>
+        <v>0.07984812557697296</v>
       </c>
       <c r="C77" t="n">
-        <v>2.044859886169434</v>
+        <v>0.4901812672615051</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.8627227544784546</v>
+        <v>0.08047690242528915</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.8245118260383606</v>
+        <v>0.06234455481171608</v>
       </c>
       <c r="C78" t="n">
-        <v>2.037353754043579</v>
+        <v>0.4764378070831299</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.792489230632782</v>
+        <v>0.07564018666744232</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.8927598595619202</v>
+        <v>0.1116838529706001</v>
       </c>
       <c r="C79" t="n">
-        <v>2.117297887802124</v>
+        <v>0.5121091604232788</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.7036002278327942</v>
+        <v>0.08510427176952362</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.4883553981781006</v>
+        <v>0.0572507344186306</v>
       </c>
       <c r="C80" t="n">
-        <v>2.230823993682861</v>
+        <v>0.4347564578056335</v>
       </c>
       <c r="D80" t="n">
-        <v>-1.108008980751038</v>
+        <v>0.09808114916086197</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.3729725182056427</v>
+        <v>0.05646159872412682</v>
       </c>
       <c r="C81" t="n">
-        <v>2.265562057495117</v>
+        <v>0.4463072717189789</v>
       </c>
       <c r="D81" t="n">
-        <v>-1.206637859344482</v>
+        <v>0.09650617092847824</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.1230044811964035</v>
+        <v>0.06644187867641449</v>
       </c>
       <c r="C82" t="n">
-        <v>2.271398782730103</v>
+        <v>0.5420068502426147</v>
       </c>
       <c r="D82" t="n">
-        <v>-1.630390763282776</v>
+        <v>0.1429644078016281</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.001798973651602864</v>
+        <v>0.06122611835598946</v>
       </c>
       <c r="C83" t="n">
-        <v>2.375765323638916</v>
+        <v>0.5392354130744934</v>
       </c>
       <c r="D83" t="n">
-        <v>-1.68646764755249</v>
+        <v>0.1397231966257095</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.2877895832061768</v>
+        <v>0.06724788248538971</v>
       </c>
       <c r="C84" t="n">
-        <v>2.250614404678345</v>
+        <v>0.5805558562278748</v>
       </c>
       <c r="D84" t="n">
-        <v>-2.032861232757568</v>
+        <v>0.1330370604991913</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2295512706041336</v>
+        <v>0.05244680866599083</v>
       </c>
       <c r="C85" t="n">
-        <v>2.210577964782715</v>
+        <v>0.534529983997345</v>
       </c>
       <c r="D85" t="n">
-        <v>-1.977449774742126</v>
+        <v>0.1163179725408554</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.09126575291156769</v>
+        <v>0.02620778419077396</v>
       </c>
       <c r="C86" t="n">
-        <v>2.048038005828857</v>
+        <v>0.4946667850017548</v>
       </c>
       <c r="D86" t="n">
-        <v>-1.387666940689087</v>
+        <v>0.1126191914081573</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.05038245022296906</v>
+        <v>0.1002208590507507</v>
       </c>
       <c r="C87" t="n">
-        <v>1.704944372177124</v>
+        <v>0.5105831027030945</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.249447345733643</v>
+        <v>0.1042162850499153</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.01665924675762653</v>
+        <v>0.1205233037471771</v>
       </c>
       <c r="C88" t="n">
-        <v>1.596269249916077</v>
+        <v>0.5146035552024841</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.9775051474571228</v>
+        <v>0.103126049041748</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.2209013551473618</v>
+        <v>0.1653392165899277</v>
       </c>
       <c r="C89" t="n">
-        <v>1.608954906463623</v>
+        <v>0.5944284200668335</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.560252547264099</v>
+        <v>0.0884220153093338</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.02503289096057415</v>
+        <v>0.2033156156539917</v>
       </c>
       <c r="C90" t="n">
-        <v>1.679848551750183</v>
+        <v>0.669654369354248</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.915709257125854</v>
+        <v>0.07195886969566345</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.181524857878685</v>
+        <v>0.1609374433755875</v>
       </c>
       <c r="C91" t="n">
-        <v>1.715014219284058</v>
+        <v>0.6358786225318909</v>
       </c>
       <c r="D91" t="n">
-        <v>-1.735849976539612</v>
+        <v>0.06256714463233948</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.327240377664566</v>
+        <v>0.1688544303178787</v>
       </c>
       <c r="C92" t="n">
-        <v>1.715061902999878</v>
+        <v>0.6389210820198059</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.197523951530457</v>
+        <v>0.07399569451808929</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.3971676230430603</v>
+        <v>0.1520286500453949</v>
       </c>
       <c r="C93" t="n">
-        <v>1.879148006439209</v>
+        <v>0.6456658244132996</v>
       </c>
       <c r="D93" t="n">
-        <v>-1.179167866706848</v>
+        <v>0.08024908602237701</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1851795166730881</v>
+        <v>0.1570143699645996</v>
       </c>
       <c r="C94" t="n">
-        <v>2.037501811981201</v>
+        <v>0.6765287518501282</v>
       </c>
       <c r="D94" t="n">
-        <v>-1.428948998451233</v>
+        <v>0.0989324152469635</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3848981857299805</v>
+        <v>0.1288807988166809</v>
       </c>
       <c r="C95" t="n">
-        <v>2.193870067596436</v>
+        <v>0.6328777670860291</v>
       </c>
       <c r="D95" t="n">
-        <v>-1.043076157569885</v>
+        <v>0.07016377151012421</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.330322802066803</v>
+        <v>0.155620813369751</v>
       </c>
       <c r="C96" t="n">
-        <v>1.96652626991272</v>
+        <v>0.652135968208313</v>
       </c>
       <c r="D96" t="n">
-        <v>-1.028432488441467</v>
+        <v>0.04372594878077507</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.06288535892963409</v>
+        <v>0.1588514596223831</v>
       </c>
       <c r="C97" t="n">
-        <v>2.377291917800903</v>
+        <v>0.6862495541572571</v>
       </c>
       <c r="D97" t="n">
-        <v>-1.587207674980164</v>
+        <v>0.06248365715146065</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.2638446688652039</v>
+        <v>0.1676015853881836</v>
       </c>
       <c r="C98" t="n">
-        <v>2.452221155166626</v>
+        <v>0.7104853987693787</v>
       </c>
       <c r="D98" t="n">
-        <v>-1.3429274559021</v>
+        <v>0.04756026342511177</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.1273682564496994</v>
+        <v>0.1514033079147339</v>
       </c>
       <c r="C99" t="n">
-        <v>2.502084732055664</v>
+        <v>0.668486475944519</v>
       </c>
       <c r="D99" t="n">
-        <v>-1.718167424201965</v>
+        <v>0.08795163035392761</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.2459875196218491</v>
+        <v>0.12910196185112</v>
       </c>
       <c r="C100" t="n">
-        <v>2.519006490707397</v>
+        <v>0.59352046251297</v>
       </c>
       <c r="D100" t="n">
-        <v>-1.337108373641968</v>
+        <v>0.09874395281076431</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2655778527259827</v>
+        <v>0.1083762720227242</v>
       </c>
       <c r="C101" t="n">
-        <v>2.690304279327393</v>
+        <v>0.5688039064407349</v>
       </c>
       <c r="D101" t="n">
-        <v>-1.458832502365112</v>
+        <v>0.1347526609897614</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.1663343757390976</v>
+        <v>0.08718252182006836</v>
       </c>
       <c r="C102" t="n">
-        <v>2.54625415802002</v>
+        <v>0.5005868077278137</v>
       </c>
       <c r="D102" t="n">
-        <v>-1.309203624725342</v>
+        <v>0.1081670373678207</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.03217925131320953</v>
+        <v>0.1034365594387054</v>
       </c>
       <c r="C103" t="n">
-        <v>2.662602424621582</v>
+        <v>0.5448857545852661</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.402396321296692</v>
+        <v>0.10468490421772</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2032101303339005</v>
+        <v>0.1265280246734619</v>
       </c>
       <c r="C104" t="n">
-        <v>2.422564029693604</v>
+        <v>0.602795422077179</v>
       </c>
       <c r="D104" t="n">
-        <v>-1.65008556842804</v>
+        <v>0.1195718497037888</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.05410186946392059</v>
+        <v>0.1123254895210266</v>
       </c>
       <c r="C105" t="n">
-        <v>2.172878265380859</v>
+        <v>0.5668778419494629</v>
       </c>
       <c r="D105" t="n">
-        <v>-1.177711606025696</v>
+        <v>0.09005482494831085</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5769878625869751</v>
+        <v>0.1265570819377899</v>
       </c>
       <c r="C106" t="n">
-        <v>1.999122142791748</v>
+        <v>0.5986683368682861</v>
       </c>
       <c r="D106" t="n">
-        <v>-1.747405648231506</v>
+        <v>0.133542537689209</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.2359080761671066</v>
+        <v>0.1525677740573883</v>
       </c>
       <c r="C107" t="n">
-        <v>1.880033254623413</v>
+        <v>0.6297169327735901</v>
       </c>
       <c r="D107" t="n">
-        <v>-1.654049158096313</v>
+        <v>0.1176377162337303</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.03738991916179657</v>
+        <v>0.1242387667298317</v>
       </c>
       <c r="C108" t="n">
-        <v>1.850974678993225</v>
+        <v>0.583742082118988</v>
       </c>
       <c r="D108" t="n">
-        <v>-1.31920313835144</v>
+        <v>0.1183123514056206</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.02969102747738361</v>
+        <v>0.1711646765470505</v>
       </c>
       <c r="C109" t="n">
-        <v>1.807440996170044</v>
+        <v>0.593653678894043</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.26488983631134</v>
+        <v>0.09369513392448425</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.08269612491130829</v>
+        <v>0.1530603617429733</v>
       </c>
       <c r="C110" t="n">
-        <v>1.834957480430603</v>
+        <v>0.5496765971183777</v>
       </c>
       <c r="D110" t="n">
-        <v>-1.445757031440735</v>
+        <v>0.09671897441148758</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.2629410326480865</v>
+        <v>0.1474034637212753</v>
       </c>
       <c r="C111" t="n">
-        <v>2.049333572387695</v>
+        <v>0.6159926056861877</v>
       </c>
       <c r="D111" t="n">
-        <v>-1.832252144813538</v>
+        <v>0.1225894168019295</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.4632076025009155</v>
+        <v>0.1142521649599075</v>
       </c>
       <c r="C112" t="n">
-        <v>2.021646022796631</v>
+        <v>0.5733761191368103</v>
       </c>
       <c r="D112" t="n">
-        <v>-1.549189686775208</v>
+        <v>0.1351951062679291</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.606067955493927</v>
+        <v>0.1432759314775467</v>
       </c>
       <c r="C113" t="n">
-        <v>2.151470184326172</v>
+        <v>0.5648021101951599</v>
       </c>
       <c r="D113" t="n">
-        <v>-1.313584446907043</v>
+        <v>0.1390805691480637</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.6746640801429749</v>
+        <v>0.1401639878749847</v>
       </c>
       <c r="C114" t="n">
-        <v>2.320735454559326</v>
+        <v>0.5984911322593689</v>
       </c>
       <c r="D114" t="n">
-        <v>-1.206375956535339</v>
+        <v>0.1609580665826797</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.9114518761634827</v>
+        <v>0.1931796818971634</v>
       </c>
       <c r="C115" t="n">
-        <v>2.353304386138916</v>
+        <v>0.6119192838668823</v>
       </c>
       <c r="D115" t="n">
-        <v>-1.351134538650513</v>
+        <v>0.1283903270959854</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.9483168125152588</v>
+        <v>0.1831069588661194</v>
       </c>
       <c r="C116" t="n">
-        <v>2.585275888442993</v>
+        <v>0.6334938406944275</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.547031879425049</v>
+        <v>0.1609944701194763</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-1.10543954372406</v>
+        <v>0.1590703874826431</v>
       </c>
       <c r="C117" t="n">
-        <v>2.503880500793457</v>
+        <v>0.6553927659988403</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.15458071231842</v>
+        <v>0.1589641720056534</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.130557179450989</v>
+        <v>0.1117552444338799</v>
       </c>
       <c r="C118" t="n">
-        <v>2.60727071762085</v>
+        <v>0.5996810793876648</v>
       </c>
       <c r="D118" t="n">
-        <v>-1.157832622528076</v>
+        <v>0.1556254923343658</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.251135945320129</v>
+        <v>0.2009363621473312</v>
       </c>
       <c r="C119" t="n">
-        <v>2.715765714645386</v>
+        <v>0.6631926894187927</v>
       </c>
       <c r="D119" t="n">
-        <v>-1.147267699241638</v>
+        <v>0.1178366243839264</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.329533815383911</v>
+        <v>0.2269394546747208</v>
       </c>
       <c r="C120" t="n">
-        <v>2.828667163848877</v>
+        <v>0.6260700821876526</v>
       </c>
       <c r="D120" t="n">
-        <v>-1.132880091667175</v>
+        <v>0.0797860249876976</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.195971131324768</v>
+        <v>0.2184837311506271</v>
       </c>
       <c r="C121" t="n">
-        <v>2.924322128295898</v>
+        <v>0.6314689517021179</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.046652913093567</v>
+        <v>0.09552805870771408</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-1.271474361419678</v>
+        <v>0.1829248070716858</v>
       </c>
       <c r="C122" t="n">
-        <v>2.918107509613037</v>
+        <v>0.5952052474021912</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.6705914735794067</v>
+        <v>0.07226554304361343</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-1.131646871566772</v>
+        <v>0.2284535020589828</v>
       </c>
       <c r="C123" t="n">
-        <v>2.754107475280762</v>
+        <v>0.6163071393966675</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.836078405380249</v>
+        <v>0.07035940885543823</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-1.139292359352112</v>
+        <v>0.2719376981258392</v>
       </c>
       <c r="C124" t="n">
-        <v>2.77189564704895</v>
+        <v>0.6367093920707703</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.7776583433151245</v>
+        <v>0.06737209856510162</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.991170346736908</v>
+        <v>0.2375485450029373</v>
       </c>
       <c r="C125" t="n">
-        <v>2.651951551437378</v>
+        <v>0.6381860375404358</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.8070834279060364</v>
+        <v>0.0998484343290329</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.8056501746177673</v>
+        <v>0.2359797209501266</v>
       </c>
       <c r="C126" t="n">
-        <v>2.551561832427979</v>
+        <v>0.6200037598609924</v>
       </c>
       <c r="D126" t="n">
-        <v>-1.294461607933044</v>
+        <v>0.1234688758850098</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.8040469288825989</v>
+        <v>0.2663812935352325</v>
       </c>
       <c r="C127" t="n">
-        <v>2.754356384277344</v>
+        <v>0.6631889343261719</v>
       </c>
       <c r="D127" t="n">
-        <v>-1.398378252983093</v>
+        <v>0.1030258536338806</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.9019433856010437</v>
+        <v>0.2564382553100586</v>
       </c>
       <c r="C128" t="n">
-        <v>2.741204500198364</v>
+        <v>0.6521934866905212</v>
       </c>
       <c r="D128" t="n">
-        <v>-1.166143655776978</v>
+        <v>0.08987022936344147</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.9123632907867432</v>
+        <v>0.2572209239006042</v>
       </c>
       <c r="C129" t="n">
-        <v>2.709221839904785</v>
+        <v>0.6515971422195435</v>
       </c>
       <c r="D129" t="n">
-        <v>-1.121458411216736</v>
+        <v>0.1106499284505844</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.9807051420211792</v>
+        <v>0.2514336109161377</v>
       </c>
       <c r="C130" t="n">
-        <v>2.614276170730591</v>
+        <v>0.6622933745384216</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.8307076692581177</v>
+        <v>0.1285079121589661</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.7476016879081726</v>
+        <v>0.1625394374132156</v>
       </c>
       <c r="C131" t="n">
-        <v>2.768517017364502</v>
+        <v>0.5911110043525696</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.81389319896698</v>
+        <v>0.1521977484226227</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.032098174095154</v>
+        <v>0.137099027633667</v>
       </c>
       <c r="C132" t="n">
-        <v>2.917165279388428</v>
+        <v>0.5660038590431213</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.4188921451568604</v>
+        <v>0.1400434970855713</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-1.039647102355957</v>
+        <v>0.1128561124205589</v>
       </c>
       <c r="C133" t="n">
-        <v>2.629756927490234</v>
+        <v>0.5394423604011536</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.481229692697525</v>
+        <v>0.1571319699287415</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.8932821154594421</v>
+        <v>0.150005504488945</v>
       </c>
       <c r="C134" t="n">
-        <v>2.595164060592651</v>
+        <v>0.6193214654922485</v>
       </c>
       <c r="D134" t="n">
-        <v>-1.02561616897583</v>
+        <v>0.1407984048128128</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.9862378239631653</v>
+        <v>0.1666396409273148</v>
       </c>
       <c r="C135" t="n">
-        <v>2.640448331832886</v>
+        <v>0.6378021240234375</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.9840950965881348</v>
+        <v>0.1082484573125839</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.7389821410179138</v>
+        <v>0.09319394826889038</v>
       </c>
       <c r="C136" t="n">
-        <v>2.52308988571167</v>
+        <v>0.6168144345283508</v>
       </c>
       <c r="D136" t="n">
-        <v>-1.003111362457275</v>
+        <v>0.104141540825367</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.8079461455345154</v>
+        <v>0.06278375536203384</v>
       </c>
       <c r="C137" t="n">
-        <v>2.801366090774536</v>
+        <v>0.6101428866386414</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.8306012153625488</v>
+        <v>0.1077558249235153</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.050432324409485</v>
+        <v>0.05299795791506767</v>
       </c>
       <c r="C138" t="n">
-        <v>2.521907806396484</v>
+        <v>0.5839910507202148</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.3638249039649963</v>
+        <v>0.07363232225179672</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.4168676137924194</v>
+        <v>0.05132200196385384</v>
       </c>
       <c r="C139" t="n">
-        <v>2.172850847244263</v>
+        <v>0.5849767923355103</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.4760145545005798</v>
+        <v>0.04698626697063446</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.5167221426963806</v>
+        <v>0.06636769324541092</v>
       </c>
       <c r="C140" t="n">
-        <v>2.002721309661865</v>
+        <v>0.6041992902755737</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.6371983289718628</v>
+        <v>0.05088923498988152</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.5140101313591003</v>
+        <v>0.04900248721241951</v>
       </c>
       <c r="C141" t="n">
-        <v>2.275414943695068</v>
+        <v>0.5886847376823425</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.2311662435531616</v>
+        <v>0.0346149355173111</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.4322571456432343</v>
+        <v>0.03106469847261906</v>
       </c>
       <c r="C142" t="n">
-        <v>2.528959274291992</v>
+        <v>0.581712543964386</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.325778603553772</v>
+        <v>0.04176821187138557</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.3941226601600647</v>
+        <v>0.06849941611289978</v>
       </c>
       <c r="C143" t="n">
-        <v>2.304491758346558</v>
+        <v>0.5881308913230896</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.3105674982070923</v>
+        <v>0.01488517969846725</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.4857892096042633</v>
+        <v>0.01814205385744572</v>
       </c>
       <c r="C144" t="n">
-        <v>2.25595235824585</v>
+        <v>0.5655410289764404</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.4967632293701172</v>
+        <v>-0.03133399412035942</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.1049273163080215</v>
+        <v>-0.04641259834170341</v>
       </c>
       <c r="C145" t="n">
-        <v>2.536165952682495</v>
+        <v>0.5963523983955383</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.156657576560974</v>
+        <v>-0.02950914390385151</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.320369154214859</v>
+        <v>-0.06295817345380783</v>
       </c>
       <c r="C146" t="n">
-        <v>2.489627361297607</v>
+        <v>0.5975205898284912</v>
       </c>
       <c r="D146" t="n">
-        <v>-1.239224553108215</v>
+        <v>-0.02320485189557076</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.2543854713439941</v>
+        <v>-0.03336704894900322</v>
       </c>
       <c r="C147" t="n">
-        <v>2.412331581115723</v>
+        <v>0.6065860390663147</v>
       </c>
       <c r="D147" t="n">
-        <v>-1.155415415763855</v>
+        <v>-0.02519233711063862</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.5800556540489197</v>
+        <v>0.003383110044524074</v>
       </c>
       <c r="C148" t="n">
-        <v>2.593460083007812</v>
+        <v>0.5551398396492004</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.9114882349967957</v>
+        <v>-0.03255670517683029</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.4068942964076996</v>
+        <v>0.008922222070395947</v>
       </c>
       <c r="C149" t="n">
-        <v>2.726383686065674</v>
+        <v>0.5487911701202393</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.9153225421905518</v>
+        <v>-0.003944666124880314</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.2220140546560287</v>
+        <v>0.01664121635258198</v>
       </c>
       <c r="C150" t="n">
-        <v>2.667425155639648</v>
+        <v>0.5649783611297607</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.8640127182006836</v>
+        <v>0.008470633998513222</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.03198821842670441</v>
+        <v>0.01322593819350004</v>
       </c>
       <c r="C151" t="n">
-        <v>2.711189746856689</v>
+        <v>0.5752267241477966</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.7077553272247314</v>
+        <v>0.0006552108097821474</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.06271626055240631</v>
+        <v>0.03037680126726627</v>
       </c>
       <c r="C152" t="n">
-        <v>2.620690822601318</v>
+        <v>0.6117110848426819</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.135499358177185</v>
+        <v>0.00940037053078413</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.163520023226738</v>
+        <v>0.0560494177043438</v>
       </c>
       <c r="C153" t="n">
-        <v>2.846780300140381</v>
+        <v>0.6172301173210144</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.7721604108810425</v>
+        <v>-0.007885654456913471</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.3906995356082916</v>
+        <v>0.02110446430742741</v>
       </c>
       <c r="C154" t="n">
-        <v>3.01688289642334</v>
+        <v>0.6658833622932434</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.053506016731262</v>
+        <v>-0.03016139380633831</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.2990091741085052</v>
+        <v>0.02099105156958103</v>
       </c>
       <c r="C155" t="n">
-        <v>3.016634941101074</v>
+        <v>0.651875376701355</v>
       </c>
       <c r="D155" t="n">
-        <v>-1.126049160957336</v>
+        <v>-0.02626246400177479</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.03823725879192352</v>
+        <v>0.04528023675084114</v>
       </c>
       <c r="C156" t="n">
-        <v>2.968917369842529</v>
+        <v>0.6916586756706238</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.138598442077637</v>
+        <v>-0.04260081425309181</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.4863267540931702</v>
+        <v>0.03671414777636528</v>
       </c>
       <c r="C157" t="n">
-        <v>2.818140983581543</v>
+        <v>0.6999605298042297</v>
       </c>
       <c r="D157" t="n">
-        <v>-1.399867415428162</v>
+        <v>0.01140297669917345</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.4245193600654602</v>
+        <v>0.08628305047750473</v>
       </c>
       <c r="C158" t="n">
-        <v>2.689070701599121</v>
+        <v>0.7485222220420837</v>
       </c>
       <c r="D158" t="n">
-        <v>-1.500971674919128</v>
+        <v>-0.006642239168286324</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.01273353304713964</v>
+        <v>0.1042744889855385</v>
       </c>
       <c r="C159" t="n">
-        <v>2.837077379226685</v>
+        <v>0.7054983973503113</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.299928784370422</v>
+        <v>-0.03835969045758247</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.05450709164142609</v>
+        <v>0.09696241468191147</v>
       </c>
       <c r="C160" t="n">
-        <v>2.792453050613403</v>
+        <v>0.6926741003990173</v>
       </c>
       <c r="D160" t="n">
-        <v>-1.166527986526489</v>
+        <v>0.005444866605103016</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.0866992324590683</v>
+        <v>0.08728303760290146</v>
       </c>
       <c r="C161" t="n">
-        <v>2.755771636962891</v>
+        <v>0.6932687163352966</v>
       </c>
       <c r="D161" t="n">
-        <v>-1.238728761672974</v>
+        <v>-0.01696390844881535</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.02991493232548237</v>
+        <v>0.09652476757764816</v>
       </c>
       <c r="C162" t="n">
-        <v>2.916632175445557</v>
+        <v>0.6627231240272522</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.9993941783905029</v>
+        <v>-0.04567098617553711</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1429483741521835</v>
+        <v>0.1148508787155151</v>
       </c>
       <c r="C163" t="n">
-        <v>2.589432716369629</v>
+        <v>0.6852951645851135</v>
       </c>
       <c r="D163" t="n">
-        <v>-1.265045285224915</v>
+        <v>-0.05103839188814163</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.2912087142467499</v>
+        <v>0.05673716589808464</v>
       </c>
       <c r="C164" t="n">
-        <v>2.733769416809082</v>
+        <v>0.6596323251724243</v>
       </c>
       <c r="D164" t="n">
-        <v>-1.20698082447052</v>
+        <v>-0.04728585481643677</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.4649658203125</v>
+        <v>0.02922460623085499</v>
       </c>
       <c r="C165" t="n">
-        <v>2.431654453277588</v>
+        <v>0.6359354853630066</v>
       </c>
       <c r="D165" t="n">
-        <v>-1.542141079902649</v>
+        <v>-0.03140504285693169</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.4842937588691711</v>
+        <v>0.03598996624350548</v>
       </c>
       <c r="C166" t="n">
-        <v>2.292182445526123</v>
+        <v>0.647524356842041</v>
       </c>
       <c r="D166" t="n">
-        <v>-1.582943439483643</v>
+        <v>-0.01932359673082829</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1230737715959549</v>
+        <v>0.03493661805987358</v>
       </c>
       <c r="C167" t="n">
-        <v>2.221692800521851</v>
+        <v>0.6081485152244568</v>
       </c>
       <c r="D167" t="n">
-        <v>-1.054121375083923</v>
+        <v>-0.06156497076153755</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.1916266232728958</v>
+        <v>0.04968877509236336</v>
       </c>
       <c r="C168" t="n">
-        <v>2.469901084899902</v>
+        <v>0.5987285375595093</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.7423405051231384</v>
+        <v>-0.08830215036869049</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.09514804184436798</v>
+        <v>0.05597880482673645</v>
       </c>
       <c r="C169" t="n">
-        <v>2.257880926132202</v>
+        <v>0.6536270976066589</v>
       </c>
       <c r="D169" t="n">
-        <v>-1.134961843490601</v>
+        <v>-0.08126132190227509</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.01013664994388819</v>
+        <v>0.06203312426805496</v>
       </c>
       <c r="C170" t="n">
-        <v>2.152957439422607</v>
+        <v>0.666054904460907</v>
       </c>
       <c r="D170" t="n">
-        <v>-1.019034147262573</v>
+        <v>-0.07167445123195648</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.04708422720432281</v>
+        <v>0.07661931961774826</v>
       </c>
       <c r="C171" t="n">
-        <v>1.912530779838562</v>
+        <v>0.6681862473487854</v>
       </c>
       <c r="D171" t="n">
-        <v>-1.087157845497131</v>
+        <v>-0.09537875652313232</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.002707852749153972</v>
+        <v>0.08431228250265121</v>
       </c>
       <c r="C172" t="n">
-        <v>2.404867887496948</v>
+        <v>0.6755741238594055</v>
       </c>
       <c r="D172" t="n">
-        <v>-1.123852133750916</v>
+        <v>-0.0947585254907608</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.2196113616228104</v>
+        <v>0.1294940412044525</v>
       </c>
       <c r="C173" t="n">
-        <v>2.196948528289795</v>
+        <v>0.7042956352233887</v>
       </c>
       <c r="D173" t="n">
-        <v>-1.307967185974121</v>
+        <v>-0.06258716434240341</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.4017738401889801</v>
+        <v>0.1014658957719803</v>
       </c>
       <c r="C174" t="n">
-        <v>2.3661789894104</v>
+        <v>0.7201919555664062</v>
       </c>
       <c r="D174" t="n">
-        <v>-1.474907517433167</v>
+        <v>-0.0533510223031044</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.5915258526802063</v>
+        <v>0.1429364681243896</v>
       </c>
       <c r="C175" t="n">
-        <v>2.405318021774292</v>
+        <v>0.7225959300994873</v>
       </c>
       <c r="D175" t="n">
-        <v>-1.613060355186462</v>
+        <v>-0.01939208991825581</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.3168092966079712</v>
+        <v>0.1642298549413681</v>
       </c>
       <c r="C176" t="n">
-        <v>2.294701814651489</v>
+        <v>0.6486861705780029</v>
       </c>
       <c r="D176" t="n">
-        <v>-1.182036519050598</v>
+        <v>-0.01724083162844181</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1939053684473038</v>
+        <v>0.1781447678804398</v>
       </c>
       <c r="C177" t="n">
-        <v>2.16137170791626</v>
+        <v>0.707474946975708</v>
       </c>
       <c r="D177" t="n">
-        <v>-1.132660508155823</v>
+        <v>-0.06897330284118652</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.2365811318159103</v>
+        <v>0.1614345163106918</v>
       </c>
       <c r="C178" t="n">
-        <v>2.28847599029541</v>
+        <v>0.7300853729248047</v>
       </c>
       <c r="D178" t="n">
-        <v>-1.271164178848267</v>
+        <v>-0.07761580497026443</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.1136030703783035</v>
+        <v>0.1652689874172211</v>
       </c>
       <c r="C179" t="n">
-        <v>2.27835488319397</v>
+        <v>0.7198864221572876</v>
       </c>
       <c r="D179" t="n">
-        <v>-1.163934111595154</v>
+        <v>-0.08686033636331558</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.4537098407745361</v>
+        <v>0.1473428905010223</v>
       </c>
       <c r="C180" t="n">
-        <v>2.446596622467041</v>
+        <v>0.7079516649246216</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.8622531890869141</v>
+        <v>-0.07016009092330933</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.85710608959198</v>
+        <v>0.1333827376365662</v>
       </c>
       <c r="C181" t="n">
-        <v>2.439158916473389</v>
+        <v>0.6990787386894226</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.2932795286178589</v>
+        <v>-0.09159389138221741</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.8447723388671875</v>
+        <v>0.1103739067912102</v>
       </c>
       <c r="C182" t="n">
-        <v>2.266853094100952</v>
+        <v>0.6678022146224976</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.1516647934913635</v>
+        <v>-0.09693632274866104</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.089054226875305</v>
+        <v>0.1117189005017281</v>
       </c>
       <c r="C183" t="n">
-        <v>2.093173027038574</v>
+        <v>0.6048205494880676</v>
       </c>
       <c r="D183" t="n">
-        <v>0.132984459400177</v>
+        <v>-0.1126922145485878</v>
       </c>
     </row>
   </sheetData>

--- a/documents/latent_vector/reinforce_enc.xlsx
+++ b/documents/latent_vector/reinforce_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05577024444937706</v>
+        <v>-2.841636657714844</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6626814007759094</v>
+        <v>-2.357606172561646</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2584167420864105</v>
+        <v>0.4029742181301117</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08452115207910538</v>
+        <v>-2.882120132446289</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6800116300582886</v>
+        <v>-2.449530601501465</v>
       </c>
       <c r="D3" t="n">
-        <v>0.244444340467453</v>
+        <v>0.2390711456537247</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1277425587177277</v>
+        <v>-2.677876949310303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7072747945785522</v>
+        <v>-2.579928636550903</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2251480668783188</v>
+        <v>-0.4293458461761475</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06963846832513809</v>
+        <v>-2.591626644134521</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6517603993415833</v>
+        <v>-2.493304491043091</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2970253229141235</v>
+        <v>0.01665011048316956</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02349468506872654</v>
+        <v>-4.077898025512695</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6038541197776794</v>
+        <v>-3.599954605102539</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3154088258743286</v>
+        <v>0.1192417144775391</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02369355596601963</v>
+        <v>-4.111838817596436</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5464534163475037</v>
+        <v>-3.415985107421875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3000660836696625</v>
+        <v>0.2837766110897064</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03478352352976799</v>
+        <v>-3.027852058410645</v>
       </c>
       <c r="C8" t="n">
-        <v>0.527082085609436</v>
+        <v>-2.638061285018921</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2518312931060791</v>
+        <v>0.3256025910377502</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04742112383246422</v>
+        <v>-2.439830303192139</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5427764058113098</v>
+        <v>-2.133772373199463</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2306409329175949</v>
+        <v>0.2702485322952271</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.004163692705333233</v>
+        <v>-2.429980278015137</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4503675103187561</v>
+        <v>-2.032038688659668</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2644645869731903</v>
+        <v>0.4841681122779846</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06924241036176682</v>
+        <v>-2.051456212997437</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5516371130943298</v>
+        <v>-1.809048295021057</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2359074354171753</v>
+        <v>0.1668984591960907</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0469285361468792</v>
+        <v>-1.865993976593018</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5177712440490723</v>
+        <v>-1.641577839851379</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2319659143686295</v>
+        <v>0.002710908651351929</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07213745266199112</v>
+        <v>-2.172571420669556</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5157505869865417</v>
+        <v>-1.886247873306274</v>
       </c>
       <c r="D13" t="n">
-        <v>0.191398411989212</v>
+        <v>-0.1574314534664154</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09927365928888321</v>
+        <v>-2.711297273635864</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5819038152694702</v>
+        <v>-2.367310285568237</v>
       </c>
       <c r="D14" t="n">
-        <v>0.169795349240303</v>
+        <v>-0.206502377986908</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09974471479654312</v>
+        <v>-2.2865891456604</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5946544408798218</v>
+        <v>-1.901257157325745</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1716026216745377</v>
+        <v>-0.3250469565391541</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1010683849453926</v>
+        <v>-2.263799428939819</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6037386655807495</v>
+        <v>-1.928708910942078</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1941841840744019</v>
+        <v>-0.6415027976036072</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1070333942770958</v>
+        <v>-1.986987590789795</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6525274515151978</v>
+        <v>-1.72814416885376</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1646350920200348</v>
+        <v>-0.7190135717391968</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1495990455150604</v>
+        <v>-1.908243298530579</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6531545519828796</v>
+        <v>-1.543167233467102</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1131191253662109</v>
+        <v>-0.8228845596313477</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1270884871482849</v>
+        <v>-2.023823022842407</v>
       </c>
       <c r="C19" t="n">
-        <v>0.634002685546875</v>
+        <v>-1.782556176185608</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1521415859460831</v>
+        <v>-0.9355229139328003</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1021809354424477</v>
+        <v>-2.012243747711182</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5854719281196594</v>
+        <v>-1.688738465309143</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1542745977640152</v>
+        <v>-0.8120579719543457</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1631161868572235</v>
+        <v>-2.496457576751709</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6702649593353271</v>
+        <v>-2.310515642166138</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1138371527194977</v>
+        <v>-1.310253620147705</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1922473460435867</v>
+        <v>-1.899504423141479</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6727538704872131</v>
+        <v>-1.593330144882202</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1118797734379768</v>
+        <v>-0.9263045787811279</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2441704720258713</v>
+        <v>-1.863364815711975</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7257510423660278</v>
+        <v>-1.527712345123291</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09522715210914612</v>
+        <v>-1.071212768554688</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2329547256231308</v>
+        <v>-2.124382257461548</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7149922251701355</v>
+        <v>-1.84848427772522</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09654251486063004</v>
+        <v>-1.001757860183716</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.208754301071167</v>
+        <v>-1.885461807250977</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6961211562156677</v>
+        <v>-1.515344977378845</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09875500947237015</v>
+        <v>-0.7716841697692871</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1843715459108353</v>
+        <v>-2.566587686538696</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5837841629981995</v>
+        <v>-2.105539560317993</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1185521930456161</v>
+        <v>-0.4810929894447327</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1261619031429291</v>
+        <v>-2.00735068321228</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5992235541343689</v>
+        <v>-1.562525629997253</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1499829590320587</v>
+        <v>-0.2385044693946838</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1249138936400414</v>
+        <v>-2.099219560623169</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5961521863937378</v>
+        <v>-1.68213152885437</v>
       </c>
       <c r="D28" t="n">
-        <v>0.174184650182724</v>
+        <v>-0.1704059541225433</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1251628398895264</v>
+        <v>-2.598147392272949</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5887966156005859</v>
+        <v>-2.093233585357666</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1839530915021896</v>
+        <v>-0.177117794752121</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1113675460219383</v>
+        <v>-2.636469841003418</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5685651898384094</v>
+        <v>-2.056294679641724</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1418291628360748</v>
+        <v>-0.3303430676460266</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1160890683531761</v>
+        <v>-2.923778295516968</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5872666835784912</v>
+        <v>-2.407546043395996</v>
       </c>
       <c r="D31" t="n">
-        <v>0.160773903131485</v>
+        <v>-0.7154148817062378</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2103572487831116</v>
+        <v>-2.664854049682617</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6816573739051819</v>
+        <v>-2.361081123352051</v>
       </c>
       <c r="D32" t="n">
-        <v>0.150855764746666</v>
+        <v>-0.9837721586227417</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1732161790132523</v>
+        <v>-3.903290271759033</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6756035685539246</v>
+        <v>-3.333928346633911</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1604749262332916</v>
+        <v>-0.95582115650177</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1436454206705093</v>
+        <v>-4.190567493438721</v>
       </c>
       <c r="C34" t="n">
-        <v>0.653709888458252</v>
+        <v>-3.505949974060059</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1556127220392227</v>
+        <v>-0.6643004417419434</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.119317539036274</v>
+        <v>-4.154242992401123</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6076589226722717</v>
+        <v>-3.25156569480896</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1809334605932236</v>
+        <v>-0.1932149529457092</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1184655204415321</v>
+        <v>-3.452364444732666</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5930322408676147</v>
+        <v>-2.739224195480347</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2385943830013275</v>
+        <v>-0.1537126302719116</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1115265414118767</v>
+        <v>-3.019836187362671</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5878123641014099</v>
+        <v>-2.383097171783447</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2104842066764832</v>
+        <v>-0.1433855295181274</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09501991420984268</v>
+        <v>-1.932764291763306</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5826876759529114</v>
+        <v>-1.513401627540588</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2422751188278198</v>
+        <v>-0.08219903707504272</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.07077828794717789</v>
+        <v>-2.004348278045654</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5133360624313354</v>
+        <v>-1.532937526702881</v>
       </c>
       <c r="D39" t="n">
-        <v>0.230892151594162</v>
+        <v>-0.05542357265949249</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.05267440900206566</v>
+        <v>-1.709601759910583</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4712516069412231</v>
+        <v>-1.301348805427551</v>
       </c>
       <c r="D40" t="n">
-        <v>0.219854474067688</v>
+        <v>-0.03582422435283661</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02513440884649754</v>
+        <v>-1.608680248260498</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4673078060150146</v>
+        <v>-1.169122457504272</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2142447233200073</v>
+        <v>0.2369824349880219</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.03336535021662712</v>
+        <v>-1.555871486663818</v>
       </c>
       <c r="C42" t="n">
-        <v>0.465644359588623</v>
+        <v>-1.005481481552124</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2349546551704407</v>
+        <v>0.1417345404624939</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.024291867390275</v>
+        <v>-1.850979208946228</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4455872774124146</v>
+        <v>-1.174148678779602</v>
       </c>
       <c r="D43" t="n">
-        <v>0.223340317606926</v>
+        <v>0.2848454117774963</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.00100756692700088</v>
+        <v>-2.379486083984375</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4110738039016724</v>
+        <v>-1.447522282600403</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2277697175741196</v>
+        <v>0.5104289650917053</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.007037033326923847</v>
+        <v>-1.433434247970581</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3798812329769135</v>
+        <v>-0.8350679874420166</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2445268481969833</v>
+        <v>0.3139530420303345</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01518924068659544</v>
+        <v>-2.094286441802979</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4034312069416046</v>
+        <v>-1.298949837684631</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2589964866638184</v>
+        <v>0.4371559619903564</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01390535663813353</v>
+        <v>-1.39033317565918</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3500170111656189</v>
+        <v>-0.7201643586158752</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2705588340759277</v>
+        <v>0.4405964612960815</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03630739822983742</v>
+        <v>-1.519749402999878</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3667083978652954</v>
+        <v>-0.8419498205184937</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2336055189371109</v>
+        <v>0.3752448856830597</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.04809952899813652</v>
+        <v>-1.842502355575562</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3558739721775055</v>
+        <v>-1.026260614395142</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2088114619255066</v>
+        <v>0.5506225824356079</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06669233739376068</v>
+        <v>-1.844915628433228</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3190366625785828</v>
+        <v>-0.9644599556922913</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1924788802862167</v>
+        <v>0.5846210122108459</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06925679743289948</v>
+        <v>-1.876991271972656</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2876327037811279</v>
+        <v>-0.9261928796768188</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2088204026222229</v>
+        <v>0.5781787633895874</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06766808032989502</v>
+        <v>-1.375908374786377</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3102073669433594</v>
+        <v>-0.6192877888679504</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2044826447963715</v>
+        <v>0.3734336197376251</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08717470616102219</v>
+        <v>-1.237278938293457</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3196659088134766</v>
+        <v>-0.5454774498939514</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1887779980897903</v>
+        <v>0.4321061074733734</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1223203912377357</v>
+        <v>-1.299891233444214</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3335793018341064</v>
+        <v>-0.6323011517524719</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1314083933830261</v>
+        <v>0.3921651244163513</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1738517433404922</v>
+        <v>-1.40808629989624</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3810573518276215</v>
+        <v>-0.6442805528640747</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1578267514705658</v>
+        <v>0.3655620217323303</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1901185512542725</v>
+        <v>-1.43508243560791</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4604884386062622</v>
+        <v>-0.6855316758155823</v>
       </c>
       <c r="D56" t="n">
-        <v>0.152345597743988</v>
+        <v>0.3656144738197327</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1583354920148849</v>
+        <v>-1.432917833328247</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4878900945186615</v>
+        <v>-0.6695462465286255</v>
       </c>
       <c r="D57" t="n">
-        <v>0.178146094083786</v>
+        <v>0.4082541465759277</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1184306815266609</v>
+        <v>-1.450927734375</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4584630131721497</v>
+        <v>-0.7361224889755249</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1646979749202728</v>
+        <v>0.4952604174613953</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1216525435447693</v>
+        <v>-1.400353908538818</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4364977180957794</v>
+        <v>-0.6939806342124939</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1439382284879684</v>
+        <v>0.5101866722106934</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1293864995241165</v>
+        <v>-1.448775172233582</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4567556977272034</v>
+        <v>-0.7120749354362488</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1393562257289886</v>
+        <v>0.5139197111129761</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1304717361927032</v>
+        <v>-1.329439640045166</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4938861727714539</v>
+        <v>-0.5872820615768433</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1143257319927216</v>
+        <v>0.3975301384925842</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.05358623340725899</v>
+        <v>-1.47840690612793</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4878385066986084</v>
+        <v>-0.7228499054908752</v>
       </c>
       <c r="D62" t="n">
-        <v>0.07514745742082596</v>
+        <v>0.2165471464395523</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.05948356166481972</v>
+        <v>-1.613430976867676</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5209970474243164</v>
+        <v>-0.8083111047744751</v>
       </c>
       <c r="D63" t="n">
-        <v>0.09674727916717529</v>
+        <v>0.1604468673467636</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.100059799849987</v>
+        <v>-1.68979811668396</v>
       </c>
       <c r="C64" t="n">
-        <v>0.529026210308075</v>
+        <v>-1.001464128494263</v>
       </c>
       <c r="D64" t="n">
-        <v>0.09326723217964172</v>
+        <v>0.008054569363594055</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1345068961381912</v>
+        <v>-1.721002221107483</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5672249794006348</v>
+        <v>-1.093727588653564</v>
       </c>
       <c r="D65" t="n">
-        <v>0.09121546149253845</v>
+        <v>-0.2563496530056</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1657701730728149</v>
+        <v>-1.731892228126526</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5242129564285278</v>
+        <v>-0.9472346901893616</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1083037331700325</v>
+        <v>-0.192283421754837</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1465598344802856</v>
+        <v>-1.736348748207092</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5665102601051331</v>
+        <v>-1.044299721717834</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07368844747543335</v>
+        <v>-0.2595884799957275</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1517294645309448</v>
+        <v>-1.751931428909302</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5802404284477234</v>
+        <v>-1.05044412612915</v>
       </c>
       <c r="D68" t="n">
-        <v>0.09255827963352203</v>
+        <v>-0.2295209169387817</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1299693733453751</v>
+        <v>-1.719835758209229</v>
       </c>
       <c r="C69" t="n">
-        <v>0.555041491985321</v>
+        <v>-1.097846508026123</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06754183024168015</v>
+        <v>-0.1940270960330963</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1049886867403984</v>
+        <v>-1.58569860458374</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5422049164772034</v>
+        <v>-0.8996297717094421</v>
       </c>
       <c r="D70" t="n">
-        <v>0.08185273408889771</v>
+        <v>0.01667851209640503</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1268001645803452</v>
+        <v>-1.376224160194397</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5642424821853638</v>
+        <v>-0.7892255783081055</v>
       </c>
       <c r="D71" t="n">
-        <v>0.07728093862533569</v>
+        <v>-0.3375874757766724</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.08221402019262314</v>
+        <v>-1.375286102294922</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5396396517753601</v>
+        <v>-0.6956201195716858</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09871330112218857</v>
+        <v>-0.2284557521343231</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.03378797695040703</v>
+        <v>-1.37311315536499</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5011033415794373</v>
+        <v>-0.6943622827529907</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08926050364971161</v>
+        <v>-0.1393590271472931</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.03978055343031883</v>
+        <v>-1.347823619842529</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4910761713981628</v>
+        <v>-0.5480649471282959</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1076537370681763</v>
+        <v>-0.05476030707359314</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.05150756612420082</v>
+        <v>-1.476105928421021</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4565896987915039</v>
+        <v>-0.6513828039169312</v>
       </c>
       <c r="D75" t="n">
-        <v>0.09856268763542175</v>
+        <v>0.02080142498016357</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.03189678862690926</v>
+        <v>-1.387489318847656</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4986811280250549</v>
+        <v>-0.6547084450721741</v>
       </c>
       <c r="D76" t="n">
-        <v>0.09276614338159561</v>
+        <v>-0.04811236262321472</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07984812557697296</v>
+        <v>-1.333472967147827</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4901812672615051</v>
+        <v>-0.6517059206962585</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08047690242528915</v>
+        <v>0.07815814763307571</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.06234455481171608</v>
+        <v>-1.277040839195251</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4764378070831299</v>
+        <v>-0.6060230731964111</v>
       </c>
       <c r="D78" t="n">
-        <v>0.07564018666744232</v>
+        <v>0.168200209736824</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1116838529706001</v>
+        <v>-1.227856159210205</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5121091604232788</v>
+        <v>-0.61052405834198</v>
       </c>
       <c r="D79" t="n">
-        <v>0.08510427176952362</v>
+        <v>0.2361813336610794</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0572507344186306</v>
+        <v>-1.363929510116577</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4347564578056335</v>
+        <v>-0.7103564143180847</v>
       </c>
       <c r="D80" t="n">
-        <v>0.09808114916086197</v>
+        <v>0.1851843893527985</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.05646159872412682</v>
+        <v>-1.313995361328125</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4463072717189789</v>
+        <v>-0.6658293008804321</v>
       </c>
       <c r="D81" t="n">
-        <v>0.09650617092847824</v>
+        <v>0.2737372517585754</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.06644187867641449</v>
+        <v>-1.328182935714722</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5420068502426147</v>
+        <v>-0.8283241391181946</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1429644078016281</v>
+        <v>0.1636561304330826</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.06122611835598946</v>
+        <v>-1.3404620885849</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5392354130744934</v>
+        <v>-0.8275036215782166</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1397231966257095</v>
+        <v>0.3974795937538147</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.06724788248538971</v>
+        <v>-1.445537805557251</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5805558562278748</v>
+        <v>-1.035037994384766</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1330370604991913</v>
+        <v>0.3041306138038635</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.05244680866599083</v>
+        <v>-1.436893582344055</v>
       </c>
       <c r="C85" t="n">
-        <v>0.534529983997345</v>
+        <v>-1.120562076568604</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1163179725408554</v>
+        <v>0.3325573801994324</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.02620778419077396</v>
+        <v>-1.431704759597778</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4946667850017548</v>
+        <v>-0.9427469968795776</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1126191914081573</v>
+        <v>0.5106239914894104</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1002208590507507</v>
+        <v>-1.597465395927429</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5105831027030945</v>
+        <v>-1.20380437374115</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1042162850499153</v>
+        <v>0.6230183839797974</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1205233037471771</v>
+        <v>-1.63971745967865</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5146035552024841</v>
+        <v>-1.216979265213013</v>
       </c>
       <c r="D88" t="n">
-        <v>0.103126049041748</v>
+        <v>0.7542073726654053</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1653392165899277</v>
+        <v>-1.843948125839233</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5944284200668335</v>
+        <v>-1.529357194900513</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0884220153093338</v>
+        <v>0.4345221817493439</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.2033156156539917</v>
+        <v>-2.018909454345703</v>
       </c>
       <c r="C90" t="n">
-        <v>0.669654369354248</v>
+        <v>-1.622540235519409</v>
       </c>
       <c r="D90" t="n">
-        <v>0.07195886969566345</v>
+        <v>0.5092992186546326</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1609374433755875</v>
+        <v>-1.939263939857483</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6358786225318909</v>
+        <v>-1.451074123382568</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06256714463233948</v>
+        <v>0.7977911829948425</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1688544303178787</v>
+        <v>-1.776224136352539</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6389210820198059</v>
+        <v>-1.21200954914093</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07399569451808929</v>
+        <v>0.7754982709884644</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1520286500453949</v>
+        <v>-1.732449650764465</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6456658244132996</v>
+        <v>-1.042298316955566</v>
       </c>
       <c r="D93" t="n">
-        <v>0.08024908602237701</v>
+        <v>0.7466742396354675</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1570143699645996</v>
+        <v>-1.826306939125061</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6765287518501282</v>
+        <v>-1.007150888442993</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0989324152469635</v>
+        <v>0.9695585370063782</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1288807988166809</v>
+        <v>-1.610483169555664</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6328777670860291</v>
+        <v>-0.8547107577323914</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07016377151012421</v>
+        <v>1.082995176315308</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.155620813369751</v>
+        <v>-1.73596179485321</v>
       </c>
       <c r="C96" t="n">
-        <v>0.652135968208313</v>
+        <v>-0.8091827630996704</v>
       </c>
       <c r="D96" t="n">
-        <v>0.04372594878077507</v>
+        <v>1.071997165679932</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1588514596223831</v>
+        <v>-1.597000598907471</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6862495541572571</v>
+        <v>-0.8918139934539795</v>
       </c>
       <c r="D97" t="n">
-        <v>0.06248365715146065</v>
+        <v>0.8938900232315063</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1676015853881836</v>
+        <v>-1.604254603385925</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7104853987693787</v>
+        <v>-0.9048040509223938</v>
       </c>
       <c r="D98" t="n">
-        <v>0.04756026342511177</v>
+        <v>0.8188658356666565</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1514033079147339</v>
+        <v>-1.552283763885498</v>
       </c>
       <c r="C99" t="n">
-        <v>0.668486475944519</v>
+        <v>-1.012463808059692</v>
       </c>
       <c r="D99" t="n">
-        <v>0.08795163035392761</v>
+        <v>0.7096009850502014</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.12910196185112</v>
+        <v>-1.431122660636902</v>
       </c>
       <c r="C100" t="n">
-        <v>0.59352046251297</v>
+        <v>-0.7937509417533875</v>
       </c>
       <c r="D100" t="n">
-        <v>0.09874395281076431</v>
+        <v>0.8199222087860107</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1083762720227242</v>
+        <v>-1.300058364868164</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5688039064407349</v>
+        <v>-0.7203019857406616</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1347526609897614</v>
+        <v>0.7515310645103455</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08718252182006836</v>
+        <v>-1.319273471832275</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5005868077278137</v>
+        <v>-0.7656397223472595</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1081670373678207</v>
+        <v>0.7885459065437317</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1034365594387054</v>
+        <v>-1.330611109733582</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5448857545852661</v>
+        <v>-0.8538714647293091</v>
       </c>
       <c r="D103" t="n">
-        <v>0.10468490421772</v>
+        <v>0.7980807423591614</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1265280246734619</v>
+        <v>-1.370558857917786</v>
       </c>
       <c r="C104" t="n">
-        <v>0.602795422077179</v>
+        <v>-1.092462301254272</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1195718497037888</v>
+        <v>0.729485034942627</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1123254895210266</v>
+        <v>-1.347426414489746</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5668778419494629</v>
+        <v>-1.174055695533752</v>
       </c>
       <c r="D105" t="n">
-        <v>0.09005482494831085</v>
+        <v>0.602450966835022</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1265570819377899</v>
+        <v>-1.729530930519104</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5986683368682861</v>
+        <v>-1.247271537780762</v>
       </c>
       <c r="D106" t="n">
-        <v>0.133542537689209</v>
+        <v>0.934701681137085</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1525677740573883</v>
+        <v>-1.623642563819885</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6297169327735901</v>
+        <v>-1.404534816741943</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1176377162337303</v>
+        <v>0.7359241843223572</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1242387667298317</v>
+        <v>-1.700182795524597</v>
       </c>
       <c r="C108" t="n">
-        <v>0.583742082118988</v>
+        <v>-1.46707010269165</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1183123514056206</v>
+        <v>0.829355776309967</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1711646765470505</v>
+        <v>-1.844963312149048</v>
       </c>
       <c r="C109" t="n">
-        <v>0.593653678894043</v>
+        <v>-1.435762763023376</v>
       </c>
       <c r="D109" t="n">
-        <v>0.09369513392448425</v>
+        <v>0.910373330116272</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1530603617429733</v>
+        <v>-2.470879077911377</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5496765971183777</v>
+        <v>-1.75219988822937</v>
       </c>
       <c r="D110" t="n">
-        <v>0.09671897441148758</v>
+        <v>0.939978301525116</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1474034637212753</v>
+        <v>-2.159831523895264</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6159926056861877</v>
+        <v>-1.764843583106995</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1225894168019295</v>
+        <v>0.7609742283821106</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1142521649599075</v>
+        <v>-2.375492334365845</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5733761191368103</v>
+        <v>-1.84412145614624</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1351951062679291</v>
+        <v>0.7680925130844116</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1432759314775467</v>
+        <v>-2.233479261398315</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5648021101951599</v>
+        <v>-1.649610996246338</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1390805691480637</v>
+        <v>0.6927457451820374</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1401639878749847</v>
+        <v>-1.836123466491699</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5984911322593689</v>
+        <v>-1.338277697563171</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1609580665826797</v>
+        <v>0.5824590921401978</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1931796818971634</v>
+        <v>-1.666820526123047</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6119192838668823</v>
+        <v>-1.284401178359985</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1283903270959854</v>
+        <v>0.4037387073040009</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1831069588661194</v>
+        <v>-1.886984825134277</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6334938406944275</v>
+        <v>-1.373319983482361</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1609944701194763</v>
+        <v>0.5425914525985718</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1590703874826431</v>
+        <v>-1.723540306091309</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6553927659988403</v>
+        <v>-1.338165283203125</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1589641720056534</v>
+        <v>0.4338453710079193</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1117552444338799</v>
+        <v>-2.015972137451172</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5996810793876648</v>
+        <v>-1.453327536582947</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1556254923343658</v>
+        <v>0.4879882335662842</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.2009363621473312</v>
+        <v>-2.503756999969482</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6631926894187927</v>
+        <v>-1.718257427215576</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1178366243839264</v>
+        <v>0.6111102104187012</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.2269394546747208</v>
+        <v>-2.172211885452271</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6260700821876526</v>
+        <v>-1.399271488189697</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0797860249876976</v>
+        <v>0.5510779023170471</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.2184837311506271</v>
+        <v>-1.553915023803711</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6314689517021179</v>
+        <v>-1.027261018753052</v>
       </c>
       <c r="D121" t="n">
-        <v>0.09552805870771408</v>
+        <v>0.4591886401176453</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1829248070716858</v>
+        <v>-1.487052202224731</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5952052474021912</v>
+        <v>-0.7997738122940063</v>
       </c>
       <c r="D122" t="n">
-        <v>0.07226554304361343</v>
+        <v>0.5449743270874023</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.2284535020589828</v>
+        <v>-1.644990921020508</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6163071393966675</v>
+        <v>-1.130993962287903</v>
       </c>
       <c r="D123" t="n">
-        <v>0.07035940885543823</v>
+        <v>0.4718516767024994</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.2719376981258392</v>
+        <v>-1.428743124008179</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6367093920707703</v>
+        <v>-0.9936410188674927</v>
       </c>
       <c r="D124" t="n">
-        <v>0.06737209856510162</v>
+        <v>0.3476195931434631</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.2375485450029373</v>
+        <v>-1.540201187133789</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6381860375404358</v>
+        <v>-1.016609191894531</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0998484343290329</v>
+        <v>0.4279383420944214</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.2359797209501266</v>
+        <v>-1.947661519050598</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6200037598609924</v>
+        <v>-1.383459329605103</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1234688758850098</v>
+        <v>0.5212138891220093</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.2663812935352325</v>
+        <v>-1.502794504165649</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6631889343261719</v>
+        <v>-1.152123808860779</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1030258536338806</v>
+        <v>0.4041461050510406</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.2564382553100586</v>
+        <v>-1.458099246025085</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6521934866905212</v>
+        <v>-1.131543397903442</v>
       </c>
       <c r="D128" t="n">
-        <v>0.08987022936344147</v>
+        <v>0.3557567298412323</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.2572209239006042</v>
+        <v>-1.757317662239075</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6515971422195435</v>
+        <v>-1.261181354522705</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1106499284505844</v>
+        <v>0.4337450265884399</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.2514336109161377</v>
+        <v>-1.409557461738586</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6622933745384216</v>
+        <v>-1.055378198623657</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1285079121589661</v>
+        <v>0.3564872741699219</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1625394374132156</v>
+        <v>-1.338950634002686</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5911110043525696</v>
+        <v>-0.7920441031455994</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1521977484226227</v>
+        <v>0.5064354538917542</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.137099027633667</v>
+        <v>-1.269456386566162</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5660038590431213</v>
+        <v>-0.7038522362709045</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1400434970855713</v>
+        <v>0.46292644739151</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1128561124205589</v>
+        <v>-1.237242937088013</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5394423604011536</v>
+        <v>-0.8214184045791626</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1571319699287415</v>
+        <v>0.3962311744689941</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.150005504488945</v>
+        <v>-1.397011518478394</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6193214654922485</v>
+        <v>-0.9644061923027039</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1407984048128128</v>
+        <v>0.4063417017459869</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1666396409273148</v>
+        <v>-1.533581495285034</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6378021240234375</v>
+        <v>-1.087013363838196</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1082484573125839</v>
+        <v>0.4538065791130066</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.09319394826889038</v>
+        <v>-1.395014762878418</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6168144345283508</v>
+        <v>-1.01423180103302</v>
       </c>
       <c r="D136" t="n">
-        <v>0.104141540825367</v>
+        <v>0.4219427406787872</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.06278375536203384</v>
+        <v>-1.288747072219849</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6101428866386414</v>
+        <v>-0.8848524689674377</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1077558249235153</v>
+        <v>0.4173310399055481</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.05299795791506767</v>
+        <v>-1.506994605064392</v>
       </c>
       <c r="C138" t="n">
-        <v>0.5839910507202148</v>
+        <v>-1.110436916351318</v>
       </c>
       <c r="D138" t="n">
-        <v>0.07363232225179672</v>
+        <v>0.4055027365684509</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.05132200196385384</v>
+        <v>-1.748173475265503</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5849767923355103</v>
+        <v>-1.327810883522034</v>
       </c>
       <c r="D139" t="n">
-        <v>0.04698626697063446</v>
+        <v>0.4600208699703217</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.06636769324541092</v>
+        <v>-1.691988945007324</v>
       </c>
       <c r="C140" t="n">
-        <v>0.6041992902755737</v>
+        <v>-1.362785339355469</v>
       </c>
       <c r="D140" t="n">
-        <v>0.05088923498988152</v>
+        <v>0.355859637260437</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.04900248721241951</v>
+        <v>-1.246878504753113</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5886847376823425</v>
+        <v>-1.001015663146973</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0346149355173111</v>
+        <v>0.3042941391468048</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.03106469847261906</v>
+        <v>-1.225738763809204</v>
       </c>
       <c r="C142" t="n">
-        <v>0.581712543964386</v>
+        <v>-0.9935999512672424</v>
       </c>
       <c r="D142" t="n">
-        <v>0.04176821187138557</v>
+        <v>0.4139758348464966</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.06849941611289978</v>
+        <v>-1.40777575969696</v>
       </c>
       <c r="C143" t="n">
-        <v>0.5881308913230896</v>
+        <v>-1.094986319541931</v>
       </c>
       <c r="D143" t="n">
-        <v>0.01488517969846725</v>
+        <v>0.3225806951522827</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.01814205385744572</v>
+        <v>-1.720700740814209</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5655410289764404</v>
+        <v>-1.316800832748413</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.03133399412035942</v>
+        <v>0.219706192612648</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.04641259834170341</v>
+        <v>-1.882894515991211</v>
       </c>
       <c r="C145" t="n">
-        <v>0.5963523983955383</v>
+        <v>-1.447118997573853</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.02950914390385151</v>
+        <v>0.3531765341758728</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.06295817345380783</v>
+        <v>-1.713708162307739</v>
       </c>
       <c r="C146" t="n">
-        <v>0.5975205898284912</v>
+        <v>-1.341742396354675</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.02320485189557076</v>
+        <v>0.1710488200187683</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.03336704894900322</v>
+        <v>-1.504592895507812</v>
       </c>
       <c r="C147" t="n">
-        <v>0.6065860390663147</v>
+        <v>-1.204837560653687</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.02519233711063862</v>
+        <v>0.2106975466012955</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.003383110044524074</v>
+        <v>-1.485498309135437</v>
       </c>
       <c r="C148" t="n">
-        <v>0.5551398396492004</v>
+        <v>-1.147118091583252</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.03255670517683029</v>
+        <v>0.3419618010520935</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.008922222070395947</v>
+        <v>-1.591675400733948</v>
       </c>
       <c r="C149" t="n">
-        <v>0.5487911701202393</v>
+        <v>-1.046559691429138</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.003944666124880314</v>
+        <v>0.5688207149505615</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.01664121635258198</v>
+        <v>-1.43894624710083</v>
       </c>
       <c r="C150" t="n">
-        <v>0.5649783611297607</v>
+        <v>-1.004157066345215</v>
       </c>
       <c r="D150" t="n">
-        <v>0.008470633998513222</v>
+        <v>0.4699068963527679</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.01322593819350004</v>
+        <v>-1.409287691116333</v>
       </c>
       <c r="C151" t="n">
-        <v>0.5752267241477966</v>
+        <v>-1.089971303939819</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0006552108097821474</v>
+        <v>0.3451116681098938</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.03037680126726627</v>
+        <v>-1.482526779174805</v>
       </c>
       <c r="C152" t="n">
-        <v>0.6117110848426819</v>
+        <v>-1.159982562065125</v>
       </c>
       <c r="D152" t="n">
-        <v>0.00940037053078413</v>
+        <v>0.2896057367324829</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0560494177043438</v>
+        <v>-1.509467244148254</v>
       </c>
       <c r="C153" t="n">
-        <v>0.6172301173210144</v>
+        <v>-1.203950524330139</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.007885654456913471</v>
+        <v>0.1516586989164352</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.02110446430742741</v>
+        <v>-1.754591941833496</v>
       </c>
       <c r="C154" t="n">
-        <v>0.6658833622932434</v>
+        <v>-1.446154594421387</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.03016139380633831</v>
+        <v>-0.06714117527008057</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.02099105156958103</v>
+        <v>-1.827284336090088</v>
       </c>
       <c r="C155" t="n">
-        <v>0.651875376701355</v>
+        <v>-1.453209638595581</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.02626246400177479</v>
+        <v>0.1578093320131302</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.04528023675084114</v>
+        <v>-1.771188259124756</v>
       </c>
       <c r="C156" t="n">
-        <v>0.6916586756706238</v>
+        <v>-1.42679762840271</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.04260081425309181</v>
+        <v>0.2379150688648224</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.03671414777636528</v>
+        <v>-1.648959279060364</v>
       </c>
       <c r="C157" t="n">
-        <v>0.6999605298042297</v>
+        <v>-1.364431142807007</v>
       </c>
       <c r="D157" t="n">
-        <v>0.01140297669917345</v>
+        <v>0.231686532497406</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.08628305047750473</v>
+        <v>-1.725311398506165</v>
       </c>
       <c r="C158" t="n">
-        <v>0.7485222220420837</v>
+        <v>-1.377857446670532</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.006642239168286324</v>
+        <v>0.2572555541992188</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1042744889855385</v>
+        <v>-1.79432737827301</v>
       </c>
       <c r="C159" t="n">
-        <v>0.7054983973503113</v>
+        <v>-1.311651349067688</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.03835969045758247</v>
+        <v>0.3870500326156616</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.09696241468191147</v>
+        <v>-1.954985499382019</v>
       </c>
       <c r="C160" t="n">
-        <v>0.6926741003990173</v>
+        <v>-1.342097043991089</v>
       </c>
       <c r="D160" t="n">
-        <v>0.005444866605103016</v>
+        <v>0.4916184544563293</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.08728303760290146</v>
+        <v>-1.753961682319641</v>
       </c>
       <c r="C161" t="n">
-        <v>0.6932687163352966</v>
+        <v>-1.250093579292297</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.01696390844881535</v>
+        <v>0.3850350081920624</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.09652476757764816</v>
+        <v>-1.705374956130981</v>
       </c>
       <c r="C162" t="n">
-        <v>0.6627231240272522</v>
+        <v>-1.121480226516724</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.04567098617553711</v>
+        <v>0.4955484569072723</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1148508787155151</v>
+        <v>-2.506045818328857</v>
       </c>
       <c r="C163" t="n">
-        <v>0.6852951645851135</v>
+        <v>-1.563953518867493</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.05103839188814163</v>
+        <v>0.6952766180038452</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.05673716589808464</v>
+        <v>-1.98591935634613</v>
       </c>
       <c r="C164" t="n">
-        <v>0.6596323251724243</v>
+        <v>-1.086942434310913</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.04728585481643677</v>
+        <v>0.7085942029953003</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.02922460623085499</v>
+        <v>-2.238340616226196</v>
       </c>
       <c r="C165" t="n">
-        <v>0.6359354853630066</v>
+        <v>-1.157940149307251</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.03140504285693169</v>
+        <v>0.8702781796455383</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.03598996624350548</v>
+        <v>-2.349413156509399</v>
       </c>
       <c r="C166" t="n">
-        <v>0.647524356842041</v>
+        <v>-1.15725314617157</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.01932359673082829</v>
+        <v>0.8673892617225647</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.03493661805987358</v>
+        <v>-2.134946346282959</v>
       </c>
       <c r="C167" t="n">
-        <v>0.6081485152244568</v>
+        <v>-1.008978128433228</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.06156497076153755</v>
+        <v>0.9056271314620972</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.04968877509236336</v>
+        <v>-1.892903804779053</v>
       </c>
       <c r="C168" t="n">
-        <v>0.5987285375595093</v>
+        <v>-0.9166756272315979</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.08830215036869049</v>
+        <v>0.8415278792381287</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.05597880482673645</v>
+        <v>-1.780514478683472</v>
       </c>
       <c r="C169" t="n">
-        <v>0.6536270976066589</v>
+        <v>-0.7756704688072205</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.08126132190227509</v>
+        <v>0.8506540656089783</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.06203312426805496</v>
+        <v>-1.701844215393066</v>
       </c>
       <c r="C170" t="n">
-        <v>0.666054904460907</v>
+        <v>-0.7928436994552612</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.07167445123195648</v>
+        <v>0.79002445936203</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.07661931961774826</v>
+        <v>-1.975227832794189</v>
       </c>
       <c r="C171" t="n">
-        <v>0.6681862473487854</v>
+        <v>-0.8697928786277771</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.09537875652313232</v>
+        <v>0.9071915149688721</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.08431228250265121</v>
+        <v>-2.112973213195801</v>
       </c>
       <c r="C172" t="n">
-        <v>0.6755741238594055</v>
+        <v>-0.9173784255981445</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.0947585254907608</v>
+        <v>1.025234222412109</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.1294940412044525</v>
+        <v>-2.300522089004517</v>
       </c>
       <c r="C173" t="n">
-        <v>0.7042956352233887</v>
+        <v>-0.962424099445343</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.06258716434240341</v>
+        <v>1.088114738464355</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.1014658957719803</v>
+        <v>-1.968802452087402</v>
       </c>
       <c r="C174" t="n">
-        <v>0.7201919555664062</v>
+        <v>-0.7973235249519348</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.0533510223031044</v>
+        <v>0.9727373719215393</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.1429364681243896</v>
+        <v>-1.720272541046143</v>
       </c>
       <c r="C175" t="n">
-        <v>0.7225959300994873</v>
+        <v>-0.6465913057327271</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.01939208991825581</v>
+        <v>0.9360908269882202</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.1642298549413681</v>
+        <v>-1.530956506729126</v>
       </c>
       <c r="C176" t="n">
-        <v>0.6486861705780029</v>
+        <v>-0.5757502913475037</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.01724083162844181</v>
+        <v>0.8747511506080627</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1781447678804398</v>
+        <v>-1.79382586479187</v>
       </c>
       <c r="C177" t="n">
-        <v>0.707474946975708</v>
+        <v>-0.6813547611236572</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.06897330284118652</v>
+        <v>0.9245224595069885</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1614345163106918</v>
+        <v>-1.846692562103271</v>
       </c>
       <c r="C178" t="n">
-        <v>0.7300853729248047</v>
+        <v>-0.6961158514022827</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.07761580497026443</v>
+        <v>0.9709087014198303</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.1652689874172211</v>
+        <v>-1.962485551834106</v>
       </c>
       <c r="C179" t="n">
-        <v>0.7198864221572876</v>
+        <v>-0.8813269138336182</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.08686033636331558</v>
+        <v>0.9118728637695312</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.1473428905010223</v>
+        <v>-1.487815499305725</v>
       </c>
       <c r="C180" t="n">
-        <v>0.7079516649246216</v>
+        <v>-0.7454926371574402</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.07016009092330933</v>
+        <v>0.7031257748603821</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.1333827376365662</v>
+        <v>-1.52735447883606</v>
       </c>
       <c r="C181" t="n">
-        <v>0.6990787386894226</v>
+        <v>-0.8124423623085022</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.09159389138221741</v>
+        <v>0.6493352651596069</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.1103739067912102</v>
+        <v>-1.593583345413208</v>
       </c>
       <c r="C182" t="n">
-        <v>0.6678022146224976</v>
+        <v>-0.8503273129463196</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.09693632274866104</v>
+        <v>0.6689561009407043</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.1117189005017281</v>
+        <v>-1.720588684082031</v>
       </c>
       <c r="C183" t="n">
-        <v>0.6048205494880676</v>
+        <v>-0.9595851302146912</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.1126922145485878</v>
+        <v>0.6490554809570312</v>
       </c>
     </row>
   </sheetData>

--- a/documents/latent_vector/reinforce_enc.xlsx
+++ b/documents/latent_vector/reinforce_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.841636657714844</v>
+        <v>-1.066220164299011</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.357606172561646</v>
+        <v>-0.04493266344070435</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4029742181301117</v>
+        <v>-7.39726734161377</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.882120132446289</v>
+        <v>-1.207500100135803</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.449530601501465</v>
+        <v>0.004738748073577881</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2390711456537247</v>
+        <v>-7.520407676696777</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.677876949310303</v>
+        <v>-1.510015487670898</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.579928636550903</v>
+        <v>0.1634020805358887</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4293458461761475</v>
+        <v>-7.64537525177002</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.591626644134521</v>
+        <v>-1.121602177619934</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.493304491043091</v>
+        <v>0.006651163101196289</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01665011048316956</v>
+        <v>-7.154381275177002</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.077898025512695</v>
+        <v>-1.400550127029419</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.599954605102539</v>
+        <v>0.08891189098358154</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1192417144775391</v>
+        <v>-9.080429077148438</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.111838817596436</v>
+        <v>-1.452911257743835</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.415985107421875</v>
+        <v>0.08313488960266113</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2837766110897064</v>
+        <v>-8.841943740844727</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.027852058410645</v>
+        <v>-1.091893076896667</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.638061285018921</v>
+        <v>0.05904996395111084</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3256025910377502</v>
+        <v>-7.142030239105225</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.439830303192139</v>
+        <v>-0.9583192467689514</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.133772373199463</v>
+        <v>0.01776576042175293</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2702485322952271</v>
+        <v>-6.118767261505127</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.429980278015137</v>
+        <v>-1.062755107879639</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.032038688659668</v>
+        <v>-0.01052820682525635</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4841681122779846</v>
+        <v>-6.090205192565918</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.051456212997437</v>
+        <v>-1.379385709762573</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.809048295021057</v>
+        <v>0.1454487442970276</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1668984591960907</v>
+        <v>-6.187656402587891</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.865993976593018</v>
+        <v>-1.496587514877319</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.641577839851379</v>
+        <v>0.2835164070129395</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002710908651351929</v>
+        <v>-5.767031669616699</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.172571420669556</v>
+        <v>-1.668693780899048</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.886247873306274</v>
+        <v>0.2506384253501892</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1574314534664154</v>
+        <v>-6.595132350921631</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.711297273635864</v>
+        <v>-1.820372104644775</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.367310285568237</v>
+        <v>0.2829148173332214</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.206502377986908</v>
+        <v>-7.727355003356934</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.2865891456604</v>
+        <v>-1.779358386993408</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.901257157325745</v>
+        <v>0.4535840749740601</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3250469565391541</v>
+        <v>-6.544053077697754</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.263799428939819</v>
+        <v>-1.773017883300781</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.928708910942078</v>
+        <v>0.4119610488414764</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.6415027976036072</v>
+        <v>-6.363310813903809</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.986987590789795</v>
+        <v>-1.738380908966064</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.72814416885376</v>
+        <v>0.5436518788337708</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7190135717391968</v>
+        <v>-5.727519512176514</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.908243298530579</v>
+        <v>-1.622004389762878</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.543167233467102</v>
+        <v>0.5166118144989014</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.8228845596313477</v>
+        <v>-5.462379932403564</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.023823022842407</v>
+        <v>-1.692332148551941</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.782556176185608</v>
+        <v>0.4540770053863525</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.9355229139328003</v>
+        <v>-5.848442077636719</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.012243747711182</v>
+        <v>-1.57361114025116</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.688738465309143</v>
+        <v>0.3579874932765961</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.8120579719543457</v>
+        <v>-5.660910606384277</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.496457576751709</v>
+        <v>-1.690302014350891</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.310515642166138</v>
+        <v>0.3339091539382935</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.310253620147705</v>
+        <v>-6.730773448944092</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.899504423141479</v>
+        <v>-1.456167697906494</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.593330144882202</v>
+        <v>0.2510164082050323</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.9263045787811279</v>
+        <v>-5.591240882873535</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.863364815711975</v>
+        <v>-1.541379690170288</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.527712345123291</v>
+        <v>0.368443638086319</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.071212768554688</v>
+        <v>-5.455275058746338</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-2.124382257461548</v>
+        <v>-1.658330678939819</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.84848427772522</v>
+        <v>0.2993103861808777</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.001757860183716</v>
+        <v>-6.005237579345703</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.885461807250977</v>
+        <v>-1.284009218215942</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.515344977378845</v>
+        <v>0.1925228238105774</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.7716841697692871</v>
+        <v>-5.371276378631592</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.566587686538696</v>
+        <v>-1.290805578231812</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.105539560317993</v>
+        <v>0.07034933567047119</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.4810929894447327</v>
+        <v>-6.392274856567383</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-2.00735068321228</v>
+        <v>-0.8509848713874817</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.562525629997253</v>
+        <v>0.06609141826629639</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.2385044693946838</v>
+        <v>-4.658631324768066</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.099219560623169</v>
+        <v>-0.685231626033783</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.68213152885437</v>
+        <v>-0.03317904472351074</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1704059541225433</v>
+        <v>-4.634814262390137</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-2.598147392272949</v>
+        <v>-0.6283860802650452</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.093233585357666</v>
+        <v>-0.1639174222946167</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.177117794752121</v>
+        <v>-5.37955904006958</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-2.636469841003418</v>
+        <v>-0.5665152072906494</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.056294679641724</v>
+        <v>-0.1578506231307983</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.3303430676460266</v>
+        <v>-5.274194240570068</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-2.923778295516968</v>
+        <v>-0.8214538097381592</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.407546043395996</v>
+        <v>-0.04854917526245117</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.7154148817062378</v>
+        <v>-5.627740859985352</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-2.664854049682617</v>
+        <v>-1.175700426101685</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.361081123352051</v>
+        <v>0.009111523628234863</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.9837721586227417</v>
+        <v>-6.245818138122559</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-3.903290271759033</v>
+        <v>-1.197377681732178</v>
       </c>
       <c r="C33" t="n">
-        <v>-3.333928346633911</v>
+        <v>0.03059035539627075</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.95582115650177</v>
+        <v>-7.875950813293457</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-4.190567493438721</v>
+        <v>-1.083431839942932</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.505949974060059</v>
+        <v>-0.01162928342819214</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.6643004417419434</v>
+        <v>-8.310080528259277</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-4.154242992401123</v>
+        <v>-0.9765235781669617</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.25156569480896</v>
+        <v>-0.04325288534164429</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1932149529457092</v>
+        <v>-8.194770812988281</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-3.452364444732666</v>
+        <v>-0.9941088557243347</v>
       </c>
       <c r="C36" t="n">
-        <v>-2.739224195480347</v>
+        <v>-0.003835678100585938</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1537126302719116</v>
+        <v>-7.070381164550781</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-3.019836187362671</v>
+        <v>-0.8162441849708557</v>
       </c>
       <c r="C37" t="n">
-        <v>-2.383097171783447</v>
+        <v>0.002761900424957275</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1433855295181274</v>
+        <v>-6.406551361083984</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.932764291763306</v>
+        <v>-0.712378203868866</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.513401627540588</v>
+        <v>-0.01805132627487183</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.08219903707504272</v>
+        <v>-4.866835594177246</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-2.004348278045654</v>
+        <v>-0.7854411602020264</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.532937526702881</v>
+        <v>-0.02078622579574585</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.05542357265949249</v>
+        <v>-4.855393409729004</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.709601759910583</v>
+        <v>-0.7559377551078796</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.301348805427551</v>
+        <v>-0.04083865880966187</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.03582422435283661</v>
+        <v>-4.554015159606934</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.608680248260498</v>
+        <v>-0.6938632130622864</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.169122457504272</v>
+        <v>-0.1034564971923828</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2369824349880219</v>
+        <v>-4.243616104125977</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.555871486663818</v>
+        <v>-0.7670121788978577</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.005481481552124</v>
+        <v>-0.04639279842376709</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1417345404624939</v>
+        <v>-3.97303318977356</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.850979208946228</v>
+        <v>-0.8853598237037659</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.174148678779602</v>
+        <v>-0.1122599244117737</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2848454117774963</v>
+        <v>-4.344600200653076</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-2.379486083984375</v>
+        <v>-0.8929267525672913</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.447522282600403</v>
+        <v>-0.123956173658371</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5104289650917053</v>
+        <v>-4.888566970825195</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.433434247970581</v>
+        <v>-0.6362105011940002</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.8350679874420166</v>
+        <v>-0.1537533700466156</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3139530420303345</v>
+        <v>-3.814924001693726</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-2.094286441802979</v>
+        <v>-0.9452153444290161</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.298949837684631</v>
+        <v>-0.1449852883815765</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4371559619903564</v>
+        <v>-4.835330009460449</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.39033317565918</v>
+        <v>-0.4858112037181854</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.7201643586158752</v>
+        <v>-0.2361989915370941</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4405964612960815</v>
+        <v>-3.651033163070679</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.519749402999878</v>
+        <v>-0.3959134519100189</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8419498205184937</v>
+        <v>-0.3212334811687469</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3752448856830597</v>
+        <v>-4.19306755065918</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.842502355575562</v>
+        <v>-0.3356002271175385</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.026260614395142</v>
+        <v>-0.3477835953235626</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5506225824356079</v>
+        <v>-4.28685474395752</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.844915628433228</v>
+        <v>-0.3689675033092499</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.9644599556922913</v>
+        <v>-0.3708480000495911</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5846210122108459</v>
+        <v>-4.286716938018799</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.876991271972656</v>
+        <v>-0.3998014032840729</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.9261928796768188</v>
+        <v>-0.3958165645599365</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5781787633895874</v>
+        <v>-4.41019868850708</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.375908374786377</v>
+        <v>-0.2187868654727936</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.6192877888679504</v>
+        <v>-0.3462963402271271</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3734336197376251</v>
+        <v>-3.702619791030884</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.237278938293457</v>
+        <v>-0.02377375587821007</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.5454774498939514</v>
+        <v>-0.3437178432941437</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4321061074733734</v>
+        <v>-3.069003820419312</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.299891233444214</v>
+        <v>0.0208146907389164</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.6323011517524719</v>
+        <v>-0.3882400393486023</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3921651244163513</v>
+        <v>-3.241966485977173</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.40808629989624</v>
+        <v>-0.1591819226741791</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.6442805528640747</v>
+        <v>-0.3494774401187897</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3655620217323303</v>
+        <v>-3.539798498153687</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-1.43508243560791</v>
+        <v>-0.0001192353665828705</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.6855316758155823</v>
+        <v>-0.3051191568374634</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3656144738197327</v>
+        <v>-3.234554052352905</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.432917833328247</v>
+        <v>0.1049524247646332</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.6695462465286255</v>
+        <v>-0.2003051340579987</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4082541465759277</v>
+        <v>-2.741199254989624</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.450927734375</v>
+        <v>-0.05187269672751427</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.7361224889755249</v>
+        <v>-0.02763557434082031</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4952604174613953</v>
+        <v>-2.317185401916504</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.400353908538818</v>
+        <v>-0.1280516684055328</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.6939806342124939</v>
+        <v>0.06914478540420532</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5101866722106934</v>
+        <v>-2.058316230773926</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.448775172233582</v>
+        <v>-0.04805215820670128</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.7120749354362488</v>
+        <v>-0.07843077182769775</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5139197111129761</v>
+        <v>-2.536237478256226</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.329439640045166</v>
+        <v>-0.1018716990947723</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.5872820615768433</v>
+        <v>0.0007394552230834961</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3975301384925842</v>
+        <v>-2.145729780197144</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.47840690612793</v>
+        <v>-0.1029886305332184</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.7228499054908752</v>
+        <v>-0.1699199080467224</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2165471464395523</v>
+        <v>-3.082809209823608</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.613430976867676</v>
+        <v>-0.304670661687851</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.8083111047744751</v>
+        <v>-0.2159382104873657</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1604468673467636</v>
+        <v>-4.07319450378418</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.68979811668396</v>
+        <v>-0.2354694306850433</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.001464128494263</v>
+        <v>-0.2736546993255615</v>
       </c>
       <c r="D64" t="n">
-        <v>0.008054569363594055</v>
+        <v>-4.480154991149902</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.721002221107483</v>
+        <v>-0.2525136172771454</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.093727588653564</v>
+        <v>-0.1844179630279541</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.2563496530056</v>
+        <v>-4.400774002075195</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.731892228126526</v>
+        <v>-0.3266397416591644</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.9472346901893616</v>
+        <v>-0.1327230334281921</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.192283421754837</v>
+        <v>-4.088031768798828</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.736348748207092</v>
+        <v>-0.4878922402858734</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.044299721717834</v>
+        <v>-0.05974674224853516</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2595884799957275</v>
+        <v>-4.243000507354736</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.751931428909302</v>
+        <v>-0.5360866189002991</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.05044412612915</v>
+        <v>-0.08148038387298584</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.2295209169387817</v>
+        <v>-4.302571773529053</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.719835758209229</v>
+        <v>-0.2969094216823578</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.097846508026123</v>
+        <v>-0.1314074993133545</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.1940270960330963</v>
+        <v>-4.211086750030518</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.58569860458374</v>
+        <v>-0.0969451367855072</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.8996297717094421</v>
+        <v>-0.1741127371788025</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01667851209640503</v>
+        <v>-3.370184183120728</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.376224160194397</v>
+        <v>-0.2131464183330536</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.7892255783081055</v>
+        <v>-0.09586235880851746</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.3375874757766724</v>
+        <v>-2.908528566360474</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.375286102294922</v>
+        <v>-0.07178530097007751</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.6956201195716858</v>
+        <v>-0.1814564168453217</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.2284557521343231</v>
+        <v>-2.743945360183716</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.37311315536499</v>
+        <v>-0.1598718464374542</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.6943622827529907</v>
+        <v>-0.221292108297348</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.1393590271472931</v>
+        <v>-2.911188125610352</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.347823619842529</v>
+        <v>-0.0328763984143734</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.5480649471282959</v>
+        <v>-0.2937634587287903</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.05476030707359314</v>
+        <v>-2.727285146713257</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.476105928421021</v>
+        <v>-0.1943484842777252</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.6513828039169312</v>
+        <v>-0.3093703985214233</v>
       </c>
       <c r="D75" t="n">
-        <v>0.02080142498016357</v>
+        <v>-3.200891494750977</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.387489318847656</v>
+        <v>-0.1045136153697968</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.6547084450721741</v>
+        <v>-0.2878976166248322</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.04811236262321472</v>
+        <v>-3.097465753555298</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.333472967147827</v>
+        <v>-0.1158118546009064</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.6517059206962585</v>
+        <v>-0.1885506808757782</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07815814763307571</v>
+        <v>-2.799217700958252</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.277040839195251</v>
+        <v>-0.1325758099555969</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.6060230731964111</v>
+        <v>-0.154104083776474</v>
       </c>
       <c r="D78" t="n">
-        <v>0.168200209736824</v>
+        <v>-2.668566226959229</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.227856159210205</v>
+        <v>-0.2744213044643402</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.61052405834198</v>
+        <v>-0.05216073989868164</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2361813336610794</v>
+        <v>-2.551774263381958</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.363929510116577</v>
+        <v>-0.07264545559883118</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.7103564143180847</v>
+        <v>-0.1507053971290588</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1851843893527985</v>
+        <v>-2.875066518783569</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.313995361328125</v>
+        <v>0.02845904603600502</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.6658293008804321</v>
+        <v>-0.162602037191391</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2737372517585754</v>
+        <v>-2.62274694442749</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.328182935714722</v>
+        <v>-0.08716633915901184</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.8283241391181946</v>
+        <v>-0.1191720366477966</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1636561304330826</v>
+        <v>-2.928368091583252</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.3404620885849</v>
+        <v>0.03610018268227577</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.8275036215782166</v>
+        <v>-0.1450855731964111</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3974795937538147</v>
+        <v>-2.883341073989868</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.445537805557251</v>
+        <v>-0.02829959616065025</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.035037994384766</v>
+        <v>-0.1329326629638672</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3041306138038635</v>
+        <v>-3.295815706253052</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.436893582344055</v>
+        <v>-0.03930464014410973</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.120562076568604</v>
+        <v>-0.1283968091011047</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3325573801994324</v>
+        <v>-3.480668783187866</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.431704759597778</v>
+        <v>-0.01965221390128136</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.9427469968795776</v>
+        <v>-0.09031015634536743</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5106239914894104</v>
+        <v>-3.363198518753052</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.597465395927429</v>
+        <v>-0.1195596158504486</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.20380437374115</v>
+        <v>-0.120238721370697</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6230183839797974</v>
+        <v>-4.173337459564209</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.63971745967865</v>
+        <v>-0.08991149067878723</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.216979265213013</v>
+        <v>-0.1432810425758362</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7542073726654053</v>
+        <v>-4.334353446960449</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.843948125839233</v>
+        <v>-0.2770393192768097</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.529357194900513</v>
+        <v>-0.1283074021339417</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4345221817493439</v>
+        <v>-4.968810081481934</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-2.018909454345703</v>
+        <v>-0.2725472152233124</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.622540235519409</v>
+        <v>-0.07190799713134766</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5092992186546326</v>
+        <v>-5.382652282714844</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.939263939857483</v>
+        <v>-0.1506688296794891</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.451074123382568</v>
+        <v>-0.1276090145111084</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7977911829948425</v>
+        <v>-4.629441738128662</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.776224136352539</v>
+        <v>-0.2851446568965912</v>
       </c>
       <c r="C92" t="n">
-        <v>-1.21200954914093</v>
+        <v>-0.03325659036636353</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7754982709884644</v>
+        <v>-4.407718658447266</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.732449650764465</v>
+        <v>-0.2856854498386383</v>
       </c>
       <c r="C93" t="n">
-        <v>-1.042298316955566</v>
+        <v>-0.03554326295852661</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7466742396354675</v>
+        <v>-3.884584665298462</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.826306939125061</v>
+        <v>-0.16751828789711</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.007150888442993</v>
+        <v>-0.08651548624038696</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9695585370063782</v>
+        <v>-3.790468692779541</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.610483169555664</v>
+        <v>-0.07286450266838074</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.8547107577323914</v>
+        <v>-0.0996820330619812</v>
       </c>
       <c r="D95" t="n">
-        <v>1.082995176315308</v>
+        <v>-3.499473810195923</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.73596179485321</v>
+        <v>-0.09272715449333191</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.8091827630996704</v>
+        <v>-0.07709324359893799</v>
       </c>
       <c r="D96" t="n">
-        <v>1.071997165679932</v>
+        <v>-3.444061279296875</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-1.597000598907471</v>
+        <v>-0.005188073962926865</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.8918139934539795</v>
+        <v>-0.1924190521240234</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8938900232315063</v>
+        <v>-3.557305097579956</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.604254603385925</v>
+        <v>-0.1841534078121185</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.9048040509223938</v>
+        <v>-0.14452064037323</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8188658356666565</v>
+        <v>-3.531861543655396</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.552283763885498</v>
+        <v>-0.121089905500412</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.012463808059692</v>
+        <v>-0.1966368556022644</v>
       </c>
       <c r="D99" t="n">
-        <v>0.7096009850502014</v>
+        <v>-3.460201740264893</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.431122660636902</v>
+        <v>-0.1211633384227753</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.7937509417533875</v>
+        <v>-0.1831701397895813</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8199222087860107</v>
+        <v>-3.167681455612183</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.300058364868164</v>
+        <v>0.002177093178033829</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.7203019857406616</v>
+        <v>-0.2032801508903503</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7515310645103455</v>
+        <v>-2.912484645843506</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.319273471832275</v>
+        <v>0.1411685645580292</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.7656397223472595</v>
+        <v>-0.2422341704368591</v>
       </c>
       <c r="D102" t="n">
-        <v>0.7885459065437317</v>
+        <v>-3.047533750534058</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-1.330611109733582</v>
+        <v>0.1550995409488678</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.8538714647293091</v>
+        <v>-0.2205210030078888</v>
       </c>
       <c r="D103" t="n">
-        <v>0.7980807423591614</v>
+        <v>-2.783793687820435</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.370558857917786</v>
+        <v>0.1174810826778412</v>
       </c>
       <c r="C104" t="n">
-        <v>-1.092462301254272</v>
+        <v>-0.1977116465568542</v>
       </c>
       <c r="D104" t="n">
-        <v>0.729485034942627</v>
+        <v>-3.293583631515503</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.347426414489746</v>
+        <v>0.03731057420372963</v>
       </c>
       <c r="C105" t="n">
-        <v>-1.174055695533752</v>
+        <v>-0.1646177172660828</v>
       </c>
       <c r="D105" t="n">
-        <v>0.602450966835022</v>
+        <v>-3.545528650283813</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-1.729530930519104</v>
+        <v>0.1779714524745941</v>
       </c>
       <c r="C106" t="n">
-        <v>-1.247271537780762</v>
+        <v>-0.2045425772666931</v>
       </c>
       <c r="D106" t="n">
-        <v>0.934701681137085</v>
+        <v>-4.054181098937988</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.623642563819885</v>
+        <v>0.1485796272754669</v>
       </c>
       <c r="C107" t="n">
-        <v>-1.404534816741943</v>
+        <v>-0.191962718963623</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7359241843223572</v>
+        <v>-4.316473960876465</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.700182795524597</v>
+        <v>0.2146894037723541</v>
       </c>
       <c r="C108" t="n">
-        <v>-1.46707010269165</v>
+        <v>-0.2010065913200378</v>
       </c>
       <c r="D108" t="n">
-        <v>0.829355776309967</v>
+        <v>-4.219770431518555</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-1.844963312149048</v>
+        <v>0.2093473970890045</v>
       </c>
       <c r="C109" t="n">
-        <v>-1.435762763023376</v>
+        <v>-0.1747997403144836</v>
       </c>
       <c r="D109" t="n">
-        <v>0.910373330116272</v>
+        <v>-4.424189567565918</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-2.470879077911377</v>
+        <v>0.1864651739597321</v>
       </c>
       <c r="C110" t="n">
-        <v>-1.75219988822937</v>
+        <v>-0.1873930692672729</v>
       </c>
       <c r="D110" t="n">
-        <v>0.939978301525116</v>
+        <v>-5.138161659240723</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-2.159831523895264</v>
+        <v>0.2090721428394318</v>
       </c>
       <c r="C111" t="n">
-        <v>-1.764843583106995</v>
+        <v>-0.2690961360931396</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7609742283821106</v>
+        <v>-4.989798545837402</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-2.375492334365845</v>
+        <v>0.1864130795001984</v>
       </c>
       <c r="C112" t="n">
-        <v>-1.84412145614624</v>
+        <v>-0.2584919333457947</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7680925130844116</v>
+        <v>-5.01114559173584</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-2.233479261398315</v>
+        <v>0.2490700781345367</v>
       </c>
       <c r="C113" t="n">
-        <v>-1.649610996246338</v>
+        <v>-0.2881528735160828</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6927457451820374</v>
+        <v>-4.623328685760498</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-1.836123466491699</v>
+        <v>0.1934786736965179</v>
       </c>
       <c r="C114" t="n">
-        <v>-1.338277697563171</v>
+        <v>-0.2782076597213745</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5824590921401978</v>
+        <v>-3.870938062667847</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.666820526123047</v>
+        <v>-0.05750450119376183</v>
       </c>
       <c r="C115" t="n">
-        <v>-1.284401178359985</v>
+        <v>-0.2297543883323669</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4037387073040009</v>
+        <v>-4.257689952850342</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-1.886984825134277</v>
+        <v>0.04475811496376991</v>
       </c>
       <c r="C116" t="n">
-        <v>-1.373319983482361</v>
+        <v>-0.2237105369567871</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5425914525985718</v>
+        <v>-4.239485263824463</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-1.723540306091309</v>
+        <v>0.02312580123543739</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.338165283203125</v>
+        <v>-0.2258987426757812</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4338453710079193</v>
+        <v>-3.918484449386597</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-2.015972137451172</v>
+        <v>0.006155107170343399</v>
       </c>
       <c r="C118" t="n">
-        <v>-1.453327536582947</v>
+        <v>-0.2135481238365173</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4879882335662842</v>
+        <v>-3.982428312301636</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-2.503756999969482</v>
+        <v>0.1137475073337555</v>
       </c>
       <c r="C119" t="n">
-        <v>-1.718257427215576</v>
+        <v>-0.1953483819961548</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6111102104187012</v>
+        <v>-4.691047668457031</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-2.172211885452271</v>
+        <v>0.1337960064411163</v>
       </c>
       <c r="C120" t="n">
-        <v>-1.399271488189697</v>
+        <v>-0.2054780721664429</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5510779023170471</v>
+        <v>-4.37924337387085</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.553915023803711</v>
+        <v>0.1713338792324066</v>
       </c>
       <c r="C121" t="n">
-        <v>-1.027261018753052</v>
+        <v>-0.2531623840332031</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4591886401176453</v>
+        <v>-3.44097900390625</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-1.487052202224731</v>
+        <v>0.2546018064022064</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.7997738122940063</v>
+        <v>-0.2291733920574188</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5449743270874023</v>
+        <v>-2.909798860549927</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-1.644990921020508</v>
+        <v>0.2792937457561493</v>
       </c>
       <c r="C123" t="n">
-        <v>-1.130993962287903</v>
+        <v>-0.2715592980384827</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4718516767024994</v>
+        <v>-3.423535823822021</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-1.428743124008179</v>
+        <v>0.1557609140872955</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.9936410188674927</v>
+        <v>-0.2282229065895081</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3476195931434631</v>
+        <v>-3.249362707138062</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.540201187133789</v>
+        <v>0.1667561829090118</v>
       </c>
       <c r="C125" t="n">
-        <v>-1.016609191894531</v>
+        <v>-0.2418802678585052</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4279383420944214</v>
+        <v>-3.523563623428345</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-1.947661519050598</v>
+        <v>0.1663081347942352</v>
       </c>
       <c r="C126" t="n">
-        <v>-1.383459329605103</v>
+        <v>-0.2326221466064453</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5212138891220093</v>
+        <v>-4.205578327178955</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.502794504165649</v>
+        <v>0.2414058148860931</v>
       </c>
       <c r="C127" t="n">
-        <v>-1.152123808860779</v>
+        <v>-0.2815087139606476</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4041461050510406</v>
+        <v>-3.365962266921997</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.458099246025085</v>
+        <v>0.1847706139087677</v>
       </c>
       <c r="C128" t="n">
-        <v>-1.131543397903442</v>
+        <v>-0.2522231340408325</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3557567298412323</v>
+        <v>-3.260507822036743</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-1.757317662239075</v>
+        <v>0.1733995378017426</v>
       </c>
       <c r="C129" t="n">
-        <v>-1.261181354522705</v>
+        <v>-0.2216725945472717</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4337450265884399</v>
+        <v>-3.717393636703491</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-1.409557461738586</v>
+        <v>0.002747032791376114</v>
       </c>
       <c r="C130" t="n">
-        <v>-1.055378198623657</v>
+        <v>-0.1459435224533081</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3564872741699219</v>
+        <v>-2.997890710830688</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-1.338950634002686</v>
+        <v>0.08454537391662598</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.7920441031455994</v>
+        <v>-0.1750303208827972</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5064354538917542</v>
+        <v>-2.446755647659302</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.269456386566162</v>
+        <v>0.09253141283988953</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.7038522362709045</v>
+        <v>-0.1596400439739227</v>
       </c>
       <c r="D132" t="n">
-        <v>0.46292644739151</v>
+        <v>-2.156694412231445</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-1.237242937088013</v>
+        <v>0.08701252937316895</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.8214184045791626</v>
+        <v>-0.1689635813236237</v>
       </c>
       <c r="D133" t="n">
-        <v>0.3962311744689941</v>
+        <v>-2.408105134963989</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-1.397011518478394</v>
+        <v>0.07653740048408508</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.9644061923027039</v>
+        <v>-0.1932337284088135</v>
       </c>
       <c r="D134" t="n">
-        <v>0.4063417017459869</v>
+        <v>-2.854233980178833</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-1.533581495285034</v>
+        <v>0.1241385042667389</v>
       </c>
       <c r="C135" t="n">
-        <v>-1.087013363838196</v>
+        <v>-0.2262605726718903</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4538065791130066</v>
+        <v>-2.91435170173645</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-1.395014762878418</v>
+        <v>0.0819379985332489</v>
       </c>
       <c r="C136" t="n">
-        <v>-1.01423180103302</v>
+        <v>-0.180998295545578</v>
       </c>
       <c r="D136" t="n">
-        <v>0.4219427406787872</v>
+        <v>-2.730819463729858</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.288747072219849</v>
+        <v>0.03553605452179909</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.8848524689674377</v>
+        <v>-0.1379314661026001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.4173310399055481</v>
+        <v>-2.324248552322388</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.506994605064392</v>
+        <v>-0.01857959851622581</v>
       </c>
       <c r="C138" t="n">
-        <v>-1.110436916351318</v>
+        <v>-0.07121679186820984</v>
       </c>
       <c r="D138" t="n">
-        <v>0.4055027365684509</v>
+        <v>-2.414740085601807</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-1.748173475265503</v>
+        <v>-0.1107921302318573</v>
       </c>
       <c r="C139" t="n">
-        <v>-1.327810883522034</v>
+        <v>-0.0300842821598053</v>
       </c>
       <c r="D139" t="n">
-        <v>0.4600208699703217</v>
+        <v>-3.083325624465942</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-1.691988945007324</v>
+        <v>-0.1444134414196014</v>
       </c>
       <c r="C140" t="n">
-        <v>-1.362785339355469</v>
+        <v>-0.02862069010734558</v>
       </c>
       <c r="D140" t="n">
-        <v>0.355859637260437</v>
+        <v>-3.283337593078613</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-1.246878504753113</v>
+        <v>-0.1827873587608337</v>
       </c>
       <c r="C141" t="n">
-        <v>-1.001015663146973</v>
+        <v>0.08421605825424194</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3042941391468048</v>
+        <v>-1.820966601371765</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-1.225738763809204</v>
+        <v>-0.2741323113441467</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.9935999512672424</v>
+        <v>0.178756982088089</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4139758348464966</v>
+        <v>-1.626953482627869</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-1.40777575969696</v>
+        <v>-0.2158576846122742</v>
       </c>
       <c r="C143" t="n">
-        <v>-1.094986319541931</v>
+        <v>0.1253982782363892</v>
       </c>
       <c r="D143" t="n">
-        <v>0.3225806951522827</v>
+        <v>-1.667294383049011</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-1.720700740814209</v>
+        <v>-0.1502967774868011</v>
       </c>
       <c r="C144" t="n">
-        <v>-1.316800832748413</v>
+        <v>0.09158843755722046</v>
       </c>
       <c r="D144" t="n">
-        <v>0.219706192612648</v>
+        <v>-2.337980985641479</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-1.882894515991211</v>
+        <v>-0.0118197463452816</v>
       </c>
       <c r="C145" t="n">
-        <v>-1.447118997573853</v>
+        <v>0.0247189998626709</v>
       </c>
       <c r="D145" t="n">
-        <v>0.3531765341758728</v>
+        <v>-2.416298151016235</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-1.713708162307739</v>
+        <v>0.02534011378884315</v>
       </c>
       <c r="C146" t="n">
-        <v>-1.341742396354675</v>
+        <v>-0.01414072513580322</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1710488200187683</v>
+        <v>-2.298474788665771</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-1.504592895507812</v>
+        <v>0.007434163242578506</v>
       </c>
       <c r="C147" t="n">
-        <v>-1.204837560653687</v>
+        <v>-0.01049613952636719</v>
       </c>
       <c r="D147" t="n">
-        <v>0.2106975466012955</v>
+        <v>-2.152724027633667</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.485498309135437</v>
+        <v>0.05933097377419472</v>
       </c>
       <c r="C148" t="n">
-        <v>-1.147118091583252</v>
+        <v>-0.02573853731155396</v>
       </c>
       <c r="D148" t="n">
-        <v>0.3419618010520935</v>
+        <v>-2.031064510345459</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.591675400733948</v>
+        <v>0.1763956248760223</v>
       </c>
       <c r="C149" t="n">
-        <v>-1.046559691429138</v>
+        <v>-0.05848217010498047</v>
       </c>
       <c r="D149" t="n">
-        <v>0.5688207149505615</v>
+        <v>-2.118883371353149</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.43894624710083</v>
+        <v>0.09772023558616638</v>
       </c>
       <c r="C150" t="n">
-        <v>-1.004157066345215</v>
+        <v>-0.02668040990829468</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4699068963527679</v>
+        <v>-1.958167552947998</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-1.409287691116333</v>
+        <v>-0.04320743307471275</v>
       </c>
       <c r="C151" t="n">
-        <v>-1.089971303939819</v>
+        <v>0.06247115135192871</v>
       </c>
       <c r="D151" t="n">
-        <v>0.3451116681098938</v>
+        <v>-1.753379583358765</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-1.482526779174805</v>
+        <v>-0.05722149834036827</v>
       </c>
       <c r="C152" t="n">
-        <v>-1.159982562065125</v>
+        <v>0.02099770307540894</v>
       </c>
       <c r="D152" t="n">
-        <v>0.2896057367324829</v>
+        <v>-2.187530517578125</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-1.509467244148254</v>
+        <v>0.04873684421181679</v>
       </c>
       <c r="C153" t="n">
-        <v>-1.203950524330139</v>
+        <v>-0.001153111457824707</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1516586989164352</v>
+        <v>-1.806882381439209</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-1.754591941833496</v>
+        <v>0.06249723210930824</v>
       </c>
       <c r="C154" t="n">
-        <v>-1.446154594421387</v>
+        <v>0.03830212354660034</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.06714117527008057</v>
+        <v>-2.221684694290161</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-1.827284336090088</v>
+        <v>0.04862222447991371</v>
       </c>
       <c r="C155" t="n">
-        <v>-1.453209638595581</v>
+        <v>0.02761560678482056</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1578093320131302</v>
+        <v>-2.231538534164429</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-1.771188259124756</v>
+        <v>0.07513526082038879</v>
       </c>
       <c r="C156" t="n">
-        <v>-1.42679762840271</v>
+        <v>0.01044780015945435</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2379150688648224</v>
+        <v>-2.39275074005127</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-1.648959279060364</v>
+        <v>0.01756695285439491</v>
       </c>
       <c r="C157" t="n">
-        <v>-1.364431142807007</v>
+        <v>0.001226603984832764</v>
       </c>
       <c r="D157" t="n">
-        <v>0.231686532497406</v>
+        <v>-2.377285957336426</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-1.725311398506165</v>
+        <v>-0.003295924514532089</v>
       </c>
       <c r="C158" t="n">
-        <v>-1.377857446670532</v>
+        <v>-0.01408845186233521</v>
       </c>
       <c r="D158" t="n">
-        <v>0.2572555541992188</v>
+        <v>-2.528440237045288</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-1.79432737827301</v>
+        <v>0.06276687979698181</v>
       </c>
       <c r="C159" t="n">
-        <v>-1.311651349067688</v>
+        <v>-0.03582185506820679</v>
       </c>
       <c r="D159" t="n">
-        <v>0.3870500326156616</v>
+        <v>-2.29206371307373</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-1.954985499382019</v>
+        <v>0.1418637931346893</v>
       </c>
       <c r="C160" t="n">
-        <v>-1.342097043991089</v>
+        <v>-0.07819008827209473</v>
       </c>
       <c r="D160" t="n">
-        <v>0.4916184544563293</v>
+        <v>-2.732921838760376</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-1.753961682319641</v>
+        <v>0.05967602506279945</v>
       </c>
       <c r="C161" t="n">
-        <v>-1.250093579292297</v>
+        <v>-0.05175089836120605</v>
       </c>
       <c r="D161" t="n">
-        <v>0.3850350081920624</v>
+        <v>-2.246758222579956</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-1.705374956130981</v>
+        <v>0.04116353765130043</v>
       </c>
       <c r="C162" t="n">
-        <v>-1.121480226516724</v>
+        <v>-0.007383406162261963</v>
       </c>
       <c r="D162" t="n">
-        <v>0.4955484569072723</v>
+        <v>-1.80337131023407</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-2.506045818328857</v>
+        <v>0.03271535411477089</v>
       </c>
       <c r="C163" t="n">
-        <v>-1.563953518867493</v>
+        <v>-0.007660746574401855</v>
       </c>
       <c r="D163" t="n">
-        <v>0.6952766180038452</v>
+        <v>-3.505648851394653</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-1.98591935634613</v>
+        <v>0.2363573014736176</v>
       </c>
       <c r="C164" t="n">
-        <v>-1.086942434310913</v>
+        <v>-0.08595216274261475</v>
       </c>
       <c r="D164" t="n">
-        <v>0.7085942029953003</v>
+        <v>-2.073122024536133</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-2.238340616226196</v>
+        <v>0.1809533536434174</v>
       </c>
       <c r="C165" t="n">
-        <v>-1.157940149307251</v>
+        <v>-0.1031326055526733</v>
       </c>
       <c r="D165" t="n">
-        <v>0.8702781796455383</v>
+        <v>-2.956441164016724</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-2.349413156509399</v>
+        <v>0.1451574862003326</v>
       </c>
       <c r="C166" t="n">
-        <v>-1.15725314617157</v>
+        <v>-0.09737062454223633</v>
       </c>
       <c r="D166" t="n">
-        <v>0.8673892617225647</v>
+        <v>-3.186580896377563</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-2.134946346282959</v>
+        <v>0.07338401675224304</v>
       </c>
       <c r="C167" t="n">
-        <v>-1.008978128433228</v>
+        <v>-0.04968595504760742</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9056271314620972</v>
+        <v>-2.769282817840576</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.892903804779053</v>
+        <v>0.1060780584812164</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.9166756272315979</v>
+        <v>-0.03624576330184937</v>
       </c>
       <c r="D168" t="n">
-        <v>0.8415278792381287</v>
+        <v>-2.369323253631592</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-1.780514478683472</v>
+        <v>0.03757962957024574</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.7756704688072205</v>
+        <v>0.03174149990081787</v>
       </c>
       <c r="D169" t="n">
-        <v>0.8506540656089783</v>
+        <v>-2.018863916397095</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-1.701844215393066</v>
+        <v>-0.02357795462012291</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.7928436994552612</v>
+        <v>0.05288791656494141</v>
       </c>
       <c r="D170" t="n">
-        <v>0.79002445936203</v>
+        <v>-2.014749050140381</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-1.975227832794189</v>
+        <v>-0.08010050654411316</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.8697928786277771</v>
+        <v>0.05359113216400146</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9071915149688721</v>
+        <v>-2.296802759170532</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-2.112973213195801</v>
+        <v>0.02375296130776405</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.9173784255981445</v>
+        <v>-0.02382266521453857</v>
       </c>
       <c r="D172" t="n">
-        <v>1.025234222412109</v>
+        <v>-2.554701566696167</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-2.300522089004517</v>
+        <v>0.008147154003381729</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.962424099445343</v>
+        <v>-0.06128585338592529</v>
       </c>
       <c r="D173" t="n">
-        <v>1.088114738464355</v>
+        <v>-2.759473085403442</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.968802452087402</v>
+        <v>0.1143915355205536</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.7973235249519348</v>
+        <v>-0.05957603454589844</v>
       </c>
       <c r="D174" t="n">
-        <v>0.9727373719215393</v>
+        <v>-2.257399797439575</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.720272541046143</v>
+        <v>-0.009541060775518417</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.6465913057327271</v>
+        <v>-0.04226654767990112</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9360908269882202</v>
+        <v>-2.171955585479736</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-1.530956506729126</v>
+        <v>0.03202358260750771</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.5757502913475037</v>
+        <v>-0.03216135501861572</v>
       </c>
       <c r="D176" t="n">
-        <v>0.8747511506080627</v>
+        <v>-2.071823596954346</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-1.79382586479187</v>
+        <v>-0.06907972693443298</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.6813547611236572</v>
+        <v>0.02205103635787964</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9245224595069885</v>
+        <v>-2.144590139389038</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-1.846692562103271</v>
+        <v>-0.03202333673834801</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.6961158514022827</v>
+        <v>0.0161934494972229</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9709087014198303</v>
+        <v>-2.2731614112854</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.962485551834106</v>
+        <v>-0.1965601742267609</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.8813269138336182</v>
+        <v>0.01088261604309082</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9118728637695312</v>
+        <v>-2.929735422134399</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.487815499305725</v>
+        <v>-0.07341298460960388</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.7454926371574402</v>
+        <v>0.04287368059158325</v>
       </c>
       <c r="D180" t="n">
-        <v>0.7031257748603821</v>
+        <v>-2.226972818374634</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.52735447883606</v>
+        <v>-0.1196499168872833</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.8124423623085022</v>
+        <v>0.07853317260742188</v>
       </c>
       <c r="D181" t="n">
-        <v>0.6493352651596069</v>
+        <v>-2.089826822280884</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-1.593583345413208</v>
+        <v>-0.2017515599727631</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.8503273129463196</v>
+        <v>0.1360925436019897</v>
       </c>
       <c r="D182" t="n">
-        <v>0.6689561009407043</v>
+        <v>-2.06008243560791</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.720588684082031</v>
+        <v>-0.4295181334018707</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.9595851302146912</v>
+        <v>0.2472732067108154</v>
       </c>
       <c r="D183" t="n">
-        <v>0.6490554809570312</v>
+        <v>-2.94664740562439</v>
       </c>
     </row>
   </sheetData>
